--- a/data_analyzed/moment.xlsx
+++ b/data_analyzed/moment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M475"/>
+  <dimension ref="A1:M665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7887,10 +7887,18 @@
       <c r="I173" t="n">
         <v>5.193034230782233</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>-0.2646634522547932</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.1206907820670968</v>
+      </c>
+      <c r="L173" t="n">
+        <v>-0.3767260160405279</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2.278413693371704</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8700,10 +8708,18 @@
       <c r="I192" t="n">
         <v>4.880809278211021</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>-0.2142540206958893</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.1228639571988135</v>
+      </c>
+      <c r="L192" t="n">
+        <v>-0.3323086314944577</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2.233479598900402</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9507,10 +9523,18 @@
       <c r="I211" t="n">
         <v>11.20949586954128</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>-0.342876234486386</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.1274131871550484</v>
+      </c>
+      <c r="L211" t="n">
+        <v>-0.1829713851493645</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2.163980622391977</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -10314,10 +10338,18 @@
       <c r="I230" t="n">
         <v>6.284857069564539</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>-0.2831070313908791</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0.1290186152407841</v>
+      </c>
+      <c r="L230" t="n">
+        <v>-0.1258124281252135</v>
+      </c>
+      <c r="M230" t="n">
+        <v>2.151540561206611</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -11121,10 +11153,18 @@
       <c r="I249" t="n">
         <v>7.240240178733063</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>-0.2008906139042105</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0.1320173957889776</v>
+      </c>
+      <c r="L249" t="n">
+        <v>-0.0771960728725874</v>
+      </c>
+      <c r="M249" t="n">
+        <v>2.113254832121663</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -11881,10 +11921,18 @@
       <c r="I267" t="n">
         <v>7.326286247910778</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>-0.2934792600301572</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.133698717246106</v>
+      </c>
+      <c r="L267" t="n">
+        <v>-0.01417999873967634</v>
+      </c>
+      <c r="M267" t="n">
+        <v>2.113179830839791</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -12647,10 +12695,18 @@
       <c r="I285" t="n">
         <v>25.54216820437707</v>
       </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0.2002872124710258</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.1370903966927975</v>
+      </c>
+      <c r="L285" t="n">
+        <v>-0.06502238569519557</v>
+      </c>
+      <c r="M285" t="n">
+        <v>2.081799930256534</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -13446,10 +13502,18 @@
       <c r="I304" t="n">
         <v>6.905867621175205</v>
       </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>-0.2740522758812225</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.1449114456359877</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0.1370723824103108</v>
+      </c>
+      <c r="M304" t="n">
+        <v>2.068287258175172</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -14245,10 +14309,18 @@
       <c r="I323" t="n">
         <v>4.415314069341718</v>
       </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>-0.2795786925009982</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.1478228527254646</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0.2116964785658925</v>
+      </c>
+      <c r="M323" t="n">
+        <v>2.08009459663473</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -15044,10 +15116,18 @@
       <c r="I342" t="n">
         <v>4.07576930111403</v>
       </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>-0.2690455451269347</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.1512338705557182</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0.2873011317474146</v>
+      </c>
+      <c r="M342" t="n">
+        <v>2.093466386518675</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -15796,10 +15876,18 @@
       <c r="I360" t="n">
         <v>7.056324588959789</v>
       </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>-0.3016053949076186</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.1541531019975352</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0.3740711691849458</v>
+      </c>
+      <c r="M360" t="n">
+        <v>2.136546488859221</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -16593,10 +16681,18 @@
       <c r="I379" t="n">
         <v>5.495614543167376</v>
       </c>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
-      <c r="M379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>0.1714395123849262</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.1601577483382351</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0.31488523642518</v>
+      </c>
+      <c r="M379" t="n">
+        <v>2.045464479339962</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -17384,10 +17480,18 @@
       <c r="I398" t="n">
         <v>6.398554222101945</v>
       </c>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
-      <c r="M398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>0.2546123250592053</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1558172261155497</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0.102224014310297</v>
+      </c>
+      <c r="M398" t="n">
+        <v>2.056278732576485</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -18175,10 +18279,18 @@
       <c r="I417" t="n">
         <v>6.159961061279065</v>
       </c>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
-      <c r="M417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>0.6029679772580818</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.1447845907655555</v>
+      </c>
+      <c r="L417" t="n">
+        <v>0.05323863284599652</v>
+      </c>
+      <c r="M417" t="n">
+        <v>2.161267405311866</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -18966,10 +19078,18 @@
       <c r="I436" t="n">
         <v>8.079291358249424</v>
       </c>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
-      <c r="M436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>0.4653776749851735</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.1410938406075437</v>
+      </c>
+      <c r="L436" t="n">
+        <v>-0.06113010082899263</v>
+      </c>
+      <c r="M436" t="n">
+        <v>2.288428103570097</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -19710,10 +19830,18 @@
       <c r="I454" t="n">
         <v>15.27333756516148</v>
       </c>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
-      <c r="M454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>0.1144803863398214</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.1496809867195149</v>
+      </c>
+      <c r="L454" t="n">
+        <v>-0.1137402192542868</v>
+      </c>
+      <c r="M454" t="n">
+        <v>2.174913384159385</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -20499,10 +20627,18 @@
       <c r="I473" t="n">
         <v>12.45362424817481</v>
       </c>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
-      <c r="M473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>0.07474197184987606</v>
+      </c>
+      <c r="K473" t="n">
+        <v>0.1600000616138411</v>
+      </c>
+      <c r="L473" t="n">
+        <v>-0.147261406832683</v>
+      </c>
+      <c r="M473" t="n">
+        <v>2.045720617683503</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -20582,6 +20718,7704 @@
       <c r="L475" t="inlineStr"/>
       <c r="M475" t="inlineStr"/>
     </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>0.04931506849315068</v>
+      </c>
+      <c r="E476" t="n">
+        <v>119456.7137766536</v>
+      </c>
+      <c r="F476" t="n">
+        <v>-0.0401085076390937</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.1527997448760481</v>
+      </c>
+      <c r="H476" t="n">
+        <v>-1.307141611426339</v>
+      </c>
+      <c r="I476" t="n">
+        <v>14.51036342051753</v>
+      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>0.126027397260274</v>
+      </c>
+      <c r="E477" t="n">
+        <v>120169.8190520154</v>
+      </c>
+      <c r="F477" t="n">
+        <v>-0.02816093903347443</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.1747674995170342</v>
+      </c>
+      <c r="H477" t="n">
+        <v>-0.8707257193905734</v>
+      </c>
+      <c r="I477" t="n">
+        <v>11.18105589161218</v>
+      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>0.2219178082191781</v>
+      </c>
+      <c r="E478" t="n">
+        <v>120968.7908717448</v>
+      </c>
+      <c r="F478" t="n">
+        <v>-0.03198338476699025</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0.2145505469002668</v>
+      </c>
+      <c r="H478" t="n">
+        <v>-1.262641265128083</v>
+      </c>
+      <c r="I478" t="n">
+        <v>12.92348149368938</v>
+      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>0.2986301369863014</v>
+      </c>
+      <c r="E479" t="n">
+        <v>121783.8393240221</v>
+      </c>
+      <c r="F479" t="n">
+        <v>-0.03020008394618977</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.2055998860261872</v>
+      </c>
+      <c r="H479" t="n">
+        <v>-0.2870444160357143</v>
+      </c>
+      <c r="I479" t="n">
+        <v>5.551921102783954</v>
+      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>0.3753424657534247</v>
+      </c>
+      <c r="E480" t="n">
+        <v>122320.1034920336</v>
+      </c>
+      <c r="F480" t="n">
+        <v>-0.04123287563062127</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.2556549033238853</v>
+      </c>
+      <c r="H480" t="n">
+        <v>-1.523738111034933</v>
+      </c>
+      <c r="I480" t="n">
+        <v>15.27655234674661</v>
+      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>0.4712328767123288</v>
+      </c>
+      <c r="E481" t="n">
+        <v>123100.2581547313</v>
+      </c>
+      <c r="F481" t="n">
+        <v>-0.08061371765650004</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.4159358580424581</v>
+      </c>
+      <c r="H481" t="n">
+        <v>-2.238472789462326</v>
+      </c>
+      <c r="I481" t="n">
+        <v>11.95106464436705</v>
+      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>0.7972602739726027</v>
+      </c>
+      <c r="E482" t="n">
+        <v>124007.6216220124</v>
+      </c>
+      <c r="F482" t="n">
+        <v>-0.05573973778155311</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0.224389507730409</v>
+      </c>
+      <c r="H482" t="n">
+        <v>-1.166705394792903</v>
+      </c>
+      <c r="I482" t="n">
+        <v>9.859771197438626</v>
+      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>0.873972602739726</v>
+      </c>
+      <c r="E483" t="n">
+        <v>126219.7709573658</v>
+      </c>
+      <c r="F483" t="n">
+        <v>-0.08748890431166273</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.3958121531733944</v>
+      </c>
+      <c r="H483" t="n">
+        <v>-2.481077971581595</v>
+      </c>
+      <c r="I483" t="n">
+        <v>17.69153608379611</v>
+      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>1.123287671232877</v>
+      </c>
+      <c r="E484" t="n">
+        <v>127371.2474473089</v>
+      </c>
+      <c r="F484" t="n">
+        <v>-0.1159624685705138</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.4316863350847752</v>
+      </c>
+      <c r="H484" t="n">
+        <v>-1.970034229554358</v>
+      </c>
+      <c r="I484" t="n">
+        <v>10.54364586667391</v>
+      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
+      <c r="M484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="E485" t="n">
+        <v>129316.0856772514</v>
+      </c>
+      <c r="F485" t="n">
+        <v>-0.1819645223096523</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.6835339037789454</v>
+      </c>
+      <c r="H485" t="n">
+        <v>-2.331238627384894</v>
+      </c>
+      <c r="I485" t="n">
+        <v>10.44640855784585</v>
+      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
+      <c r="M485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E486" t="n">
+        <v>120243.3887004827</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0.001793052638247954</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.1004484724892903</v>
+      </c>
+      <c r="H486" t="n">
+        <v>-1.402121677007015</v>
+      </c>
+      <c r="I486" t="n">
+        <v>11.88374760960813</v>
+      </c>
+      <c r="J486" t="n">
+        <v>-0.2722126295907367</v>
+      </c>
+      <c r="K486" t="n">
+        <v>0.08167423772763516</v>
+      </c>
+      <c r="L486" t="n">
+        <v>0.05345041785086774</v>
+      </c>
+      <c r="M486" t="n">
+        <v>3.089974188252232</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E487" t="n">
+        <v>119473.9565747763</v>
+      </c>
+      <c r="F487" t="n">
+        <v>-0.1030817397210733</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.1703242951331179</v>
+      </c>
+      <c r="H487" t="n">
+        <v>-0.01782359744027981</v>
+      </c>
+      <c r="I487" t="n">
+        <v>2.960673414495851</v>
+      </c>
+      <c r="J487" t="n">
+        <v>-0.1496688745645089</v>
+      </c>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
+      <c r="M487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E488" t="n">
+        <v>119640.3595382154</v>
+      </c>
+      <c r="F488" t="n">
+        <v>-0.03991402538273136</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.172915040463256</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.233496355637839</v>
+      </c>
+      <c r="I488" t="n">
+        <v>23.02105419696834</v>
+      </c>
+      <c r="J488" t="n">
+        <v>-0.3535124125559107</v>
+      </c>
+      <c r="K488" t="n">
+        <v>0.1177325409829715</v>
+      </c>
+      <c r="L488" t="n">
+        <v>-0.1001904088510855</v>
+      </c>
+      <c r="M488" t="n">
+        <v>2.479974829687293</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E489" t="n">
+        <v>119464.227456565</v>
+      </c>
+      <c r="F489" t="n">
+        <v>-0.07735206522875727</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.1755039790312434</v>
+      </c>
+      <c r="H489" t="n">
+        <v>-0.5622289320650686</v>
+      </c>
+      <c r="I489" t="n">
+        <v>6.477383784021709</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0.05054844335669496</v>
+      </c>
+      <c r="K489" t="n">
+        <v>0.04008697439556044</v>
+      </c>
+      <c r="L489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M489" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E490" t="n">
+        <v>119425.4210826988</v>
+      </c>
+      <c r="F490" t="n">
+        <v>-0.06870342375133112</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.1599162005397179</v>
+      </c>
+      <c r="H490" t="n">
+        <v>-0.8144810883586554</v>
+      </c>
+      <c r="I490" t="n">
+        <v>6.843926313228416</v>
+      </c>
+      <c r="J490" t="n">
+        <v>-0.03768199966484031</v>
+      </c>
+      <c r="K490" t="n">
+        <v>0.04229387174859305</v>
+      </c>
+      <c r="L490" t="n">
+        <v>0.6553398646388584</v>
+      </c>
+      <c r="M490" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E491" t="n">
+        <v>119457.9433019182</v>
+      </c>
+      <c r="F491" t="n">
+        <v>-0.05692069891981229</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0.1315994569198942</v>
+      </c>
+      <c r="H491" t="n">
+        <v>-0.8221158607054518</v>
+      </c>
+      <c r="I491" t="n">
+        <v>8.194927657641028</v>
+      </c>
+      <c r="J491" t="n">
+        <v>-0.1172078562980819</v>
+      </c>
+      <c r="K491" t="n">
+        <v>0.0506934894311975</v>
+      </c>
+      <c r="L491" t="n">
+        <v>0.7732037560215611</v>
+      </c>
+      <c r="M491" t="n">
+        <v>2.107494143982407</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>0.03013698630136986</v>
+      </c>
+      <c r="E492" t="n">
+        <v>119470.5508117691</v>
+      </c>
+      <c r="F492" t="n">
+        <v>-0.04195648911131684</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0.1398364789044229</v>
+      </c>
+      <c r="H492" t="n">
+        <v>-0.7121174081154931</v>
+      </c>
+      <c r="I492" t="n">
+        <v>8.206592346337539</v>
+      </c>
+      <c r="J492" t="n">
+        <v>-0.5290270790748189</v>
+      </c>
+      <c r="K492" t="n">
+        <v>0.1744809323408738</v>
+      </c>
+      <c r="L492" t="n">
+        <v>0.1283063042486572</v>
+      </c>
+      <c r="M492" t="n">
+        <v>1.982855391251864</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="E493" t="n">
+        <v>120324.4256529388</v>
+      </c>
+      <c r="F493" t="n">
+        <v>-0.0139430497053273</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.1568048860754414</v>
+      </c>
+      <c r="H493" t="n">
+        <v>-0.3726631292342794</v>
+      </c>
+      <c r="I493" t="n">
+        <v>7.785725622024378</v>
+      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>0.08767123287671233</v>
+      </c>
+      <c r="E494" t="n">
+        <v>120358.9556872495</v>
+      </c>
+      <c r="F494" t="n">
+        <v>-0.01629455490862864</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.1549151355448153</v>
+      </c>
+      <c r="H494" t="n">
+        <v>-0.2702115885914454</v>
+      </c>
+      <c r="I494" t="n">
+        <v>6.858465299510215</v>
+      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
+      <c r="M494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>0.04657534246575343</v>
+      </c>
+      <c r="E495" t="n">
+        <v>120150.8445119074</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.02423899962643895</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.1385046136694319</v>
+      </c>
+      <c r="H495" t="n">
+        <v>-1.228331587146245</v>
+      </c>
+      <c r="I495" t="n">
+        <v>14.09246320819426</v>
+      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
+      <c r="M495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>0.1232876712328767</v>
+      </c>
+      <c r="E496" t="n">
+        <v>120889.5512969305</v>
+      </c>
+      <c r="F496" t="n">
+        <v>0.01305657090623469</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0.1654758128644521</v>
+      </c>
+      <c r="H496" t="n">
+        <v>-0.8648735435309474</v>
+      </c>
+      <c r="I496" t="n">
+        <v>11.13639132084934</v>
+      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
+      <c r="M496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>0.2191780821917808</v>
+      </c>
+      <c r="E497" t="n">
+        <v>121698.1112984824</v>
+      </c>
+      <c r="F497" t="n">
+        <v>-0.004128372446584004</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0.2734574224541041</v>
+      </c>
+      <c r="H497" t="n">
+        <v>-6.65418556957281</v>
+      </c>
+      <c r="I497" t="n">
+        <v>136.6548255497086</v>
+      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
+      <c r="M497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>0.2958904109589041</v>
+      </c>
+      <c r="E498" t="n">
+        <v>122464.6743444607</v>
+      </c>
+      <c r="F498" t="n">
+        <v>-0.004764837660995527</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0.208461445880669</v>
+      </c>
+      <c r="H498" t="n">
+        <v>-0.6237558441110856</v>
+      </c>
+      <c r="I498" t="n">
+        <v>7.343928457239815</v>
+      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
+      <c r="M498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>0.3726027397260274</v>
+      </c>
+      <c r="E499" t="n">
+        <v>123001.2212401229</v>
+      </c>
+      <c r="F499" t="n">
+        <v>-0.01585451649412337</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0.2397795220318818</v>
+      </c>
+      <c r="H499" t="n">
+        <v>-1.149068357309844</v>
+      </c>
+      <c r="I499" t="n">
+        <v>10.16919945939624</v>
+      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
+      <c r="M499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>0.4684931506849315</v>
+      </c>
+      <c r="E500" t="n">
+        <v>124205.3231953001</v>
+      </c>
+      <c r="F500" t="n">
+        <v>-0.04111718752626101</v>
+      </c>
+      <c r="G500" t="n">
+        <v>0.3413230717657155</v>
+      </c>
+      <c r="H500" t="n">
+        <v>-1.850548074499671</v>
+      </c>
+      <c r="I500" t="n">
+        <v>9.954039916963602</v>
+      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
+      <c r="M500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>0.7945205479452054</v>
+      </c>
+      <c r="E501" t="n">
+        <v>124759.8597330695</v>
+      </c>
+      <c r="F501" t="n">
+        <v>-0.03598347076392049</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0.2073319998081692</v>
+      </c>
+      <c r="H501" t="n">
+        <v>-0.734024974803751</v>
+      </c>
+      <c r="I501" t="n">
+        <v>6.161696886825045</v>
+      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>0.8712328767123287</v>
+      </c>
+      <c r="E502" t="n">
+        <v>127008.9167523475</v>
+      </c>
+      <c r="F502" t="n">
+        <v>-0.06710222552136369</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.3742511531672784</v>
+      </c>
+      <c r="H502" t="n">
+        <v>-2.428236088048682</v>
+      </c>
+      <c r="I502" t="n">
+        <v>18.1574691960373</v>
+      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
+      <c r="M502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>1.120547945205479</v>
+      </c>
+      <c r="E503" t="n">
+        <v>128186.1459208691</v>
+      </c>
+      <c r="F503" t="n">
+        <v>-0.1013310955431655</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.4269890587737859</v>
+      </c>
+      <c r="H503" t="n">
+        <v>-1.942897756585326</v>
+      </c>
+      <c r="I503" t="n">
+        <v>10.36493451342565</v>
+      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
+      <c r="M503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>1.367123287671233</v>
+      </c>
+      <c r="E504" t="n">
+        <v>129990.2854187554</v>
+      </c>
+      <c r="F504" t="n">
+        <v>-0.1700839878047514</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.6839495562505459</v>
+      </c>
+      <c r="H504" t="n">
+        <v>-2.359558729403701</v>
+      </c>
+      <c r="I504" t="n">
+        <v>10.68285320194698</v>
+      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
+      <c r="M504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E505" t="n">
+        <v>120158.966353472</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.05727296798558804</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0.1274701974972689</v>
+      </c>
+      <c r="H505" t="n">
+        <v>-0.7054113400114767</v>
+      </c>
+      <c r="I505" t="n">
+        <v>8.113519741844911</v>
+      </c>
+      <c r="J505" t="n">
+        <v>-0.1429677141972666</v>
+      </c>
+      <c r="K505" t="n">
+        <v>0.09236664392469957</v>
+      </c>
+      <c r="L505" t="n">
+        <v>0.2428343360675188</v>
+      </c>
+      <c r="M505" t="n">
+        <v>2.852405603980102</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E506" t="n">
+        <v>120158.3092449243</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0.05231760071335224</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.1187220585521312</v>
+      </c>
+      <c r="H506" t="n">
+        <v>-0.7161752040329724</v>
+      </c>
+      <c r="I506" t="n">
+        <v>7.37597051727992</v>
+      </c>
+      <c r="J506" t="n">
+        <v>-0.2329640434187458</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0.1277674447183592</v>
+      </c>
+      <c r="L506" t="n">
+        <v>0.117168716763768</v>
+      </c>
+      <c r="M506" t="n">
+        <v>2.389739184726861</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E507" t="n">
+        <v>120006.1824495333</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0.1323264493104933</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.1377082239584632</v>
+      </c>
+      <c r="H507" t="n">
+        <v>-0.4044502079409085</v>
+      </c>
+      <c r="I507" t="n">
+        <v>3.221719652175649</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0.4004346358424075</v>
+      </c>
+      <c r="K507" t="inlineStr"/>
+      <c r="L507" t="inlineStr"/>
+      <c r="M507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E508" t="n">
+        <v>120143.5611551272</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.04501611302055917</v>
+      </c>
+      <c r="G508" t="n">
+        <v>0.1488963164593585</v>
+      </c>
+      <c r="H508" t="n">
+        <v>-2.330768611489844</v>
+      </c>
+      <c r="I508" t="n">
+        <v>29.40154959864421</v>
+      </c>
+      <c r="J508" t="n">
+        <v>-0.3272532134785859</v>
+      </c>
+      <c r="K508" t="n">
+        <v>0.1740296472625784</v>
+      </c>
+      <c r="L508" t="n">
+        <v>0.01512870620890973</v>
+      </c>
+      <c r="M508" t="n">
+        <v>2.167824882277258</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E509" t="n">
+        <v>120138.4452004423</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0.1052813090661669</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0.1575016678299012</v>
+      </c>
+      <c r="H509" t="n">
+        <v>-2.576679268835505</v>
+      </c>
+      <c r="I509" t="n">
+        <v>41.8034500157741</v>
+      </c>
+      <c r="J509" t="n">
+        <v>0.1679803123495031</v>
+      </c>
+      <c r="K509" t="n">
+        <v>0.05403501251054387</v>
+      </c>
+      <c r="L509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E510" t="n">
+        <v>120118.9845256807</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.08453118170012573</v>
+      </c>
+      <c r="G510" t="n">
+        <v>0.1082293907497239</v>
+      </c>
+      <c r="H510" t="n">
+        <v>-0.9519663325514737</v>
+      </c>
+      <c r="I510" t="n">
+        <v>8.635670697334119</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0.04328135768856915</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0.0671230002607552</v>
+      </c>
+      <c r="L510" t="n">
+        <v>0.5519240597610461</v>
+      </c>
+      <c r="M510" t="n">
+        <v>1.500000000000001</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E511" t="n">
+        <v>120120.8944257481</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.03885442470682172</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.1197057451842553</v>
+      </c>
+      <c r="H511" t="n">
+        <v>-0.6658538441757241</v>
+      </c>
+      <c r="I511" t="n">
+        <v>6.054346307172876</v>
+      </c>
+      <c r="J511" t="n">
+        <v>-0.4172940249613416</v>
+      </c>
+      <c r="K511" t="n">
+        <v>0.1760986343687397</v>
+      </c>
+      <c r="L511" t="n">
+        <v>0.3372594113493309</v>
+      </c>
+      <c r="M511" t="n">
+        <v>2.147318933498036</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>0.06575342465753424</v>
+      </c>
+      <c r="E512" t="n">
+        <v>120942.7675746619</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.03913003455581442</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0.1425513036874616</v>
+      </c>
+      <c r="H512" t="n">
+        <v>-0.4761960152280896</v>
+      </c>
+      <c r="I512" t="n">
+        <v>7.342302997364438</v>
+      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
+      <c r="M512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>0.08493150684931507</v>
+      </c>
+      <c r="E513" t="n">
+        <v>120907.2338090403</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0.02741307571588875</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.1544293486336321</v>
+      </c>
+      <c r="H513" t="n">
+        <v>-0.6296976561363055</v>
+      </c>
+      <c r="I513" t="n">
+        <v>8.056092228949829</v>
+      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
+      <c r="M513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>0.04383561643835616</v>
+      </c>
+      <c r="E514" t="n">
+        <v>123438.3667402034</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0.05103006288526868</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.1728141517112763</v>
+      </c>
+      <c r="H514" t="n">
+        <v>-0.7128385201169241</v>
+      </c>
+      <c r="I514" t="n">
+        <v>10.00089311459868</v>
+      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="inlineStr"/>
+      <c r="M514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>0.1205479452054795</v>
+      </c>
+      <c r="E515" t="n">
+        <v>124173.1259952829</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0.02727383084977963</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.1842394682242755</v>
+      </c>
+      <c r="H515" t="n">
+        <v>-0.6501059021040058</v>
+      </c>
+      <c r="I515" t="n">
+        <v>9.689265181438897</v>
+      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
+      <c r="M515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>0.2164383561643836</v>
+      </c>
+      <c r="E516" t="n">
+        <v>125071.5324755982</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0.0120715906967373</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0.2103853911659053</v>
+      </c>
+      <c r="H516" t="n">
+        <v>-0.8328776751073876</v>
+      </c>
+      <c r="I516" t="n">
+        <v>9.809290619843214</v>
+      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
+      <c r="M516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>0.2931506849315069</v>
+      </c>
+      <c r="E517" t="n">
+        <v>125696.5400109054</v>
+      </c>
+      <c r="F517" t="n">
+        <v>-0.008189662824075013</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0.3285873416832969</v>
+      </c>
+      <c r="H517" t="n">
+        <v>-5.342552171367798</v>
+      </c>
+      <c r="I517" t="n">
+        <v>84.35620699271806</v>
+      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
+      <c r="M517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="E518" t="n">
+        <v>126360.4977112326</v>
+      </c>
+      <c r="F518" t="n">
+        <v>-0.009582155088764369</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0.2548989272557758</v>
+      </c>
+      <c r="H518" t="n">
+        <v>-1.194922171496425</v>
+      </c>
+      <c r="I518" t="n">
+        <v>10.78940690996732</v>
+      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
+      <c r="M518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="E519" t="n">
+        <v>127503.3238573489</v>
+      </c>
+      <c r="F519" t="n">
+        <v>-0.03340641379981078</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0.3412892286000033</v>
+      </c>
+      <c r="H519" t="n">
+        <v>-1.781529719035363</v>
+      </c>
+      <c r="I519" t="n">
+        <v>9.90805176527282</v>
+      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
+      <c r="M519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>0.7917808219178082</v>
+      </c>
+      <c r="E520" t="n">
+        <v>128099.4659948524</v>
+      </c>
+      <c r="F520" t="n">
+        <v>-0.03395556686406732</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0.2197558727051406</v>
+      </c>
+      <c r="H520" t="n">
+        <v>-0.8125317438573632</v>
+      </c>
+      <c r="I520" t="n">
+        <v>6.683081860326178</v>
+      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
+      <c r="M520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>0.8684931506849315</v>
+      </c>
+      <c r="E521" t="n">
+        <v>129645.1295322321</v>
+      </c>
+      <c r="F521" t="n">
+        <v>-0.06965847728059078</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.3607113135971327</v>
+      </c>
+      <c r="H521" t="n">
+        <v>-1.762202352536489</v>
+      </c>
+      <c r="I521" t="n">
+        <v>11.06466513966487</v>
+      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
+      <c r="M521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>1.117808219178082</v>
+      </c>
+      <c r="E522" t="n">
+        <v>131169.4668304103</v>
+      </c>
+      <c r="F522" t="n">
+        <v>-0.08963193056019768</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.3757598467761581</v>
+      </c>
+      <c r="H522" t="n">
+        <v>-1.504992444513988</v>
+      </c>
+      <c r="I522" t="n">
+        <v>7.712007510316734</v>
+      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
+      <c r="M522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>1.364383561643836</v>
+      </c>
+      <c r="E523" t="n">
+        <v>133329.422620675</v>
+      </c>
+      <c r="F523" t="n">
+        <v>-0.1584023338326357</v>
+      </c>
+      <c r="G523" t="n">
+        <v>0.642273323326724</v>
+      </c>
+      <c r="H523" t="n">
+        <v>-2.256739226161773</v>
+      </c>
+      <c r="I523" t="n">
+        <v>9.950877607350247</v>
+      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
+      <c r="M523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E524" t="n">
+        <v>123419.3214798957</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.1120917415933376</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0.1591297888774394</v>
+      </c>
+      <c r="H524" t="n">
+        <v>-0.3437534921630374</v>
+      </c>
+      <c r="I524" t="n">
+        <v>9.750397993220203</v>
+      </c>
+      <c r="J524" t="n">
+        <v>-0.6520828200476099</v>
+      </c>
+      <c r="K524" t="n">
+        <v>0.03997130534276568</v>
+      </c>
+      <c r="L524" t="n">
+        <v>-1.200748890064498</v>
+      </c>
+      <c r="M524" t="n">
+        <v>2.891801723980105</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E525" t="n">
+        <v>123426.7160476579</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.1008095964810563</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0.1628015127631224</v>
+      </c>
+      <c r="H525" t="n">
+        <v>-0.1864705234018758</v>
+      </c>
+      <c r="I525" t="n">
+        <v>7.613600035814675</v>
+      </c>
+      <c r="J525" t="n">
+        <v>-0.7389651258046795</v>
+      </c>
+      <c r="K525" t="n">
+        <v>0.07105209638729622</v>
+      </c>
+      <c r="L525" t="n">
+        <v>-0.6563613428368132</v>
+      </c>
+      <c r="M525" t="n">
+        <v>1.696140000158395</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E526" t="n">
+        <v>123433.0695745541</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.09095433959940946</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.1811409201040943</v>
+      </c>
+      <c r="H526" t="n">
+        <v>-0.9181872642175331</v>
+      </c>
+      <c r="I526" t="n">
+        <v>15.5304709970879</v>
+      </c>
+      <c r="J526" t="n">
+        <v>-0.8316432563668504</v>
+      </c>
+      <c r="K526" t="n">
+        <v>0.1124372122103895</v>
+      </c>
+      <c r="L526" t="n">
+        <v>-0.4669090590444038</v>
+      </c>
+      <c r="M526" t="n">
+        <v>1.601808534486536</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E527" t="n">
+        <v>123419.171999892</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.2660415233079315</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0.2063434399826864</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0.05955478333580493</v>
+      </c>
+      <c r="I527" t="n">
+        <v>3.49129516455195</v>
+      </c>
+      <c r="J527" t="n">
+        <v>-0.4649086469858109</v>
+      </c>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
+      <c r="M527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E528" t="n">
+        <v>123402.5909988866</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.08235675478327534</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.1712145049260793</v>
+      </c>
+      <c r="H528" t="n">
+        <v>-0.8307886934716654</v>
+      </c>
+      <c r="I528" t="n">
+        <v>11.88095459535185</v>
+      </c>
+      <c r="J528" t="n">
+        <v>-0.8935605038390904</v>
+      </c>
+      <c r="K528" t="n">
+        <v>0.125218779425861</v>
+      </c>
+      <c r="L528" t="n">
+        <v>-0.1601891604810448</v>
+      </c>
+      <c r="M528" t="n">
+        <v>1.313233135437813</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E529" t="n">
+        <v>123409.7833434043</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0.1851505515024735</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0.1735487450285804</v>
+      </c>
+      <c r="H529" t="n">
+        <v>-0.02545801515166677</v>
+      </c>
+      <c r="I529" t="n">
+        <v>7.292600350742505</v>
+      </c>
+      <c r="J529" t="n">
+        <v>-0.5357299172307585</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0.005015652319107894</v>
+      </c>
+      <c r="L529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>0.02465753424657534</v>
+      </c>
+      <c r="E530" t="n">
+        <v>123419.3964083226</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.07686694167956033</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0.1716298033856306</v>
+      </c>
+      <c r="H530" t="n">
+        <v>-0.07593679922413495</v>
+      </c>
+      <c r="I530" t="n">
+        <v>6.131950712782605</v>
+      </c>
+      <c r="J530" t="n">
+        <v>-0.9085874008930553</v>
+      </c>
+      <c r="K530" t="n">
+        <v>0.1131120427924401</v>
+      </c>
+      <c r="L530" t="n">
+        <v>-0.03894744955406197</v>
+      </c>
+      <c r="M530" t="n">
+        <v>1.414537397724834</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>0.06301369863013699</v>
+      </c>
+      <c r="E531" t="n">
+        <v>124223.1703531372</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.05991143074608082</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0.1748962459013978</v>
+      </c>
+      <c r="H531" t="n">
+        <v>-0.4070920475463989</v>
+      </c>
+      <c r="I531" t="n">
+        <v>6.614736706765834</v>
+      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
+      <c r="M531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="E532" t="n">
+        <v>124330.6515567054</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.04993297746137754</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.1714837115606739</v>
+      </c>
+      <c r="H532" t="n">
+        <v>-0.2544591273276889</v>
+      </c>
+      <c r="I532" t="n">
+        <v>6.28830101052083</v>
+      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
+      <c r="M532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="E533" t="n">
+        <v>118421.6970410249</v>
+      </c>
+      <c r="F533" t="n">
+        <v>-0.02939011384077726</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.1601013202877825</v>
+      </c>
+      <c r="H533" t="n">
+        <v>-1.128901830802717</v>
+      </c>
+      <c r="I533" t="n">
+        <v>11.93229485579146</v>
+      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
+      <c r="M533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>0.1178082191780822</v>
+      </c>
+      <c r="E534" t="n">
+        <v>119159.0374712735</v>
+      </c>
+      <c r="F534" t="n">
+        <v>-0.01761833315696376</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0.1705122963931467</v>
+      </c>
+      <c r="H534" t="n">
+        <v>-1.645908894215605</v>
+      </c>
+      <c r="I534" t="n">
+        <v>20.92125697137372</v>
+      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
+      <c r="M534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>0.2136986301369863</v>
+      </c>
+      <c r="E535" t="n">
+        <v>120017.026286063</v>
+      </c>
+      <c r="F535" t="n">
+        <v>-0.01843313981149593</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.1897473126440929</v>
+      </c>
+      <c r="H535" t="n">
+        <v>-1.175856372852629</v>
+      </c>
+      <c r="I535" t="n">
+        <v>10.97878240271202</v>
+      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>0.2904109589041096</v>
+      </c>
+      <c r="E536" t="n">
+        <v>120694.1038911993</v>
+      </c>
+      <c r="F536" t="n">
+        <v>-0.02753317133193197</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.237983293436783</v>
+      </c>
+      <c r="H536" t="n">
+        <v>-2.034175390744598</v>
+      </c>
+      <c r="I536" t="n">
+        <v>20.22308411504718</v>
+      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>0.3671232876712329</v>
+      </c>
+      <c r="E537" t="n">
+        <v>121315.4517676193</v>
+      </c>
+      <c r="F537" t="n">
+        <v>-0.0326887903819956</v>
+      </c>
+      <c r="G537" t="n">
+        <v>0.2497145846658737</v>
+      </c>
+      <c r="H537" t="n">
+        <v>-1.755205492525486</v>
+      </c>
+      <c r="I537" t="n">
+        <v>18.44496779749801</v>
+      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>0.463013698630137</v>
+      </c>
+      <c r="E538" t="n">
+        <v>122468.3787828569</v>
+      </c>
+      <c r="F538" t="n">
+        <v>-0.03705151315608499</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0.2548926784674944</v>
+      </c>
+      <c r="H538" t="n">
+        <v>-0.9465325896181596</v>
+      </c>
+      <c r="I538" t="n">
+        <v>6.861719132217059</v>
+      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>0.7890410958904109</v>
+      </c>
+      <c r="E539" t="n">
+        <v>122979.9438870832</v>
+      </c>
+      <c r="F539" t="n">
+        <v>-0.051253162990237</v>
+      </c>
+      <c r="G539" t="n">
+        <v>0.2179351059500783</v>
+      </c>
+      <c r="H539" t="n">
+        <v>-0.8239834376164457</v>
+      </c>
+      <c r="I539" t="n">
+        <v>6.452429828668502</v>
+      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>0.8657534246575342</v>
+      </c>
+      <c r="E540" t="n">
+        <v>124560.3142996186</v>
+      </c>
+      <c r="F540" t="n">
+        <v>-0.08826069418093561</v>
+      </c>
+      <c r="G540" t="n">
+        <v>0.3898480833554797</v>
+      </c>
+      <c r="H540" t="n">
+        <v>-2.465377761152122</v>
+      </c>
+      <c r="I540" t="n">
+        <v>18.37398098120435</v>
+      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>1.115068493150685</v>
+      </c>
+      <c r="E541" t="n">
+        <v>126069.6519181764</v>
+      </c>
+      <c r="F541" t="n">
+        <v>-0.1133246433747992</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.4210709932930468</v>
+      </c>
+      <c r="H541" t="n">
+        <v>-1.796473858964666</v>
+      </c>
+      <c r="I541" t="n">
+        <v>8.99798293666481</v>
+      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>1.361643835616438</v>
+      </c>
+      <c r="E542" t="n">
+        <v>128158.5172968986</v>
+      </c>
+      <c r="F542" t="n">
+        <v>-0.1779612715296315</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.6703768621863591</v>
+      </c>
+      <c r="H542" t="n">
+        <v>-2.248453599786358</v>
+      </c>
+      <c r="I542" t="n">
+        <v>9.789729132895978</v>
+      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr"/>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E543" t="n">
+        <v>118398.2834179673</v>
+      </c>
+      <c r="F543" t="n">
+        <v>-0.03555315316240241</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.1314581177909604</v>
+      </c>
+      <c r="H543" t="n">
+        <v>-1.245179574921702</v>
+      </c>
+      <c r="I543" t="n">
+        <v>10.88430181487841</v>
+      </c>
+      <c r="J543" t="n">
+        <v>-0.2339677163272489</v>
+      </c>
+      <c r="K543" t="n">
+        <v>0.03901595322177953</v>
+      </c>
+      <c r="L543" t="n">
+        <v>-1.045128736414984</v>
+      </c>
+      <c r="M543" t="n">
+        <v>2.262123934177203</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E544" t="n">
+        <v>118455.4409663098</v>
+      </c>
+      <c r="F544" t="n">
+        <v>-0.02959981446538862</v>
+      </c>
+      <c r="G544" t="n">
+        <v>0.1354198557089235</v>
+      </c>
+      <c r="H544" t="n">
+        <v>-0.4982050105327545</v>
+      </c>
+      <c r="I544" t="n">
+        <v>6.256064587907932</v>
+      </c>
+      <c r="J544" t="n">
+        <v>-0.3288677745826429</v>
+      </c>
+      <c r="K544" t="n">
+        <v>0.0672368468049323</v>
+      </c>
+      <c r="L544" t="n">
+        <v>-0.448150269450902</v>
+      </c>
+      <c r="M544" t="n">
+        <v>1.374337881090158</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E545" t="n">
+        <v>118402.6140355959</v>
+      </c>
+      <c r="F545" t="n">
+        <v>-0.03290944138672246</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0.150553604626476</v>
+      </c>
+      <c r="H545" t="n">
+        <v>-0.9543313961013056</v>
+      </c>
+      <c r="I545" t="n">
+        <v>8.43350440083452</v>
+      </c>
+      <c r="J545" t="n">
+        <v>-0.4278570442778797</v>
+      </c>
+      <c r="K545" t="n">
+        <v>0.1050250832447586</v>
+      </c>
+      <c r="L545" t="n">
+        <v>-0.2724003542601536</v>
+      </c>
+      <c r="M545" t="n">
+        <v>1.448340533893861</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E546" t="n">
+        <v>118394.0272434165</v>
+      </c>
+      <c r="F546" t="n">
+        <v>-0.03377406142902994</v>
+      </c>
+      <c r="G546" t="n">
+        <v>0.1732330946144517</v>
+      </c>
+      <c r="H546" t="n">
+        <v>-2.125465560581806</v>
+      </c>
+      <c r="I546" t="n">
+        <v>23.15296129160366</v>
+      </c>
+      <c r="J546" t="n">
+        <v>-0.4898878364037481</v>
+      </c>
+      <c r="K546" t="n">
+        <v>0.1131084149546549</v>
+      </c>
+      <c r="L546" t="n">
+        <v>0.04324028826303478</v>
+      </c>
+      <c r="M546" t="n">
+        <v>1.293914846360226</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E547" t="n">
+        <v>118415.5794235759</v>
+      </c>
+      <c r="F547" t="n">
+        <v>-0.05692877737986708</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.1307478873313124</v>
+      </c>
+      <c r="H547" t="n">
+        <v>-0.5255593575596109</v>
+      </c>
+      <c r="I547" t="n">
+        <v>7.406910208841824</v>
+      </c>
+      <c r="J547" t="n">
+        <v>-0.1416425404898968</v>
+      </c>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E548" t="n">
+        <v>118376.1147777704</v>
+      </c>
+      <c r="F548" t="n">
+        <v>-0.0324291414455575</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0.1499023343599074</v>
+      </c>
+      <c r="H548" t="n">
+        <v>-1.329935561971793</v>
+      </c>
+      <c r="I548" t="n">
+        <v>13.23561094279413</v>
+      </c>
+      <c r="J548" t="n">
+        <v>-0.4991385981456503</v>
+      </c>
+      <c r="K548" t="n">
+        <v>0.09956889923496116</v>
+      </c>
+      <c r="L548" t="n">
+        <v>0.1321720876009744</v>
+      </c>
+      <c r="M548" t="n">
+        <v>1.471740092349684</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>0.06027397260273973</v>
+      </c>
+      <c r="E549" t="n">
+        <v>119266.4264351562</v>
+      </c>
+      <c r="F549" t="n">
+        <v>-0.002524558224663496</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.1578285636765817</v>
+      </c>
+      <c r="H549" t="n">
+        <v>-0.5962418781647205</v>
+      </c>
+      <c r="I549" t="n">
+        <v>7.099364424577178</v>
+      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D550" t="n">
+        <v>0.07945205479452055</v>
+      </c>
+      <c r="E550" t="n">
+        <v>119156.9546028048</v>
+      </c>
+      <c r="F550" t="n">
+        <v>-0.011180915170796</v>
+      </c>
+      <c r="G550" t="n">
+        <v>0.1626806152035203</v>
+      </c>
+      <c r="H550" t="n">
+        <v>-0.5976953510738786</v>
+      </c>
+      <c r="I550" t="n">
+        <v>6.236857686632747</v>
+      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D551" t="n">
+        <v>0.09863013698630137</v>
+      </c>
+      <c r="E551" t="n">
+        <v>119243.5225135787</v>
+      </c>
+      <c r="F551" t="n">
+        <v>-0.01657404546583485</v>
+      </c>
+      <c r="G551" t="n">
+        <v>0.1927452803125149</v>
+      </c>
+      <c r="H551" t="n">
+        <v>-1.91047321480405</v>
+      </c>
+      <c r="I551" t="n">
+        <v>17.20493358535747</v>
+      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D552" t="n">
+        <v>0.03835616438356165</v>
+      </c>
+      <c r="E552" t="n">
+        <v>117202.8174342794</v>
+      </c>
+      <c r="F552" t="n">
+        <v>-0.04312838814962757</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.148776360140416</v>
+      </c>
+      <c r="H552" t="n">
+        <v>-1.498618117667472</v>
+      </c>
+      <c r="I552" t="n">
+        <v>13.27042141797416</v>
+      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D553" t="n">
+        <v>0.1150684931506849</v>
+      </c>
+      <c r="E553" t="n">
+        <v>117978.1963977919</v>
+      </c>
+      <c r="F553" t="n">
+        <v>-0.02293849414807996</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0.1570326572874821</v>
+      </c>
+      <c r="H553" t="n">
+        <v>-1.136118795443836</v>
+      </c>
+      <c r="I553" t="n">
+        <v>11.83288618160184</v>
+      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D554" t="n">
+        <v>0.210958904109589</v>
+      </c>
+      <c r="E554" t="n">
+        <v>118845.9209509626</v>
+      </c>
+      <c r="F554" t="n">
+        <v>-0.02132030495170687</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0.180717896617345</v>
+      </c>
+      <c r="H554" t="n">
+        <v>-1.192506260328778</v>
+      </c>
+      <c r="I554" t="n">
+        <v>11.30089800010525</v>
+      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D555" t="n">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="E555" t="n">
+        <v>119494.2325899234</v>
+      </c>
+      <c r="F555" t="n">
+        <v>-0.03212500881635628</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.2552964110579239</v>
+      </c>
+      <c r="H555" t="n">
+        <v>-3.049983741144244</v>
+      </c>
+      <c r="I555" t="n">
+        <v>29.73327400073528</v>
+      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
+      <c r="M555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D556" t="n">
+        <v>0.3643835616438356</v>
+      </c>
+      <c r="E556" t="n">
+        <v>120143.7013964727</v>
+      </c>
+      <c r="F556" t="n">
+        <v>-0.03191267478103006</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.2275637925838066</v>
+      </c>
+      <c r="H556" t="n">
+        <v>-1.184464172163905</v>
+      </c>
+      <c r="I556" t="n">
+        <v>9.698977153829921</v>
+      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D557" t="n">
+        <v>0.4602739726027397</v>
+      </c>
+      <c r="E557" t="n">
+        <v>121324.6314704079</v>
+      </c>
+      <c r="F557" t="n">
+        <v>-0.03669895562493336</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.2470207079726574</v>
+      </c>
+      <c r="H557" t="n">
+        <v>-1.029456272746876</v>
+      </c>
+      <c r="I557" t="n">
+        <v>7.324588606085391</v>
+      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
+      <c r="M557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D558" t="n">
+        <v>0.7863013698630137</v>
+      </c>
+      <c r="E558" t="n">
+        <v>121989.47221227</v>
+      </c>
+      <c r="F558" t="n">
+        <v>-0.04754814535694262</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0.2035561156440377</v>
+      </c>
+      <c r="H558" t="n">
+        <v>-0.6724411049485408</v>
+      </c>
+      <c r="I558" t="n">
+        <v>5.989047455454138</v>
+      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
+      <c r="M558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D559" t="n">
+        <v>0.863013698630137</v>
+      </c>
+      <c r="E559" t="n">
+        <v>124065.129025836</v>
+      </c>
+      <c r="F559" t="n">
+        <v>-0.07775972654346529</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.3438219641269797</v>
+      </c>
+      <c r="H559" t="n">
+        <v>-1.710347177185739</v>
+      </c>
+      <c r="I559" t="n">
+        <v>11.38372064564723</v>
+      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
+      <c r="M559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D560" t="n">
+        <v>1.112328767123288</v>
+      </c>
+      <c r="E560" t="n">
+        <v>125312.9721653883</v>
+      </c>
+      <c r="F560" t="n">
+        <v>-0.113594229021686</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.4329190477621151</v>
+      </c>
+      <c r="H560" t="n">
+        <v>-1.92771024440816</v>
+      </c>
+      <c r="I560" t="n">
+        <v>10.09236949706644</v>
+      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
+      <c r="M560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D561" t="n">
+        <v>1.358904109589041</v>
+      </c>
+      <c r="E561" t="n">
+        <v>130439.4171351477</v>
+      </c>
+      <c r="F561" t="n">
+        <v>-0.09688059124636833</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.4212002747733249</v>
+      </c>
+      <c r="H561" t="n">
+        <v>-1.754701564660751</v>
+      </c>
+      <c r="I561" t="n">
+        <v>7.748917414388435</v>
+      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
+      <c r="M561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D562" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E562" t="n">
+        <v>117244.3544372775</v>
+      </c>
+      <c r="F562" t="n">
+        <v>-0.06340675166320299</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.08823615945542632</v>
+      </c>
+      <c r="H562" t="n">
+        <v>-0.977716825948828</v>
+      </c>
+      <c r="I562" t="n">
+        <v>7.716788440841714</v>
+      </c>
+      <c r="J562" t="n">
+        <v>-0.1231002344498035</v>
+      </c>
+      <c r="K562" t="n">
+        <v>0.04823285403197319</v>
+      </c>
+      <c r="L562" t="n">
+        <v>-0.6154382154096484</v>
+      </c>
+      <c r="M562" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D563" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E563" t="n">
+        <v>117221.8557032007</v>
+      </c>
+      <c r="F563" t="n">
+        <v>-0.04498406762761926</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.138254984383667</v>
+      </c>
+      <c r="H563" t="n">
+        <v>-1.316101507792942</v>
+      </c>
+      <c r="I563" t="n">
+        <v>12.42443451159217</v>
+      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
+      <c r="M563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D564" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E564" t="n">
+        <v>117157.8692802201</v>
+      </c>
+      <c r="F564" t="n">
+        <v>-0.06487290700707481</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.1240185118269958</v>
+      </c>
+      <c r="H564" t="n">
+        <v>-2.416270733974036</v>
+      </c>
+      <c r="I564" t="n">
+        <v>27.46440155551647</v>
+      </c>
+      <c r="J564" t="n">
+        <v>-0.2340315426159329</v>
+      </c>
+      <c r="K564" t="n">
+        <v>0.07309190591832618</v>
+      </c>
+      <c r="L564" t="n">
+        <v>-0.05269592679800558</v>
+      </c>
+      <c r="M564" t="n">
+        <v>1.178984357981619</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D565" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E565" t="n">
+        <v>117234.3883399123</v>
+      </c>
+      <c r="F565" t="n">
+        <v>-0.0545134000004088</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.1337003842656061</v>
+      </c>
+      <c r="H565" t="n">
+        <v>-1.4574891671815</v>
+      </c>
+      <c r="I565" t="n">
+        <v>12.91572895908107</v>
+      </c>
+      <c r="J565" t="n">
+        <v>-0.3434574045455802</v>
+      </c>
+      <c r="K565" t="n">
+        <v>0.1063696017708458</v>
+      </c>
+      <c r="L565" t="n">
+        <v>0.07607827903289127</v>
+      </c>
+      <c r="M565" t="n">
+        <v>1.443358729091218</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D566" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E566" t="n">
+        <v>117252.2541922904</v>
+      </c>
+      <c r="F566" t="n">
+        <v>-0.05039051787195496</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.1389034247870202</v>
+      </c>
+      <c r="H566" t="n">
+        <v>-1.525419460362343</v>
+      </c>
+      <c r="I566" t="n">
+        <v>16.78643770786707</v>
+      </c>
+      <c r="J566" t="n">
+        <v>-0.4062861785661602</v>
+      </c>
+      <c r="K566" t="n">
+        <v>0.1083786090336838</v>
+      </c>
+      <c r="L566" t="n">
+        <v>0.3908945214098711</v>
+      </c>
+      <c r="M566" t="n">
+        <v>1.523711818295173</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D567" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E567" t="n">
+        <v>117123.9917005747</v>
+      </c>
+      <c r="F567" t="n">
+        <v>-0.09202634960936924</v>
+      </c>
+      <c r="G567" t="n">
+        <v>1.890235515516009</v>
+      </c>
+      <c r="H567" t="n">
+        <v>-30.24303958046585</v>
+      </c>
+      <c r="I567" t="n">
+        <v>1124.997654594594</v>
+      </c>
+      <c r="J567" t="n">
+        <v>-0.4085669230351474</v>
+      </c>
+      <c r="K567" t="n">
+        <v>0.09292716137229727</v>
+      </c>
+      <c r="L567" t="n">
+        <v>0.4444269035407849</v>
+      </c>
+      <c r="M567" t="n">
+        <v>1.789435523657966</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D568" t="n">
+        <v>0.05753424657534247</v>
+      </c>
+      <c r="E568" t="n">
+        <v>118097.7196566511</v>
+      </c>
+      <c r="F568" t="n">
+        <v>-0.01073760634650818</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0.148605696432737</v>
+      </c>
+      <c r="H568" t="n">
+        <v>-0.6958708892662967</v>
+      </c>
+      <c r="I568" t="n">
+        <v>7.557146160415116</v>
+      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="inlineStr"/>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D569" t="n">
+        <v>0.07671232876712329</v>
+      </c>
+      <c r="E569" t="n">
+        <v>118183.4833032536</v>
+      </c>
+      <c r="F569" t="n">
+        <v>-0.01119649551648739</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0.1434243572271568</v>
+      </c>
+      <c r="H569" t="n">
+        <v>-0.5802529153016123</v>
+      </c>
+      <c r="I569" t="n">
+        <v>6.93498853200975</v>
+      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D570" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="E570" t="n">
+        <v>118086.5820297634</v>
+      </c>
+      <c r="F570" t="n">
+        <v>-0.0179821932521192</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0.1528020296121677</v>
+      </c>
+      <c r="H570" t="n">
+        <v>-0.7008026904072328</v>
+      </c>
+      <c r="I570" t="n">
+        <v>7.515741444714706</v>
+      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D571" t="n">
+        <v>0.03013698630136986</v>
+      </c>
+      <c r="E571" t="n">
+        <v>116588.281242883</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.05382210934676153</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.1493321545721031</v>
+      </c>
+      <c r="H571" t="n">
+        <v>-1.947318062563622</v>
+      </c>
+      <c r="I571" t="n">
+        <v>19.53204370414236</v>
+      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
+      <c r="M571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D572" t="n">
+        <v>0.1068493150684932</v>
+      </c>
+      <c r="E572" t="n">
+        <v>117334.5215830967</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0.02915592951645422</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.1649372476132247</v>
+      </c>
+      <c r="H572" t="n">
+        <v>-1.498598751674603</v>
+      </c>
+      <c r="I572" t="n">
+        <v>14.13494331249818</v>
+      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
+      <c r="M572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D573" t="n">
+        <v>0.2027397260273973</v>
+      </c>
+      <c r="E573" t="n">
+        <v>118153.8013268519</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0.01749287467550191</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0.1793207445433886</v>
+      </c>
+      <c r="H573" t="n">
+        <v>-1.446455477161675</v>
+      </c>
+      <c r="I573" t="n">
+        <v>12.74818063125277</v>
+      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
+      <c r="M573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D574" t="n">
+        <v>0.2794520547945206</v>
+      </c>
+      <c r="E574" t="n">
+        <v>118813.4370954025</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0.0008424039542551067</v>
+      </c>
+      <c r="G574" t="n">
+        <v>0.2573833195501989</v>
+      </c>
+      <c r="H574" t="n">
+        <v>-3.213709456744645</v>
+      </c>
+      <c r="I574" t="n">
+        <v>31.36948860409825</v>
+      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="inlineStr"/>
+      <c r="M574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D575" t="n">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="E575" t="n">
+        <v>119429.7664078273</v>
+      </c>
+      <c r="F575" t="n">
+        <v>-0.003008367068184204</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0.2290966115062988</v>
+      </c>
+      <c r="H575" t="n">
+        <v>-1.313419925170803</v>
+      </c>
+      <c r="I575" t="n">
+        <v>10.44014436202253</v>
+      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="inlineStr"/>
+      <c r="M575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D576" t="n">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="E576" t="n">
+        <v>120787.4830799489</v>
+      </c>
+      <c r="F576" t="n">
+        <v>-0.006222861445574982</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.232687769831842</v>
+      </c>
+      <c r="H576" t="n">
+        <v>-0.7327804168651749</v>
+      </c>
+      <c r="I576" t="n">
+        <v>5.48645981977639</v>
+      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="inlineStr"/>
+      <c r="M576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D577" t="n">
+        <v>0.7780821917808219</v>
+      </c>
+      <c r="E577" t="n">
+        <v>121207.6755379524</v>
+      </c>
+      <c r="F577" t="n">
+        <v>-0.02810541891268467</v>
+      </c>
+      <c r="G577" t="n">
+        <v>0.2055406490250754</v>
+      </c>
+      <c r="H577" t="n">
+        <v>-0.7910886468335934</v>
+      </c>
+      <c r="I577" t="n">
+        <v>5.975531103597068</v>
+      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
+      <c r="M577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D578" t="n">
+        <v>0.8547945205479452</v>
+      </c>
+      <c r="E578" t="n">
+        <v>122852.1889607285</v>
+      </c>
+      <c r="F578" t="n">
+        <v>-0.06217710845969154</v>
+      </c>
+      <c r="G578" t="n">
+        <v>0.3411736753522771</v>
+      </c>
+      <c r="H578" t="n">
+        <v>-1.751981032063972</v>
+      </c>
+      <c r="I578" t="n">
+        <v>12.03044996743916</v>
+      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="inlineStr"/>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D579" t="n">
+        <v>1.104109589041096</v>
+      </c>
+      <c r="E579" t="n">
+        <v>124276.9585390916</v>
+      </c>
+      <c r="F579" t="n">
+        <v>-0.09839558454016366</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0.4238114272076006</v>
+      </c>
+      <c r="H579" t="n">
+        <v>-1.787718094435251</v>
+      </c>
+      <c r="I579" t="n">
+        <v>8.85451503562037</v>
+      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="inlineStr"/>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D580" t="n">
+        <v>1.350684931506849</v>
+      </c>
+      <c r="E580" t="n">
+        <v>129618.4526929009</v>
+      </c>
+      <c r="F580" t="n">
+        <v>-0.08322904932620397</v>
+      </c>
+      <c r="G580" t="n">
+        <v>0.4244214547487691</v>
+      </c>
+      <c r="H580" t="n">
+        <v>-1.753733397907314</v>
+      </c>
+      <c r="I580" t="n">
+        <v>7.697732981659227</v>
+      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="inlineStr"/>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D581" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E581" t="n">
+        <v>116621.9734637394</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.07472298017854984</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.1447590720857601</v>
+      </c>
+      <c r="H581" t="n">
+        <v>-0.5592888118269035</v>
+      </c>
+      <c r="I581" t="n">
+        <v>7.306860550697478</v>
+      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D582" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E582" t="n">
+        <v>116574.0226875985</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.212599436880256</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0.1497157228303921</v>
+      </c>
+      <c r="H582" t="n">
+        <v>-0.2706635940925392</v>
+      </c>
+      <c r="I582" t="n">
+        <v>3.131543370373101</v>
+      </c>
+      <c r="J582" t="n">
+        <v>-0.1376987060736505</v>
+      </c>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D583" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E583" t="n">
+        <v>116561.3522518028</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0.06540338467830215</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0.140904886255083</v>
+      </c>
+      <c r="H583" t="n">
+        <v>-0.9966492579869645</v>
+      </c>
+      <c r="I583" t="n">
+        <v>8.592076768497254</v>
+      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="inlineStr"/>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D584" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E584" t="n">
+        <v>116602.3776092275</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.1512421633565365</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0.1383862502391381</v>
+      </c>
+      <c r="H584" t="n">
+        <v>-0.5343762040780893</v>
+      </c>
+      <c r="I584" t="n">
+        <v>5.898456256753692</v>
+      </c>
+      <c r="J584" t="n">
+        <v>-0.2448663986485733</v>
+      </c>
+      <c r="K584" t="n">
+        <v>0.01148491433183317</v>
+      </c>
+      <c r="L584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D585" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E585" t="n">
+        <v>116593.0766223617</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0.1202893560096015</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.1430372235107058</v>
+      </c>
+      <c r="H585" t="n">
+        <v>-0.7894234242119708</v>
+      </c>
+      <c r="I585" t="n">
+        <v>7.659309165401119</v>
+      </c>
+      <c r="J585" t="n">
+        <v>-0.2603453616418456</v>
+      </c>
+      <c r="K585" t="n">
+        <v>0.008135806145249629</v>
+      </c>
+      <c r="L585" t="n">
+        <v>0.4743977657306211</v>
+      </c>
+      <c r="M585" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D586" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E586" t="n">
+        <v>116577.9185677728</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0.1007715132911344</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0.1521743588158</v>
+      </c>
+      <c r="H586" t="n">
+        <v>-1.906312211885413</v>
+      </c>
+      <c r="I586" t="n">
+        <v>25.92485937560931</v>
+      </c>
+      <c r="J586" t="n">
+        <v>-0.1935401784334833</v>
+      </c>
+      <c r="K586" t="n">
+        <v>0.0194906521194458</v>
+      </c>
+      <c r="L586" t="n">
+        <v>0.3039519914717857</v>
+      </c>
+      <c r="M586" t="n">
+        <v>1.543518557180188</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D587" t="n">
+        <v>0.04931506849315068</v>
+      </c>
+      <c r="E587" t="n">
+        <v>117393.0528389807</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0.06680259025151655</v>
+      </c>
+      <c r="G587" t="n">
+        <v>0.141073578346386</v>
+      </c>
+      <c r="H587" t="n">
+        <v>-0.9694401114148149</v>
+      </c>
+      <c r="I587" t="n">
+        <v>9.555590562448135</v>
+      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="inlineStr"/>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D588" t="n">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="E588" t="n">
+        <v>117382.7797571879</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0.04961211201885166</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0.1520136721133001</v>
+      </c>
+      <c r="H588" t="n">
+        <v>-0.8124154389056608</v>
+      </c>
+      <c r="I588" t="n">
+        <v>7.893800570573736</v>
+      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="inlineStr"/>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D589" t="n">
+        <v>0.08767123287671233</v>
+      </c>
+      <c r="E589" t="n">
+        <v>117379.8659065504</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.03562913288900945</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0.1775856546375478</v>
+      </c>
+      <c r="H589" t="n">
+        <v>-1.712252831329058</v>
+      </c>
+      <c r="I589" t="n">
+        <v>15.05511587582984</v>
+      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="inlineStr"/>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D590" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E590" t="n">
+        <v>113214.3381836721</v>
+      </c>
+      <c r="F590" t="n">
+        <v>-0.07825075703777636</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.1737321284694787</v>
+      </c>
+      <c r="H590" t="n">
+        <v>-1.606919679232</v>
+      </c>
+      <c r="I590" t="n">
+        <v>13.30010197417358</v>
+      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="inlineStr"/>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D591" t="n">
+        <v>0.1041095890410959</v>
+      </c>
+      <c r="E591" t="n">
+        <v>113937.8372900582</v>
+      </c>
+      <c r="F591" t="n">
+        <v>-0.03995669483176156</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0.1734961810440561</v>
+      </c>
+      <c r="H591" t="n">
+        <v>-1.307990363095167</v>
+      </c>
+      <c r="I591" t="n">
+        <v>11.53987039751357</v>
+      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="inlineStr"/>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D592" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E592" t="n">
+        <v>114723.6030446755</v>
+      </c>
+      <c r="F592" t="n">
+        <v>-0.03301128570030838</v>
+      </c>
+      <c r="G592" t="n">
+        <v>0.1846196818760082</v>
+      </c>
+      <c r="H592" t="n">
+        <v>-1.264966378436803</v>
+      </c>
+      <c r="I592" t="n">
+        <v>10.55689381395363</v>
+      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="inlineStr"/>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D593" t="n">
+        <v>0.2767123287671233</v>
+      </c>
+      <c r="E593" t="n">
+        <v>115679.0729733745</v>
+      </c>
+      <c r="F593" t="n">
+        <v>-0.02665987442685994</v>
+      </c>
+      <c r="G593" t="n">
+        <v>0.1850308131219458</v>
+      </c>
+      <c r="H593" t="n">
+        <v>-0.6793011093100727</v>
+      </c>
+      <c r="I593" t="n">
+        <v>7.46897985816635</v>
+      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="inlineStr"/>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D594" t="n">
+        <v>0.3534246575342466</v>
+      </c>
+      <c r="E594" t="n">
+        <v>116067.2603068908</v>
+      </c>
+      <c r="F594" t="n">
+        <v>-0.03813760086954768</v>
+      </c>
+      <c r="G594" t="n">
+        <v>0.2240733359349865</v>
+      </c>
+      <c r="H594" t="n">
+        <v>-1.089127447590482</v>
+      </c>
+      <c r="I594" t="n">
+        <v>9.136914188413385</v>
+      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="inlineStr"/>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D595" t="n">
+        <v>0.4493150684931507</v>
+      </c>
+      <c r="E595" t="n">
+        <v>117400.0115948081</v>
+      </c>
+      <c r="F595" t="n">
+        <v>-0.06391510734260072</v>
+      </c>
+      <c r="G595" t="n">
+        <v>0.3555815044742325</v>
+      </c>
+      <c r="H595" t="n">
+        <v>-2.027415823102827</v>
+      </c>
+      <c r="I595" t="n">
+        <v>9.943239753441338</v>
+      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="inlineStr"/>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D596" t="n">
+        <v>0.7753424657534247</v>
+      </c>
+      <c r="E596" t="n">
+        <v>117708.1477641043</v>
+      </c>
+      <c r="F596" t="n">
+        <v>-0.05315218713261295</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0.2047231036646597</v>
+      </c>
+      <c r="H596" t="n">
+        <v>-0.7538985884422079</v>
+      </c>
+      <c r="I596" t="n">
+        <v>5.987461639050404</v>
+      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="inlineStr"/>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D597" t="n">
+        <v>0.852054794520548</v>
+      </c>
+      <c r="E597" t="n">
+        <v>119311.2550001256</v>
+      </c>
+      <c r="F597" t="n">
+        <v>-0.08736256814702437</v>
+      </c>
+      <c r="G597" t="n">
+        <v>0.3473256545289836</v>
+      </c>
+      <c r="H597" t="n">
+        <v>-1.794350144896764</v>
+      </c>
+      <c r="I597" t="n">
+        <v>12.31691622885303</v>
+      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="inlineStr"/>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D598" t="n">
+        <v>1.101369863013699</v>
+      </c>
+      <c r="E598" t="n">
+        <v>120824.6004964329</v>
+      </c>
+      <c r="F598" t="n">
+        <v>-0.1229625549687394</v>
+      </c>
+      <c r="G598" t="n">
+        <v>0.4488866580034235</v>
+      </c>
+      <c r="H598" t="n">
+        <v>-1.963245138802151</v>
+      </c>
+      <c r="I598" t="n">
+        <v>10.13371292967563</v>
+      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D599" t="n">
+        <v>1.347945205479452</v>
+      </c>
+      <c r="E599" t="n">
+        <v>122787.9881945788</v>
+      </c>
+      <c r="F599" t="n">
+        <v>-0.1878561224126774</v>
+      </c>
+      <c r="G599" t="n">
+        <v>0.6940216837823092</v>
+      </c>
+      <c r="H599" t="n">
+        <v>-2.219661247083886</v>
+      </c>
+      <c r="I599" t="n">
+        <v>9.491752246854299</v>
+      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="inlineStr"/>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D600" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E600" t="n">
+        <v>113249.5583362894</v>
+      </c>
+      <c r="F600" t="n">
+        <v>-0.09452032295197073</v>
+      </c>
+      <c r="G600" t="n">
+        <v>0.2104731946853277</v>
+      </c>
+      <c r="H600" t="n">
+        <v>-1.635631822206884</v>
+      </c>
+      <c r="I600" t="n">
+        <v>13.22780089573021</v>
+      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="inlineStr"/>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D601" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E601" t="n">
+        <v>113255.2982906705</v>
+      </c>
+      <c r="F601" t="n">
+        <v>-0.08818409691567902</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0.1931791080207818</v>
+      </c>
+      <c r="H601" t="n">
+        <v>-1.196283997026981</v>
+      </c>
+      <c r="I601" t="n">
+        <v>8.461148375507634</v>
+      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="inlineStr"/>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D602" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E602" t="n">
+        <v>113234.7960568658</v>
+      </c>
+      <c r="F602" t="n">
+        <v>-0.2074136135770293</v>
+      </c>
+      <c r="G602" t="n">
+        <v>0.2312103977243177</v>
+      </c>
+      <c r="H602" t="n">
+        <v>-0.9482190759873642</v>
+      </c>
+      <c r="I602" t="n">
+        <v>5.318715284119756</v>
+      </c>
+      <c r="J602" t="n">
+        <v>-0.2143353851498467</v>
+      </c>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="inlineStr"/>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D603" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E603" t="n">
+        <v>113241.9587578922</v>
+      </c>
+      <c r="F603" t="n">
+        <v>-0.08516442077873235</v>
+      </c>
+      <c r="G603" t="n">
+        <v>0.1998641396975879</v>
+      </c>
+      <c r="H603" t="n">
+        <v>-2.180925155966794</v>
+      </c>
+      <c r="I603" t="n">
+        <v>20.52676154962014</v>
+      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D604" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E604" t="n">
+        <v>113214.4785619943</v>
+      </c>
+      <c r="F604" t="n">
+        <v>-0.1526633966901293</v>
+      </c>
+      <c r="G604" t="n">
+        <v>0.2125847835000658</v>
+      </c>
+      <c r="H604" t="n">
+        <v>-1.523207752097392</v>
+      </c>
+      <c r="I604" t="n">
+        <v>8.93942148221425</v>
+      </c>
+      <c r="J604" t="n">
+        <v>-0.1839699833522932</v>
+      </c>
+      <c r="K604" t="n">
+        <v>0.0009220576263268626</v>
+      </c>
+      <c r="L604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M604" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D605" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E605" t="n">
+        <v>113226.9313909172</v>
+      </c>
+      <c r="F605" t="n">
+        <v>-0.1264176937969392</v>
+      </c>
+      <c r="G605" t="n">
+        <v>0.2118178091834923</v>
+      </c>
+      <c r="H605" t="n">
+        <v>-1.69327688902071</v>
+      </c>
+      <c r="I605" t="n">
+        <v>12.57835848358641</v>
+      </c>
+      <c r="J605" t="n">
+        <v>-0.07445529647977771</v>
+      </c>
+      <c r="K605" t="n">
+        <v>0.02460163836578814</v>
+      </c>
+      <c r="L605" t="n">
+        <v>0.6284333312539322</v>
+      </c>
+      <c r="M605" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D606" t="n">
+        <v>0.04657534246575343</v>
+      </c>
+      <c r="E606" t="n">
+        <v>114084.3094692667</v>
+      </c>
+      <c r="F606" t="n">
+        <v>-0.03248316799501179</v>
+      </c>
+      <c r="G606" t="n">
+        <v>0.1668102450368517</v>
+      </c>
+      <c r="H606" t="n">
+        <v>-1.195065618892922</v>
+      </c>
+      <c r="I606" t="n">
+        <v>10.13530436271165</v>
+      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="inlineStr"/>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D607" t="n">
+        <v>0.06575342465753424</v>
+      </c>
+      <c r="E607" t="n">
+        <v>114207.1557599035</v>
+      </c>
+      <c r="F607" t="n">
+        <v>-0.02966786176659186</v>
+      </c>
+      <c r="G607" t="n">
+        <v>0.1636185424557807</v>
+      </c>
+      <c r="H607" t="n">
+        <v>-0.7661796598784997</v>
+      </c>
+      <c r="I607" t="n">
+        <v>7.814295974217599</v>
+      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="inlineStr"/>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D608" t="n">
+        <v>0.08493150684931507</v>
+      </c>
+      <c r="E608" t="n">
+        <v>113920.7056650599</v>
+      </c>
+      <c r="F608" t="n">
+        <v>-0.04071968051576125</v>
+      </c>
+      <c r="G608" t="n">
+        <v>0.1723906092282727</v>
+      </c>
+      <c r="H608" t="n">
+        <v>-0.7414306235938877</v>
+      </c>
+      <c r="I608" t="n">
+        <v>6.160679801535066</v>
+      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="inlineStr"/>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D609" t="n">
+        <v>0.02465753424657534</v>
+      </c>
+      <c r="E609" t="n">
+        <v>114441.012155453</v>
+      </c>
+      <c r="F609" t="n">
+        <v>0.05956911546830652</v>
+      </c>
+      <c r="G609" t="n">
+        <v>0.1658340187753284</v>
+      </c>
+      <c r="H609" t="n">
+        <v>-1.528091059899607</v>
+      </c>
+      <c r="I609" t="n">
+        <v>15.41220765585451</v>
+      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="inlineStr"/>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D610" t="n">
+        <v>0.1013698630136986</v>
+      </c>
+      <c r="E610" t="n">
+        <v>115210.1481585939</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0.03234545058775512</v>
+      </c>
+      <c r="G610" t="n">
+        <v>0.1581437064271667</v>
+      </c>
+      <c r="H610" t="n">
+        <v>-1.032291923471885</v>
+      </c>
+      <c r="I610" t="n">
+        <v>9.975746728589357</v>
+      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="inlineStr"/>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D611" t="n">
+        <v>0.1972602739726027</v>
+      </c>
+      <c r="E611" t="n">
+        <v>115980.4290959256</v>
+      </c>
+      <c r="F611" t="n">
+        <v>0.01836152305029688</v>
+      </c>
+      <c r="G611" t="n">
+        <v>0.1796538638042646</v>
+      </c>
+      <c r="H611" t="n">
+        <v>-1.415932861234159</v>
+      </c>
+      <c r="I611" t="n">
+        <v>11.53110329535999</v>
+      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="inlineStr"/>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D612" t="n">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="E612" t="n">
+        <v>116650.9358525852</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0.003553736704779091</v>
+      </c>
+      <c r="G612" t="n">
+        <v>0.2444123655161602</v>
+      </c>
+      <c r="H612" t="n">
+        <v>-2.883516402440664</v>
+      </c>
+      <c r="I612" t="n">
+        <v>28.18029012692069</v>
+      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="inlineStr"/>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D613" t="n">
+        <v>0.3506849315068493</v>
+      </c>
+      <c r="E613" t="n">
+        <v>117272.5662251448</v>
+      </c>
+      <c r="F613" t="n">
+        <v>9.054504747782208e-05</v>
+      </c>
+      <c r="G613" t="n">
+        <v>0.2207526276321765</v>
+      </c>
+      <c r="H613" t="n">
+        <v>-1.207168368393219</v>
+      </c>
+      <c r="I613" t="n">
+        <v>9.313880815670368</v>
+      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="inlineStr"/>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D614" t="n">
+        <v>0.4465753424657534</v>
+      </c>
+      <c r="E614" t="n">
+        <v>118639.4093783712</v>
+      </c>
+      <c r="F614" t="n">
+        <v>-0.002093076498806662</v>
+      </c>
+      <c r="G614" t="n">
+        <v>0.2254318796622757</v>
+      </c>
+      <c r="H614" t="n">
+        <v>-0.8013034773494867</v>
+      </c>
+      <c r="I614" t="n">
+        <v>5.603084954572248</v>
+      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="inlineStr"/>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D615" t="n">
+        <v>0.7726027397260274</v>
+      </c>
+      <c r="E615" t="n">
+        <v>119053.8824896641</v>
+      </c>
+      <c r="F615" t="n">
+        <v>-0.0257558149067628</v>
+      </c>
+      <c r="G615" t="n">
+        <v>0.2051777390108079</v>
+      </c>
+      <c r="H615" t="n">
+        <v>-0.9709171053015833</v>
+      </c>
+      <c r="I615" t="n">
+        <v>7.069090086170934</v>
+      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="inlineStr"/>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D616" t="n">
+        <v>0.8493150684931506</v>
+      </c>
+      <c r="E616" t="n">
+        <v>120567.4817895191</v>
+      </c>
+      <c r="F616" t="n">
+        <v>-0.05725145900268847</v>
+      </c>
+      <c r="G616" t="n">
+        <v>0.3233870407995719</v>
+      </c>
+      <c r="H616" t="n">
+        <v>-1.579725398156853</v>
+      </c>
+      <c r="I616" t="n">
+        <v>10.20648622667981</v>
+      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="inlineStr"/>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D617" t="n">
+        <v>1.098630136986301</v>
+      </c>
+      <c r="E617" t="n">
+        <v>122072.8636961065</v>
+      </c>
+      <c r="F617" t="n">
+        <v>-0.0995522961945184</v>
+      </c>
+      <c r="G617" t="n">
+        <v>0.4338949796958877</v>
+      </c>
+      <c r="H617" t="n">
+        <v>-1.839260985739862</v>
+      </c>
+      <c r="I617" t="n">
+        <v>9.165219961359403</v>
+      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="inlineStr"/>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D618" t="n">
+        <v>1.345205479452055</v>
+      </c>
+      <c r="E618" t="n">
+        <v>124068.1275594984</v>
+      </c>
+      <c r="F618" t="n">
+        <v>-0.1670667866803985</v>
+      </c>
+      <c r="G618" t="n">
+        <v>0.6874135589571067</v>
+      </c>
+      <c r="H618" t="n">
+        <v>-2.236117813309713</v>
+      </c>
+      <c r="I618" t="n">
+        <v>9.641634866562871</v>
+      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="inlineStr"/>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D619" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E619" t="n">
+        <v>114457.0677722238</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0.08868910549314825</v>
+      </c>
+      <c r="G619" t="n">
+        <v>0.1535716436104312</v>
+      </c>
+      <c r="H619" t="n">
+        <v>-1.280055910541885</v>
+      </c>
+      <c r="I619" t="n">
+        <v>10.18921170995572</v>
+      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="inlineStr"/>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D620" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E620" t="n">
+        <v>114465.2347196638</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0.07891953877553726</v>
+      </c>
+      <c r="G620" t="n">
+        <v>0.1713963966126734</v>
+      </c>
+      <c r="H620" t="n">
+        <v>-1.8540075593454</v>
+      </c>
+      <c r="I620" t="n">
+        <v>18.16724463237356</v>
+      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="inlineStr"/>
+      <c r="M620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D621" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E621" t="n">
+        <v>114341.888130357</v>
+      </c>
+      <c r="F621" t="n">
+        <v>0.0508092684557172</v>
+      </c>
+      <c r="G621" t="n">
+        <v>0.4719252926916727</v>
+      </c>
+      <c r="H621" t="n">
+        <v>-12.09897748671684</v>
+      </c>
+      <c r="I621" t="n">
+        <v>242.422597993331</v>
+      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="inlineStr"/>
+      <c r="M621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D622" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E622" t="n">
+        <v>114371.4674788225</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0.1996305703735169</v>
+      </c>
+      <c r="G622" t="n">
+        <v>0.1661882216187274</v>
+      </c>
+      <c r="H622" t="n">
+        <v>-0.6228479626647605</v>
+      </c>
+      <c r="I622" t="n">
+        <v>4.222957027637198</v>
+      </c>
+      <c r="J622" t="n">
+        <v>0.06073080359510705</v>
+      </c>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="inlineStr"/>
+      <c r="M622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D623" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E623" t="n">
+        <v>114447.1798526438</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0.06293128082853373</v>
+      </c>
+      <c r="G623" t="n">
+        <v>0.191861521680955</v>
+      </c>
+      <c r="H623" t="n">
+        <v>-2.515500103852278</v>
+      </c>
+      <c r="I623" t="n">
+        <v>25.38527621026315</v>
+      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="inlineStr"/>
+      <c r="M623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D624" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E624" t="n">
+        <v>114402.3160786913</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0.1413574874071107</v>
+      </c>
+      <c r="G624" t="n">
+        <v>0.1776132543518857</v>
+      </c>
+      <c r="H624" t="n">
+        <v>-1.874151719973472</v>
+      </c>
+      <c r="I624" t="n">
+        <v>18.01075058362099</v>
+      </c>
+      <c r="J624" t="n">
+        <v>0.2098201330051036</v>
+      </c>
+      <c r="K624" t="n">
+        <v>0.02222762814392247</v>
+      </c>
+      <c r="L624" t="n">
+        <v>3.271678267622532e-16</v>
+      </c>
+      <c r="M624" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D625" t="n">
+        <v>0.04383561643835616</v>
+      </c>
+      <c r="E625" t="n">
+        <v>115315.0992732052</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0.07369125362235757</v>
+      </c>
+      <c r="G625" t="n">
+        <v>0.1558751983705375</v>
+      </c>
+      <c r="H625" t="n">
+        <v>-1.066467314793373</v>
+      </c>
+      <c r="I625" t="n">
+        <v>10.5806243296481</v>
+      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="inlineStr"/>
+      <c r="M625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D626" t="n">
+        <v>0.06301369863013699</v>
+      </c>
+      <c r="E626" t="n">
+        <v>115368.7693252204</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0.05670611895191043</v>
+      </c>
+      <c r="G626" t="n">
+        <v>0.1559214026717295</v>
+      </c>
+      <c r="H626" t="n">
+        <v>-0.8524815457421132</v>
+      </c>
+      <c r="I626" t="n">
+        <v>8.243353072496781</v>
+      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="inlineStr"/>
+      <c r="M626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D627" t="n">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="E627" t="n">
+        <v>115295.6152843482</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0.04288674615375797</v>
+      </c>
+      <c r="G627" t="n">
+        <v>0.1563388626731304</v>
+      </c>
+      <c r="H627" t="n">
+        <v>-0.9140354285873039</v>
+      </c>
+      <c r="I627" t="n">
+        <v>8.09986522958857</v>
+      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="inlineStr"/>
+      <c r="M627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D628" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E628" t="n">
+        <v>112257.589151403</v>
+      </c>
+      <c r="F628" t="n">
+        <v>-0.08771928363172138</v>
+      </c>
+      <c r="G628" t="n">
+        <v>0.1762444347310798</v>
+      </c>
+      <c r="H628" t="n">
+        <v>-1.255616434156211</v>
+      </c>
+      <c r="I628" t="n">
+        <v>12.0414541796166</v>
+      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="inlineStr"/>
+      <c r="M628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D629" t="n">
+        <v>0.09863013698630137</v>
+      </c>
+      <c r="E629" t="n">
+        <v>113009.2181907091</v>
+      </c>
+      <c r="F629" t="n">
+        <v>-0.03760767828596474</v>
+      </c>
+      <c r="G629" t="n">
+        <v>0.1544431070624795</v>
+      </c>
+      <c r="H629" t="n">
+        <v>-0.9287313495447428</v>
+      </c>
+      <c r="I629" t="n">
+        <v>9.088853786943302</v>
+      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="inlineStr"/>
+      <c r="M629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D630" t="n">
+        <v>0.1945205479452055</v>
+      </c>
+      <c r="E630" t="n">
+        <v>113794.93915512</v>
+      </c>
+      <c r="F630" t="n">
+        <v>-0.03155163814725283</v>
+      </c>
+      <c r="G630" t="n">
+        <v>0.1800187859962148</v>
+      </c>
+      <c r="H630" t="n">
+        <v>-1.350441759860201</v>
+      </c>
+      <c r="I630" t="n">
+        <v>11.24030123841816</v>
+      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="inlineStr"/>
+      <c r="M630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D631" t="n">
+        <v>0.2712328767123288</v>
+      </c>
+      <c r="E631" t="n">
+        <v>114595.9633827693</v>
+      </c>
+      <c r="F631" t="n">
+        <v>-0.02771007616628469</v>
+      </c>
+      <c r="G631" t="n">
+        <v>0.1808782438398806</v>
+      </c>
+      <c r="H631" t="n">
+        <v>-0.5561278391948314</v>
+      </c>
+      <c r="I631" t="n">
+        <v>6.035307434488191</v>
+      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="inlineStr"/>
+      <c r="M631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D632" t="n">
+        <v>0.3479452054794521</v>
+      </c>
+      <c r="E632" t="n">
+        <v>115089.599105388</v>
+      </c>
+      <c r="F632" t="n">
+        <v>-0.03674664113730792</v>
+      </c>
+      <c r="G632" t="n">
+        <v>0.2232108515782077</v>
+      </c>
+      <c r="H632" t="n">
+        <v>-1.389876337054078</v>
+      </c>
+      <c r="I632" t="n">
+        <v>11.0967726026987</v>
+      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="inlineStr"/>
+      <c r="M632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D633" t="n">
+        <v>0.4438356164383562</v>
+      </c>
+      <c r="E633" t="n">
+        <v>115797.6425187768</v>
+      </c>
+      <c r="F633" t="n">
+        <v>-0.08065010840062689</v>
+      </c>
+      <c r="G633" t="n">
+        <v>0.4102138702724536</v>
+      </c>
+      <c r="H633" t="n">
+        <v>-2.404140521033943</v>
+      </c>
+      <c r="I633" t="n">
+        <v>11.84303737593806</v>
+      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="inlineStr"/>
+      <c r="M633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D634" t="n">
+        <v>0.7698630136986301</v>
+      </c>
+      <c r="E634" t="n">
+        <v>116775.3398704181</v>
+      </c>
+      <c r="F634" t="n">
+        <v>-0.05048049358751294</v>
+      </c>
+      <c r="G634" t="n">
+        <v>0.2095889332038294</v>
+      </c>
+      <c r="H634" t="n">
+        <v>-1.391330308717476</v>
+      </c>
+      <c r="I634" t="n">
+        <v>11.10123195343464</v>
+      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="inlineStr"/>
+      <c r="M634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D635" t="n">
+        <v>0.8465753424657534</v>
+      </c>
+      <c r="E635" t="n">
+        <v>118335.2589240287</v>
+      </c>
+      <c r="F635" t="n">
+        <v>-0.07929253746163945</v>
+      </c>
+      <c r="G635" t="n">
+        <v>0.3207026036962312</v>
+      </c>
+      <c r="H635" t="n">
+        <v>-1.603747102241274</v>
+      </c>
+      <c r="I635" t="n">
+        <v>10.26733472052208</v>
+      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="inlineStr"/>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D636" t="n">
+        <v>1.095890410958904</v>
+      </c>
+      <c r="E636" t="n">
+        <v>119805.6760722943</v>
+      </c>
+      <c r="F636" t="n">
+        <v>-0.1233557773894513</v>
+      </c>
+      <c r="G636" t="n">
+        <v>0.450037921272647</v>
+      </c>
+      <c r="H636" t="n">
+        <v>-1.949991600422538</v>
+      </c>
+      <c r="I636" t="n">
+        <v>9.987236046899573</v>
+      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="inlineStr"/>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D637" t="n">
+        <v>1.342465753424658</v>
+      </c>
+      <c r="E637" t="n">
+        <v>121746.2988735656</v>
+      </c>
+      <c r="F637" t="n">
+        <v>-0.1901808428920695</v>
+      </c>
+      <c r="G637" t="n">
+        <v>0.7083666098597174</v>
+      </c>
+      <c r="H637" t="n">
+        <v>-2.265380754812355</v>
+      </c>
+      <c r="I637" t="n">
+        <v>9.848570126029841</v>
+      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="inlineStr"/>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D638" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E638" t="n">
+        <v>112265.3034907672</v>
+      </c>
+      <c r="F638" t="n">
+        <v>-0.1156781014256024</v>
+      </c>
+      <c r="G638" t="n">
+        <v>0.1915354593340948</v>
+      </c>
+      <c r="H638" t="n">
+        <v>-2.826201384577298</v>
+      </c>
+      <c r="I638" t="n">
+        <v>35.13760333595164</v>
+      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr"/>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D639" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E639" t="n">
+        <v>112287.5450379438</v>
+      </c>
+      <c r="F639" t="n">
+        <v>-0.1038590698414643</v>
+      </c>
+      <c r="G639" t="n">
+        <v>0.1834279278442693</v>
+      </c>
+      <c r="H639" t="n">
+        <v>-1.492022771547845</v>
+      </c>
+      <c r="I639" t="n">
+        <v>14.50846468908198</v>
+      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="inlineStr"/>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D640" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E640" t="n">
+        <v>112286.9823925924</v>
+      </c>
+      <c r="F640" t="n">
+        <v>-0.09675400571696609</v>
+      </c>
+      <c r="G640" t="n">
+        <v>0.183435282812646</v>
+      </c>
+      <c r="H640" t="n">
+        <v>-1.037229286832687</v>
+      </c>
+      <c r="I640" t="n">
+        <v>8.899143970374983</v>
+      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="inlineStr"/>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D641" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E641" t="n">
+        <v>112270.2172573418</v>
+      </c>
+      <c r="F641" t="n">
+        <v>-0.09363150885837573</v>
+      </c>
+      <c r="G641" t="n">
+        <v>0.206571441131718</v>
+      </c>
+      <c r="H641" t="n">
+        <v>-2.266809429809612</v>
+      </c>
+      <c r="I641" t="n">
+        <v>23.21284737277145</v>
+      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="inlineStr"/>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D642" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E642" t="n">
+        <v>112293.3830932604</v>
+      </c>
+      <c r="F642" t="n">
+        <v>-0.2138283707243261</v>
+      </c>
+      <c r="G642" t="n">
+        <v>0.2558912204326083</v>
+      </c>
+      <c r="H642" t="n">
+        <v>-0.559355831827367</v>
+      </c>
+      <c r="I642" t="n">
+        <v>8.58807043464642</v>
+      </c>
+      <c r="J642" t="n">
+        <v>0.2981786588199924</v>
+      </c>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="inlineStr"/>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D643" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="E643" t="n">
+        <v>113138.238201525</v>
+      </c>
+      <c r="F643" t="n">
+        <v>-0.03349596364211962</v>
+      </c>
+      <c r="G643" t="n">
+        <v>0.1636987801632112</v>
+      </c>
+      <c r="H643" t="n">
+        <v>-0.9491297072396858</v>
+      </c>
+      <c r="I643" t="n">
+        <v>9.879344413863954</v>
+      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="inlineStr"/>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D644" t="n">
+        <v>0.06027397260273973</v>
+      </c>
+      <c r="E644" t="n">
+        <v>113004.895397839</v>
+      </c>
+      <c r="F644" t="n">
+        <v>-0.04096230614948878</v>
+      </c>
+      <c r="G644" t="n">
+        <v>0.1867830528405681</v>
+      </c>
+      <c r="H644" t="n">
+        <v>-1.731473698379662</v>
+      </c>
+      <c r="I644" t="n">
+        <v>14.55164498862496</v>
+      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="inlineStr"/>
+      <c r="M644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D645" t="n">
+        <v>0.07945205479452055</v>
+      </c>
+      <c r="E645" t="n">
+        <v>113030.6242479569</v>
+      </c>
+      <c r="F645" t="n">
+        <v>-0.04154584330061251</v>
+      </c>
+      <c r="G645" t="n">
+        <v>0.1896758920673241</v>
+      </c>
+      <c r="H645" t="n">
+        <v>-2.048144643757067</v>
+      </c>
+      <c r="I645" t="n">
+        <v>17.05013056151614</v>
+      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="inlineStr"/>
+      <c r="M645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D646" t="n">
+        <v>0.1178082191780822</v>
+      </c>
+      <c r="E646" t="n">
+        <v>113824.0317388585</v>
+      </c>
+      <c r="F646" t="n">
+        <v>-0.02344992909980384</v>
+      </c>
+      <c r="G646" t="n">
+        <v>0.1876505169770872</v>
+      </c>
+      <c r="H646" t="n">
+        <v>-1.884000579073628</v>
+      </c>
+      <c r="I646" t="n">
+        <v>14.57136734520261</v>
+      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="inlineStr"/>
+      <c r="M646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D647" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E647" t="n">
+        <v>116836.644733101</v>
+      </c>
+      <c r="F647" t="n">
+        <v>0.0877252566094376</v>
+      </c>
+      <c r="G647" t="n">
+        <v>0.1181734212536396</v>
+      </c>
+      <c r="H647" t="n">
+        <v>-0.3911922596364938</v>
+      </c>
+      <c r="I647" t="n">
+        <v>11.64211759095301</v>
+      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="inlineStr"/>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D648" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="E648" t="n">
+        <v>117593.4227565968</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0.04174173017397122</v>
+      </c>
+      <c r="G648" t="n">
+        <v>0.1449805577917045</v>
+      </c>
+      <c r="H648" t="n">
+        <v>-0.7474701377725058</v>
+      </c>
+      <c r="I648" t="n">
+        <v>10.68817956144695</v>
+      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="inlineStr"/>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D649" t="n">
+        <v>0.1917808219178082</v>
+      </c>
+      <c r="E649" t="n">
+        <v>118435.3167148957</v>
+      </c>
+      <c r="F649" t="n">
+        <v>0.02548311498150148</v>
+      </c>
+      <c r="G649" t="n">
+        <v>0.1745115441124751</v>
+      </c>
+      <c r="H649" t="n">
+        <v>-1.447352550681279</v>
+      </c>
+      <c r="I649" t="n">
+        <v>14.41872135162159</v>
+      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr"/>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D650" t="n">
+        <v>0.2684931506849315</v>
+      </c>
+      <c r="E650" t="n">
+        <v>119342.3144488902</v>
+      </c>
+      <c r="F650" t="n">
+        <v>0.02074249142256601</v>
+      </c>
+      <c r="G650" t="n">
+        <v>0.181529055419289</v>
+      </c>
+      <c r="H650" t="n">
+        <v>-0.7545696879018859</v>
+      </c>
+      <c r="I650" t="n">
+        <v>8.95108780383449</v>
+      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="inlineStr"/>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D651" t="n">
+        <v>0.3452054794520548</v>
+      </c>
+      <c r="E651" t="n">
+        <v>119778.548484486</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0.005816460953392802</v>
+      </c>
+      <c r="G651" t="n">
+        <v>0.217170748343345</v>
+      </c>
+      <c r="H651" t="n">
+        <v>-1.224537219603935</v>
+      </c>
+      <c r="I651" t="n">
+        <v>10.29658417350321</v>
+      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="inlineStr"/>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D652" t="n">
+        <v>0.4410958904109589</v>
+      </c>
+      <c r="E652" t="n">
+        <v>121034.6706662004</v>
+      </c>
+      <c r="F652" t="n">
+        <v>-0.01964200200747802</v>
+      </c>
+      <c r="G652" t="n">
+        <v>0.3244257641096066</v>
+      </c>
+      <c r="H652" t="n">
+        <v>-2.0842488399828</v>
+      </c>
+      <c r="I652" t="n">
+        <v>11.08944982037932</v>
+      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="inlineStr"/>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D653" t="n">
+        <v>0.7671232876712328</v>
+      </c>
+      <c r="E653" t="n">
+        <v>121563.2450110858</v>
+      </c>
+      <c r="F653" t="n">
+        <v>-0.02214212756376611</v>
+      </c>
+      <c r="G653" t="n">
+        <v>0.2072298430317633</v>
+      </c>
+      <c r="H653" t="n">
+        <v>-1.246291296472136</v>
+      </c>
+      <c r="I653" t="n">
+        <v>9.753181081931203</v>
+      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="inlineStr"/>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D654" t="n">
+        <v>0.8438356164383561</v>
+      </c>
+      <c r="E654" t="n">
+        <v>123285.1004874019</v>
+      </c>
+      <c r="F654" t="n">
+        <v>-0.05081613929414854</v>
+      </c>
+      <c r="G654" t="n">
+        <v>0.3169381992816377</v>
+      </c>
+      <c r="H654" t="n">
+        <v>-1.573413977323869</v>
+      </c>
+      <c r="I654" t="n">
+        <v>10.3770169670491</v>
+      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="inlineStr"/>
+      <c r="M654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D655" t="n">
+        <v>1.093150684931507</v>
+      </c>
+      <c r="E655" t="n">
+        <v>125046.6786128293</v>
+      </c>
+      <c r="F655" t="n">
+        <v>-0.08123772075345295</v>
+      </c>
+      <c r="G655" t="n">
+        <v>0.3774932122470232</v>
+      </c>
+      <c r="H655" t="n">
+        <v>-1.532599856138525</v>
+      </c>
+      <c r="I655" t="n">
+        <v>7.711485147016266</v>
+      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="inlineStr"/>
+      <c r="M655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D656" t="n">
+        <v>1.33972602739726</v>
+      </c>
+      <c r="E656" t="n">
+        <v>126581.2876446974</v>
+      </c>
+      <c r="F656" t="n">
+        <v>-0.1543469754425714</v>
+      </c>
+      <c r="G656" t="n">
+        <v>0.6210817546727313</v>
+      </c>
+      <c r="H656" t="n">
+        <v>-1.987112181339311</v>
+      </c>
+      <c r="I656" t="n">
+        <v>7.786249543727244</v>
+      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr"/>
+      <c r="M656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D657" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E657" t="n">
+        <v>116857.1509932358</v>
+      </c>
+      <c r="F657" t="n">
+        <v>0.1428195230237539</v>
+      </c>
+      <c r="G657" t="n">
+        <v>0.1097297704551426</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0.03250823016098849</v>
+      </c>
+      <c r="I657" t="n">
+        <v>4.998602867911782</v>
+      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="inlineStr"/>
+      <c r="M657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D658" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E658" t="n">
+        <v>117613.074347966</v>
+      </c>
+      <c r="F658" t="n">
+        <v>0.1098163481466454</v>
+      </c>
+      <c r="G658" t="n">
+        <v>0.1207950396500376</v>
+      </c>
+      <c r="H658" t="n">
+        <v>-0.5252868798289002</v>
+      </c>
+      <c r="I658" t="n">
+        <v>13.08446810661146</v>
+      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="inlineStr"/>
+      <c r="M658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D659" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E659" t="n">
+        <v>116793.6500943039</v>
+      </c>
+      <c r="F659" t="n">
+        <v>0.1168449653546022</v>
+      </c>
+      <c r="G659" t="n">
+        <v>0.113257204949438</v>
+      </c>
+      <c r="H659" t="n">
+        <v>-0.3097260248104146</v>
+      </c>
+      <c r="I659" t="n">
+        <v>5.646190787623574</v>
+      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="inlineStr"/>
+      <c r="M659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D660" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E660" t="n">
+        <v>116840.9081372219</v>
+      </c>
+      <c r="F660" t="n">
+        <v>0.1060368617455658</v>
+      </c>
+      <c r="G660" t="n">
+        <v>0.1233265714477411</v>
+      </c>
+      <c r="H660" t="n">
+        <v>-0.06379278620818073</v>
+      </c>
+      <c r="I660" t="n">
+        <v>7.59132668703202</v>
+      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="inlineStr"/>
+      <c r="M660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D661" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E661" t="n">
+        <v>116832.8650029701</v>
+      </c>
+      <c r="F661" t="n">
+        <v>0.09510657460604609</v>
+      </c>
+      <c r="G661" t="n">
+        <v>0.1210073783989895</v>
+      </c>
+      <c r="H661" t="n">
+        <v>-0.1642935027736472</v>
+      </c>
+      <c r="I661" t="n">
+        <v>6.667330437681408</v>
+      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="inlineStr"/>
+      <c r="M661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D662" t="n">
+        <v>0.03835616438356165</v>
+      </c>
+      <c r="E662" t="n">
+        <v>117456.8786145969</v>
+      </c>
+      <c r="F662" t="n">
+        <v>0.08042706017081008</v>
+      </c>
+      <c r="G662" t="n">
+        <v>0.1501266721640661</v>
+      </c>
+      <c r="H662" t="n">
+        <v>-2.219972717662498</v>
+      </c>
+      <c r="I662" t="n">
+        <v>19.79321383901967</v>
+      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="inlineStr"/>
+      <c r="M662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D663" t="n">
+        <v>0.05753424657534247</v>
+      </c>
+      <c r="E663" t="n">
+        <v>117523.3536295827</v>
+      </c>
+      <c r="F663" t="n">
+        <v>0.05936913617542375</v>
+      </c>
+      <c r="G663" t="n">
+        <v>0.1713918985599435</v>
+      </c>
+      <c r="H663" t="n">
+        <v>-2.016414292434636</v>
+      </c>
+      <c r="I663" t="n">
+        <v>22.22244899502702</v>
+      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="inlineStr"/>
+      <c r="M663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D664" t="n">
+        <v>0.07671232876712329</v>
+      </c>
+      <c r="E664" t="n">
+        <v>117571.6129769229</v>
+      </c>
+      <c r="F664" t="n">
+        <v>0.04861909929879441</v>
+      </c>
+      <c r="G664" t="n">
+        <v>0.1557666814912989</v>
+      </c>
+      <c r="H664" t="n">
+        <v>-1.259005924047899</v>
+      </c>
+      <c r="I664" t="n">
+        <v>14.09090132904606</v>
+      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="inlineStr"/>
+      <c r="M664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D665" t="n">
+        <v>0.1150684931506849</v>
+      </c>
+      <c r="E665" t="n">
+        <v>118726.3422614358</v>
+      </c>
+      <c r="F665" t="n">
+        <v>0.06192508559418698</v>
+      </c>
+      <c r="G665" t="n">
+        <v>0.1384343476750854</v>
+      </c>
+      <c r="H665" t="n">
+        <v>-0.2511106905916192</v>
+      </c>
+      <c r="I665" t="n">
+        <v>5.983941737734368</v>
+      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="inlineStr"/>
+      <c r="M665" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_analyzed/moment.xlsx
+++ b/data_analyzed/moment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M665"/>
+  <dimension ref="A1:M815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,10 +628,18 @@
       <c r="I4" t="n">
         <v>7.052864070537641</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1.498352733344487</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7413492207625757</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.7369451616989244</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.647587210590345</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1449,10 +1457,18 @@
       <c r="I23" t="n">
         <v>6.626070514320102</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1.400202336862439</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4842730983059223</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.5938596744236889</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.059269257706759</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2270,10 +2286,18 @@
       <c r="I42" t="n">
         <v>11.0728681165078</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.9344624777122864</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.3658718481116301</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.764271873561129</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.54413297204941</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3085,10 +3109,18 @@
       <c r="I61" t="n">
         <v>18.17851342399878</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.9119513547144661</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.2046926104417895</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.7920397481549506</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3.263840307338731</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3900,10 +3932,18 @@
       <c r="I80" t="n">
         <v>20.50998952911186</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>-0.233845357542316</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.2077763376300053</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-0.7620896314017754</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3.199112066646072</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4721,10 +4761,18 @@
       <c r="I99" t="n">
         <v>24.03287988838735</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>-0.8032667633509643</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.2036290182595674</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-0.768636177449158</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3.126250181706411</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5536,10 +5584,18 @@
       <c r="I118" t="n">
         <v>5.857611630900104</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>-0.1805290139085289</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.2074456135354681</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-0.7395785195415453</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3.052775502476929</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6351,10 +6407,18 @@
       <c r="I137" t="n">
         <v>18.59433234824288</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>-0.3864313882071876</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.2088418595083264</v>
+      </c>
+      <c r="L137" t="n">
+        <v>-0.7052803262679067</v>
+      </c>
+      <c r="M137" t="n">
+        <v>3.01479743913432</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7166,10 +7230,18 @@
       <c r="I156" t="n">
         <v>9.606121058947419</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>-0.3964485274823746</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.2101265688718679</v>
+      </c>
+      <c r="L156" t="n">
+        <v>-0.6701400462403837</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2.980426928740402</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7981,10 +8053,18 @@
       <c r="I175" t="n">
         <v>6.471862919815515</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>-0.3481849190473605</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.2123102164198775</v>
+      </c>
+      <c r="L175" t="n">
+        <v>-0.6323858570326343</v>
+      </c>
+      <c r="M175" t="n">
+        <v>2.935572397170822</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8802,10 +8882,18 @@
       <c r="I194" t="n">
         <v>12.1358662790165</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>-0.4828312689463684</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.2158793921891626</v>
+      </c>
+      <c r="L194" t="n">
+        <v>-0.519189168748834</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2.856722983783609</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9617,10 +9705,18 @@
       <c r="I213" t="n">
         <v>9.302277786034631</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>-0.4251153650967358</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0.2169265038605571</v>
+      </c>
+      <c r="L213" t="n">
+        <v>-0.4772852046621503</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2.839233191721846</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -10432,10 +10528,18 @@
       <c r="I232" t="n">
         <v>12.25683512368275</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>-0.3455109999618997</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0.2196478599460466</v>
+      </c>
+      <c r="L232" t="n">
+        <v>-0.4328907103504786</v>
+      </c>
+      <c r="M232" t="n">
+        <v>2.801133796137951</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -11241,10 +11345,18 @@
       <c r="I251" t="n">
         <v>12.87568493774282</v>
       </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>-0.4402146986448091</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0.2205116493645886</v>
+      </c>
+      <c r="L251" t="n">
+        <v>-0.3873567498259738</v>
+      </c>
+      <c r="M251" t="n">
+        <v>2.794096978151844</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -11968,10 +12080,18 @@
       <c r="I268" t="n">
         <v>12.99760402802692</v>
       </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0.04797804163260821</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.2267480407458296</v>
+      </c>
+      <c r="L268" t="n">
+        <v>-0.3904699698200783</v>
+      </c>
+      <c r="M268" t="n">
+        <v>2.722337173295156</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -12742,10 +12862,18 @@
       <c r="I286" t="n">
         <v>14.0800696939362</v>
       </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>-0.4340006244244006</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.2311415746764876</v>
+      </c>
+      <c r="L286" t="n">
+        <v>-0.2338051555780229</v>
+      </c>
+      <c r="M286" t="n">
+        <v>2.70624499875677</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -13549,10 +13677,18 @@
       <c r="I305" t="n">
         <v>11.38438514083712</v>
       </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>-0.4421614382907215</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.2324881689575329</v>
+      </c>
+      <c r="L305" t="n">
+        <v>-0.1758749011479283</v>
+      </c>
+      <c r="M305" t="n">
+        <v>2.716096556723631</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -14356,10 +14492,18 @@
       <c r="I324" t="n">
         <v>13.46043696112904</v>
       </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>-0.4344319951986923</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.2341496727038916</v>
+      </c>
+      <c r="L324" t="n">
+        <v>-0.114760828551843</v>
+      </c>
+      <c r="M324" t="n">
+        <v>2.729621715297354</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -15163,10 +15307,18 @@
       <c r="I343" t="n">
         <v>11.59002403884777</v>
       </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>-0.4695295520068083</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.2348751993419303</v>
+      </c>
+      <c r="L343" t="n">
+        <v>-0.04957718332383978</v>
+      </c>
+      <c r="M343" t="n">
+        <v>2.767138876111711</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -15923,10 +16075,18 @@
       <c r="I361" t="n">
         <v>15.065724512999</v>
       </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>-0.6410027637727349</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.3214833734407471</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0.02644294527821311</v>
+      </c>
+      <c r="M361" t="n">
+        <v>2.282637360416062</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -15962,10 +16122,18 @@
       <c r="I362" t="n">
         <v>10.68370501309695</v>
       </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
-      <c r="M362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>-0.004430112316335983</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.2432629225634229</v>
+      </c>
+      <c r="L362" t="n">
+        <v>-0.04778595182768761</v>
+      </c>
+      <c r="M362" t="n">
+        <v>2.671675381450449</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -16728,10 +16896,18 @@
       <c r="I380" t="n">
         <v>13.22339232479555</v>
       </c>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
-      <c r="M380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>-0.1807720062054129</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.3297608760644796</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0.05159556685682618</v>
+      </c>
+      <c r="M380" t="n">
+        <v>2.232560601757156</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -16767,10 +16943,18 @@
       <c r="I381" t="n">
         <v>9.416084923091057</v>
       </c>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
-      <c r="M381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>0.03998220957160841</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.2646407987648076</v>
+      </c>
+      <c r="L381" t="n">
+        <v>-0.1723740260921927</v>
+      </c>
+      <c r="M381" t="n">
+        <v>2.537203454282187</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -17527,10 +17711,18 @@
       <c r="I399" t="n">
         <v>5.986439423091731</v>
       </c>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
-      <c r="M399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>-0.1582067356211394</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.3588061327005375</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0.03761786831868028</v>
+      </c>
+      <c r="M399" t="n">
+        <v>2.061438656335365</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -17566,10 +17758,18 @@
       <c r="I400" t="n">
         <v>11.20024383451704</v>
       </c>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
-      <c r="M400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>0.3696246258455235</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.2702026041520829</v>
+      </c>
+      <c r="L400" t="n">
+        <v>-0.2461390038637574</v>
+      </c>
+      <c r="M400" t="n">
+        <v>2.549338570627156</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -18326,10 +18526,18 @@
       <c r="I418" t="n">
         <v>6.704854669944143</v>
       </c>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
-      <c r="M418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>0.1617039438647276</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.3695633939073046</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0.01276248446693575</v>
+      </c>
+      <c r="M418" t="n">
+        <v>2.004878396784024</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -18365,10 +18573,18 @@
       <c r="I419" t="n">
         <v>11.48821129442052</v>
       </c>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
-      <c r="M419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>0.213557390838831</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2800502618304645</v>
+      </c>
+      <c r="L419" t="n">
+        <v>-0.291346792213953</v>
+      </c>
+      <c r="M419" t="n">
+        <v>2.49331058952106</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -19125,10 +19341,18 @@
       <c r="I437" t="n">
         <v>396.4879047524765</v>
       </c>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
-      <c r="M437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>-0.003370232952257873</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.381881807301952</v>
+      </c>
+      <c r="L437" t="n">
+        <v>0.01308274625048825</v>
+      </c>
+      <c r="M437" t="n">
+        <v>1.940217643963906</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -19164,10 +19388,18 @@
       <c r="I438" t="n">
         <v>11.59848028834861</v>
       </c>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
-      <c r="M438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>-0.1510628729506125</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2917876456392605</v>
+      </c>
+      <c r="L438" t="n">
+        <v>-0.250788718282305</v>
+      </c>
+      <c r="M438" t="n">
+        <v>2.387835162127833</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -19877,10 +20109,18 @@
       <c r="I455" t="n">
         <v>346.3862719504211</v>
       </c>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
-      <c r="M455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>-0.3738853921488089</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.390390469269369</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0.06626720357243029</v>
+      </c>
+      <c r="M455" t="n">
+        <v>1.919622844000926</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -19955,10 +20195,18 @@
       <c r="I457" t="n">
         <v>13.42237825943953</v>
       </c>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
-      <c r="M457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>-0.2051071372574013</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3037700709882454</v>
+      </c>
+      <c r="L457" t="n">
+        <v>-0.1987230108742328</v>
+      </c>
+      <c r="M457" t="n">
+        <v>2.292162609111811</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -20674,10 +20922,18 @@
       <c r="I474" t="n">
         <v>6.792318252952822</v>
       </c>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
-      <c r="M474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>-0.4335568406464395</v>
+      </c>
+      <c r="K474" t="n">
+        <v>0.397851208992047</v>
+      </c>
+      <c r="L474" t="n">
+        <v>0.1273926462583985</v>
+      </c>
+      <c r="M474" t="n">
+        <v>1.916091474589909</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -20752,10 +21008,18 @@
       <c r="I476" t="n">
         <v>14.51036342051753</v>
       </c>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
-      <c r="M476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>-0.8319244784142803</v>
+      </c>
+      <c r="K476" t="n">
+        <v>0.2980185349714233</v>
+      </c>
+      <c r="L476" t="n">
+        <v>0.02880460297801311</v>
+      </c>
+      <c r="M476" t="n">
+        <v>2.409774392370587</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -21465,10 +21729,18 @@
       <c r="I493" t="n">
         <v>7.785725622024378</v>
       </c>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
-      <c r="M493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>-1.064347500819291</v>
+      </c>
+      <c r="K493" t="n">
+        <v>0.3685536603139039</v>
+      </c>
+      <c r="L493" t="n">
+        <v>0.3361587556007758</v>
+      </c>
+      <c r="M493" t="n">
+        <v>2.194017056983228</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -21543,10 +21815,18 @@
       <c r="I495" t="n">
         <v>14.09246320819426</v>
       </c>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
-      <c r="M495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>-0.7223882864291703</v>
+      </c>
+      <c r="K495" t="n">
+        <v>0.2865576572302282</v>
+      </c>
+      <c r="L495" t="n">
+        <v>0.1359011226912011</v>
+      </c>
+      <c r="M495" t="n">
+        <v>2.611494526868577</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -22256,10 +22536,18 @@
       <c r="I512" t="n">
         <v>7.342302997364438</v>
       </c>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
-      <c r="M512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>-0.9527902356820649</v>
+      </c>
+      <c r="K512" t="n">
+        <v>0.3475976934985399</v>
+      </c>
+      <c r="L512" t="n">
+        <v>0.4209129885157118</v>
+      </c>
+      <c r="M512" t="n">
+        <v>2.411671512147268</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -22334,10 +22622,18 @@
       <c r="I514" t="n">
         <v>10.00089311459868</v>
       </c>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
-      <c r="M514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>-1.192999354913552</v>
+      </c>
+      <c r="K514" t="n">
+        <v>0.2207470719351086</v>
+      </c>
+      <c r="L514" t="n">
+        <v>-0.1880581529379718</v>
+      </c>
+      <c r="M514" t="n">
+        <v>2.390434932787405</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -23047,10 +23343,18 @@
       <c r="I531" t="n">
         <v>6.614736706765834</v>
       </c>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
-      <c r="M531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>-1.412060735503798</v>
+      </c>
+      <c r="K531" t="n">
+        <v>0.2796308233294815</v>
+      </c>
+      <c r="L531" t="n">
+        <v>0.2152540228723466</v>
+      </c>
+      <c r="M531" t="n">
+        <v>2.045313495123622</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -23125,10 +23429,18 @@
       <c r="I533" t="n">
         <v>11.93229485579146</v>
       </c>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
-      <c r="M533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>-0.7766300884562578</v>
+      </c>
+      <c r="K533" t="n">
+        <v>0.197766400003976</v>
+      </c>
+      <c r="L533" t="n">
+        <v>-0.2003848170313115</v>
+      </c>
+      <c r="M533" t="n">
+        <v>2.53868442540057</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -23791,10 +24103,18 @@
       <c r="I549" t="n">
         <v>7.099364424577178</v>
       </c>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
-      <c r="M549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>-0.9902044561778961</v>
+      </c>
+      <c r="K549" t="n">
+        <v>0.2497106689931531</v>
+      </c>
+      <c r="L549" t="n">
+        <v>0.2162614919740294</v>
+      </c>
+      <c r="M549" t="n">
+        <v>2.124678745864521</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -23908,10 +24228,18 @@
       <c r="I552" t="n">
         <v>13.27042141797416</v>
       </c>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
-      <c r="M552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>-0.6803438013925298</v>
+      </c>
+      <c r="K552" t="n">
+        <v>0.1810347255599485</v>
+      </c>
+      <c r="L552" t="n">
+        <v>-0.1615533264691585</v>
+      </c>
+      <c r="M552" t="n">
+        <v>2.754507615626635</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -24345,10 +24673,18 @@
       <c r="I563" t="n">
         <v>12.42443451159217</v>
       </c>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
-      <c r="M563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>-0.4897537921999018</v>
+      </c>
+      <c r="K563" t="n">
+        <v>0.09389166313028015</v>
+      </c>
+      <c r="L563" t="n">
+        <v>0.4678594645122884</v>
+      </c>
+      <c r="M563" t="n">
+        <v>2.483941302951547</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -24572,10 +24908,18 @@
       <c r="I568" t="n">
         <v>7.557146160415116</v>
       </c>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
-      <c r="M568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>-0.8889696259588566</v>
+      </c>
+      <c r="K568" t="n">
+        <v>0.2256804261455844</v>
+      </c>
+      <c r="L568" t="n">
+        <v>0.2480950099360809</v>
+      </c>
+      <c r="M568" t="n">
+        <v>2.281291930843965</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -24689,10 +25033,18 @@
       <c r="I571" t="n">
         <v>19.53204370414236</v>
       </c>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
-      <c r="M571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>-0.4031925586089656</v>
+      </c>
+      <c r="K571" t="n">
+        <v>0.109469479763775</v>
+      </c>
+      <c r="L571" t="n">
+        <v>-0.8233677731302166</v>
+      </c>
+      <c r="M571" t="n">
+        <v>2.776224066834431</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -25079,10 +25431,18 @@
       <c r="I581" t="n">
         <v>7.306860550697478</v>
       </c>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
-      <c r="M581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>-0.2177642701949869</v>
+      </c>
+      <c r="K581" t="n">
+        <v>0.0311526845331437</v>
+      </c>
+      <c r="L581" t="n">
+        <v>-0.5953334235215503</v>
+      </c>
+      <c r="M581" t="n">
+        <v>2.249093190457154</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -25159,10 +25519,18 @@
       <c r="I583" t="n">
         <v>8.592076768497254</v>
       </c>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
-      <c r="M583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>-0.2966519979474677</v>
+      </c>
+      <c r="K583" t="n">
+        <v>0.07082151409614748</v>
+      </c>
+      <c r="L583" t="n">
+        <v>-0.9037196749651489</v>
+      </c>
+      <c r="M583" t="n">
+        <v>2.727714024660366</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -25339,10 +25707,18 @@
       <c r="I587" t="n">
         <v>9.555590562448135</v>
       </c>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
-      <c r="M587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>-0.5874877635030271</v>
+      </c>
+      <c r="K587" t="n">
+        <v>0.1412024805547104</v>
+      </c>
+      <c r="L587" t="n">
+        <v>-0.0955827746949887</v>
+      </c>
+      <c r="M587" t="n">
+        <v>1.806117529550021</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -25456,10 +25832,18 @@
       <c r="I590" t="n">
         <v>13.30010197417358</v>
       </c>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
-      <c r="M590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>-0.2920432377888471</v>
+      </c>
+      <c r="K590" t="n">
+        <v>0.1126628593094076</v>
+      </c>
+      <c r="L590" t="n">
+        <v>-0.6791700562381042</v>
+      </c>
+      <c r="M590" t="n">
+        <v>2.591575756073917</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -25846,10 +26230,18 @@
       <c r="I600" t="n">
         <v>13.22780089573021</v>
       </c>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
-      <c r="M600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>-0.09340982480822607</v>
+      </c>
+      <c r="K600" t="n">
+        <v>0.03509831356904334</v>
+      </c>
+      <c r="L600" t="n">
+        <v>-0.3797560568647471</v>
+      </c>
+      <c r="M600" t="n">
+        <v>1.922929931946162</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -25885,10 +26277,18 @@
       <c r="I601" t="n">
         <v>8.461148375507634</v>
       </c>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
-      <c r="M601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>-0.1816609049986487</v>
+      </c>
+      <c r="K601" t="n">
+        <v>0.07681378770212414</v>
+      </c>
+      <c r="L601" t="n">
+        <v>-0.6949592617086884</v>
+      </c>
+      <c r="M601" t="n">
+        <v>2.366446696117301</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -25965,10 +26365,18 @@
       <c r="I603" t="n">
         <v>20.52676154962014</v>
       </c>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
-      <c r="M603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>-0.2108672473204946</v>
+      </c>
+      <c r="K603" t="n">
+        <v>0.07318313726210456</v>
+      </c>
+      <c r="L603" t="n">
+        <v>-0.4092894075278155</v>
+      </c>
+      <c r="M603" t="n">
+        <v>2.10392564033197</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -26098,10 +26506,18 @@
       <c r="I606" t="n">
         <v>10.13530436271165</v>
       </c>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
-      <c r="M606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>-0.4762472372781644</v>
+      </c>
+      <c r="K606" t="n">
+        <v>0.1369078737662411</v>
+      </c>
+      <c r="L606" t="n">
+        <v>0.00321483838635471</v>
+      </c>
+      <c r="M606" t="n">
+        <v>1.875983085926304</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -26215,10 +26631,18 @@
       <c r="I609" t="n">
         <v>15.41220765585451</v>
       </c>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
-      <c r="M609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>-0.08634205848777793</v>
+      </c>
+      <c r="K609" t="n">
+        <v>0.1244354596818399</v>
+      </c>
+      <c r="L609" t="n">
+        <v>-0.5778595736595014</v>
+      </c>
+      <c r="M609" t="n">
+        <v>2.300016341032164</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -26605,10 +27029,18 @@
       <c r="I619" t="n">
         <v>10.18921170995572</v>
       </c>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
-      <c r="M619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>0.1451106724099447</v>
+      </c>
+      <c r="K619" t="n">
+        <v>0.03860845840830766</v>
+      </c>
+      <c r="L619" t="n">
+        <v>-0.719497518369239</v>
+      </c>
+      <c r="M619" t="n">
+        <v>2.141425594417664</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -26644,10 +27076,18 @@
       <c r="I620" t="n">
         <v>18.16724463237356</v>
       </c>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
-      <c r="M620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>0.03812022684306444</v>
+      </c>
+      <c r="K620" t="n">
+        <v>0.08940849255325421</v>
+      </c>
+      <c r="L620" t="n">
+        <v>-0.7000752725432544</v>
+      </c>
+      <c r="M620" t="n">
+        <v>2.086799292840594</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -26683,10 +27123,18 @@
       <c r="I621" t="n">
         <v>242.422597993331</v>
       </c>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
-      <c r="M621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>0.003963586090688369</v>
+      </c>
+      <c r="K621" t="n">
+        <v>0.08363590740485342</v>
+      </c>
+      <c r="L621" t="n">
+        <v>-0.3880079538026978</v>
+      </c>
+      <c r="M621" t="n">
+        <v>1.843662676263534</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -26763,10 +27211,18 @@
       <c r="I623" t="n">
         <v>25.38527621026315</v>
       </c>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
-      <c r="M623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>-0.000265022413729249</v>
+      </c>
+      <c r="K623" t="n">
+        <v>0.0733065868884322</v>
+      </c>
+      <c r="L623" t="n">
+        <v>-0.3671219725154395</v>
+      </c>
+      <c r="M623" t="n">
+        <v>2.075485821741652</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -26849,10 +27305,18 @@
       <c r="I625" t="n">
         <v>10.5806243296481</v>
       </c>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
-      <c r="M625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>-0.2782813428863373</v>
+      </c>
+      <c r="K625" t="n">
+        <v>0.1409092920061238</v>
+      </c>
+      <c r="L625" t="n">
+        <v>0.1129486708220114</v>
+      </c>
+      <c r="M625" t="n">
+        <v>1.875111306265327</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -26966,10 +27430,18 @@
       <c r="I628" t="n">
         <v>12.0414541796166</v>
       </c>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
-      <c r="M628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>-0.1654569698432457</v>
+      </c>
+      <c r="K628" t="n">
+        <v>0.1369481133787689</v>
+      </c>
+      <c r="L628" t="n">
+        <v>-0.4217527083110341</v>
+      </c>
+      <c r="M628" t="n">
+        <v>2.034547933685609</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -27356,10 +27828,18 @@
       <c r="I638" t="n">
         <v>35.13760333595164</v>
       </c>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
-      <c r="M638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>0.1054748360185471</v>
+      </c>
+      <c r="K638" t="n">
+        <v>0.04603558480375656</v>
+      </c>
+      <c r="L638" t="n">
+        <v>-0.9714502200944235</v>
+      </c>
+      <c r="M638" t="n">
+        <v>2.200712507002736</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -27395,10 +27875,18 @@
       <c r="I639" t="n">
         <v>14.50846468908198</v>
       </c>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
-      <c r="M639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>-0.02713269210245115</v>
+      </c>
+      <c r="K639" t="n">
+        <v>0.1071674939004506</v>
+      </c>
+      <c r="L639" t="n">
+        <v>-0.598798363972762</v>
+      </c>
+      <c r="M639" t="n">
+        <v>1.708747698783124</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -27434,10 +27922,18 @@
       <c r="I640" t="n">
         <v>8.899143970374983</v>
       </c>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
-      <c r="M640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>-0.06622842042182196</v>
+      </c>
+      <c r="K640" t="n">
+        <v>0.09694862478115245</v>
+      </c>
+      <c r="L640" t="n">
+        <v>-0.2725373584899253</v>
+      </c>
+      <c r="M640" t="n">
+        <v>1.561925405595501</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -27473,10 +27969,18 @@
       <c r="I641" t="n">
         <v>23.21284737277145</v>
       </c>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
-      <c r="M641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>-0.06970951543867017</v>
+      </c>
+      <c r="K641" t="n">
+        <v>0.08317152937608577</v>
+      </c>
+      <c r="L641" t="n">
+        <v>-0.2578607092615042</v>
+      </c>
+      <c r="M641" t="n">
+        <v>1.805744642355887</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -27553,10 +28057,18 @@
       <c r="I643" t="n">
         <v>9.879344413863954</v>
       </c>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
-      <c r="M643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>-0.3616129562468736</v>
+      </c>
+      <c r="K643" t="n">
+        <v>0.1421304991736817</v>
+      </c>
+      <c r="L643" t="n">
+        <v>0.2505153130106562</v>
+      </c>
+      <c r="M643" t="n">
+        <v>1.960801187805391</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -27709,10 +28221,18 @@
       <c r="I647" t="n">
         <v>11.64211759095301</v>
       </c>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
-      <c r="M647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>-0.5298692899008431</v>
+      </c>
+      <c r="K647" t="n">
+        <v>0.121416946528233</v>
+      </c>
+      <c r="L647" t="n">
+        <v>-0.3367949059522933</v>
+      </c>
+      <c r="M647" t="n">
+        <v>2.03617404199618</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -28099,10 +28619,18 @@
       <c r="I657" t="n">
         <v>4.998602867911782</v>
       </c>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
-      <c r="M657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>-0.2569384304019269</v>
+      </c>
+      <c r="K657" t="n">
+        <v>0.04487644048399081</v>
+      </c>
+      <c r="L657" t="n">
+        <v>-0.6591431417536935</v>
+      </c>
+      <c r="M657" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -28138,10 +28666,18 @@
       <c r="I658" t="n">
         <v>13.08446810661146</v>
       </c>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
-      <c r="M658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>-0.7095188395570421</v>
+      </c>
+      <c r="K658" t="n">
+        <v>0.1611014700843928</v>
+      </c>
+      <c r="L658" t="n">
+        <v>0.2599005274089113</v>
+      </c>
+      <c r="M658" t="n">
+        <v>1.583864174784634</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -28177,10 +28713,18 @@
       <c r="I659" t="n">
         <v>5.646190787623574</v>
       </c>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
-      <c r="M659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>-0.4066391886530542</v>
+      </c>
+      <c r="K659" t="n">
+        <v>0.1008882814258805</v>
+      </c>
+      <c r="L659" t="n">
+        <v>-0.3031090771618764</v>
+      </c>
+      <c r="M659" t="n">
+        <v>1.426911848121309</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -28216,10 +28760,18 @@
       <c r="I660" t="n">
         <v>7.59132668703202</v>
       </c>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
-      <c r="M660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>-0.4372884950901768</v>
+      </c>
+      <c r="K660" t="n">
+        <v>0.08446814508101096</v>
+      </c>
+      <c r="L660" t="n">
+        <v>-0.02830387734468846</v>
+      </c>
+      <c r="M660" t="n">
+        <v>1.565151079672559</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -28255,10 +28807,18 @@
       <c r="I661" t="n">
         <v>6.667330437681408</v>
       </c>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
-      <c r="M661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>-0.4292028699684391</v>
+      </c>
+      <c r="K661" t="n">
+        <v>0.07071700756888885</v>
+      </c>
+      <c r="L661" t="n">
+        <v>-0.1210231726677569</v>
+      </c>
+      <c r="M661" t="n">
+        <v>1.870213651501798</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -28294,10 +28854,18 @@
       <c r="I662" t="n">
         <v>19.79321383901967</v>
       </c>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
-      <c r="M662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>-0.7069195875716421</v>
+      </c>
+      <c r="K662" t="n">
+        <v>0.1189669907999237</v>
+      </c>
+      <c r="L662" t="n">
+        <v>0.2629798367475658</v>
+      </c>
+      <c r="M662" t="n">
+        <v>2.073549511692321</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -28416,6 +28984,6118 @@
       <c r="L665" t="inlineStr"/>
       <c r="M665" t="inlineStr"/>
     </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D666" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E666" t="n">
+        <v>110881.207069138</v>
+      </c>
+      <c r="F666" t="n">
+        <v>-0.105662761699015</v>
+      </c>
+      <c r="G666" t="n">
+        <v>0.1903922983073293</v>
+      </c>
+      <c r="H666" t="n">
+        <v>-1.276326470607607</v>
+      </c>
+      <c r="I666" t="n">
+        <v>8.835151995807953</v>
+      </c>
+      <c r="J666" t="n">
+        <v>-0.1803221713726269</v>
+      </c>
+      <c r="K666" t="n">
+        <v>0.08105255509871695</v>
+      </c>
+      <c r="L666" t="n">
+        <v>-0.2033164739878802</v>
+      </c>
+      <c r="M666" t="n">
+        <v>1.555123876398559</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D667" t="n">
+        <v>0.08767123287671233</v>
+      </c>
+      <c r="E667" t="n">
+        <v>111607.1646973918</v>
+      </c>
+      <c r="F667" t="n">
+        <v>-0.0355413669668767</v>
+      </c>
+      <c r="G667" t="n">
+        <v>0.1655916693561569</v>
+      </c>
+      <c r="H667" t="n">
+        <v>-1.054116416303743</v>
+      </c>
+      <c r="I667" t="n">
+        <v>9.77061856561763</v>
+      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="inlineStr"/>
+      <c r="M667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D668" t="n">
+        <v>0.1835616438356164</v>
+      </c>
+      <c r="E668" t="n">
+        <v>112469.5355748981</v>
+      </c>
+      <c r="F668" t="n">
+        <v>-0.02860208061942119</v>
+      </c>
+      <c r="G668" t="n">
+        <v>0.1945963991979602</v>
+      </c>
+      <c r="H668" t="n">
+        <v>-1.732727734055303</v>
+      </c>
+      <c r="I668" t="n">
+        <v>14.64010191289535</v>
+      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="inlineStr"/>
+      <c r="M668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="E669" t="n">
+        <v>113302.6992016791</v>
+      </c>
+      <c r="F669" t="n">
+        <v>-0.02383216126913151</v>
+      </c>
+      <c r="G669" t="n">
+        <v>0.1880155588184002</v>
+      </c>
+      <c r="H669" t="n">
+        <v>-0.6371707632613677</v>
+      </c>
+      <c r="I669" t="n">
+        <v>5.924321417899901</v>
+      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="inlineStr"/>
+      <c r="M669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D670" t="n">
+        <v>0.336986301369863</v>
+      </c>
+      <c r="E670" t="n">
+        <v>113847.0081532568</v>
+      </c>
+      <c r="F670" t="n">
+        <v>-0.03330039993556305</v>
+      </c>
+      <c r="G670" t="n">
+        <v>0.232669650876625</v>
+      </c>
+      <c r="H670" t="n">
+        <v>-1.424381078289642</v>
+      </c>
+      <c r="I670" t="n">
+        <v>11.08016161553292</v>
+      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="inlineStr"/>
+      <c r="M670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D671" t="n">
+        <v>0.4328767123287671</v>
+      </c>
+      <c r="E671" t="n">
+        <v>114568.6677224931</v>
+      </c>
+      <c r="F671" t="n">
+        <v>-0.08019529287344332</v>
+      </c>
+      <c r="G671" t="n">
+        <v>0.4402517202702881</v>
+      </c>
+      <c r="H671" t="n">
+        <v>-2.535626721206049</v>
+      </c>
+      <c r="I671" t="n">
+        <v>12.4602737610086</v>
+      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="inlineStr"/>
+      <c r="M671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D672" t="n">
+        <v>0.7589041095890411</v>
+      </c>
+      <c r="E672" t="n">
+        <v>115714.2633582654</v>
+      </c>
+      <c r="F672" t="n">
+        <v>-0.04281516154842859</v>
+      </c>
+      <c r="G672" t="n">
+        <v>0.1989333382362376</v>
+      </c>
+      <c r="H672" t="n">
+        <v>-0.9871416410316042</v>
+      </c>
+      <c r="I672" t="n">
+        <v>6.855769196736065</v>
+      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="inlineStr"/>
+      <c r="M672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D673" t="n">
+        <v>0.8356164383561644</v>
+      </c>
+      <c r="E673" t="n">
+        <v>117137.8881598953</v>
+      </c>
+      <c r="F673" t="n">
+        <v>-0.07049667223613981</v>
+      </c>
+      <c r="G673" t="n">
+        <v>0.3046797438739006</v>
+      </c>
+      <c r="H673" t="n">
+        <v>-1.484525343593331</v>
+      </c>
+      <c r="I673" t="n">
+        <v>9.623873219362052</v>
+      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="inlineStr"/>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D674" t="n">
+        <v>1.084931506849315</v>
+      </c>
+      <c r="E674" t="n">
+        <v>118499.1271103777</v>
+      </c>
+      <c r="F674" t="n">
+        <v>-0.1213504611926799</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0.4575414918244194</v>
+      </c>
+      <c r="H674" t="n">
+        <v>-2.015470435002478</v>
+      </c>
+      <c r="I674" t="n">
+        <v>10.56506539496947</v>
+      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="inlineStr"/>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D675" t="n">
+        <v>1.331506849315069</v>
+      </c>
+      <c r="E675" t="n">
+        <v>120202.3199361914</v>
+      </c>
+      <c r="F675" t="n">
+        <v>-0.1832191199681749</v>
+      </c>
+      <c r="G675" t="n">
+        <v>0.6643004132424419</v>
+      </c>
+      <c r="H675" t="n">
+        <v>-2.02774337069925</v>
+      </c>
+      <c r="I675" t="n">
+        <v>8.019020815794072</v>
+      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="inlineStr"/>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D676" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E676" t="n">
+        <v>111647.6585350389</v>
+      </c>
+      <c r="F676" t="n">
+        <v>-0.03579300131602437</v>
+      </c>
+      <c r="G676" t="n">
+        <v>0.1800648971107846</v>
+      </c>
+      <c r="H676" t="n">
+        <v>-1.179885329336419</v>
+      </c>
+      <c r="I676" t="n">
+        <v>11.86885636155857</v>
+      </c>
+      <c r="J676" t="n">
+        <v>-0.3492366088996878</v>
+      </c>
+      <c r="K676" t="n">
+        <v>0.08550667047374151</v>
+      </c>
+      <c r="L676" t="n">
+        <v>0.7160573010959976</v>
+      </c>
+      <c r="M676" t="n">
+        <v>1.894058663596711</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D677" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E677" t="n">
+        <v>110929.4685598692</v>
+      </c>
+      <c r="F677" t="n">
+        <v>-0.1903349952286145</v>
+      </c>
+      <c r="G677" t="n">
+        <v>0.2167767912565798</v>
+      </c>
+      <c r="H677" t="n">
+        <v>-0.4581080206885433</v>
+      </c>
+      <c r="I677" t="n">
+        <v>3.348010051199409</v>
+      </c>
+      <c r="J677" t="n">
+        <v>-0.3014962002540319</v>
+      </c>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="inlineStr"/>
+      <c r="M677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D678" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E678" t="n">
+        <v>111610.0604543066</v>
+      </c>
+      <c r="F678" t="n">
+        <v>-0.03735374266992847</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0.1774757278416759</v>
+      </c>
+      <c r="H678" t="n">
+        <v>-0.9937036969983849</v>
+      </c>
+      <c r="I678" t="n">
+        <v>7.543679363040987</v>
+      </c>
+      <c r="J678" t="n">
+        <v>-0.3197507594121817</v>
+      </c>
+      <c r="K678" t="n">
+        <v>0.08090424390452292</v>
+      </c>
+      <c r="L678" t="n">
+        <v>0.4399573680282942</v>
+      </c>
+      <c r="M678" t="n">
+        <v>1.663326191145043</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D679" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E679" t="n">
+        <v>110968.2462712402</v>
+      </c>
+      <c r="F679" t="n">
+        <v>-0.1334158197413513</v>
+      </c>
+      <c r="G679" t="n">
+        <v>0.203460071365937</v>
+      </c>
+      <c r="H679" t="n">
+        <v>-0.6622869241265973</v>
+      </c>
+      <c r="I679" t="n">
+        <v>4.955331069864883</v>
+      </c>
+      <c r="J679" t="n">
+        <v>-0.1535683289701479</v>
+      </c>
+      <c r="K679" t="n">
+        <v>0.02188265510258135</v>
+      </c>
+      <c r="L679" t="n">
+        <v>-2.67947825586296e-16</v>
+      </c>
+      <c r="M679" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D680" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E680" t="n">
+        <v>110836.456522806</v>
+      </c>
+      <c r="F680" t="n">
+        <v>-0.1260819263428638</v>
+      </c>
+      <c r="G680" t="n">
+        <v>0.2290883680768567</v>
+      </c>
+      <c r="H680" t="n">
+        <v>-2.239664709412423</v>
+      </c>
+      <c r="I680" t="n">
+        <v>21.86666707202368</v>
+      </c>
+      <c r="J680" t="n">
+        <v>-0.04722204638254809</v>
+      </c>
+      <c r="K680" t="n">
+        <v>0.03720750037545751</v>
+      </c>
+      <c r="L680" t="n">
+        <v>-0.3133356883071654</v>
+      </c>
+      <c r="M680" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D681" t="n">
+        <v>0.03013698630136986</v>
+      </c>
+      <c r="E681" t="n">
+        <v>111544.4959877364</v>
+      </c>
+      <c r="F681" t="n">
+        <v>-0.03785713941147541</v>
+      </c>
+      <c r="G681" t="n">
+        <v>0.160025528339907</v>
+      </c>
+      <c r="H681" t="n">
+        <v>-1.583098674044507</v>
+      </c>
+      <c r="I681" t="n">
+        <v>11.51908100151503</v>
+      </c>
+      <c r="J681" t="n">
+        <v>-0.2753964581927972</v>
+      </c>
+      <c r="K681" t="n">
+        <v>0.06889013463875283</v>
+      </c>
+      <c r="L681" t="n">
+        <v>0.07096512486949856</v>
+      </c>
+      <c r="M681" t="n">
+        <v>1.628839623495565</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D682" t="n">
+        <v>0.04931506849315068</v>
+      </c>
+      <c r="E682" t="n">
+        <v>111763.2188025497</v>
+      </c>
+      <c r="F682" t="n">
+        <v>-0.02769903970800438</v>
+      </c>
+      <c r="G682" t="n">
+        <v>0.1567516041791528</v>
+      </c>
+      <c r="H682" t="n">
+        <v>-0.9807638221863915</v>
+      </c>
+      <c r="I682" t="n">
+        <v>8.659380502592677</v>
+      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="inlineStr"/>
+      <c r="M682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D683" t="n">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="E683" t="n">
+        <v>111613.2690351383</v>
+      </c>
+      <c r="F683" t="n">
+        <v>-0.03868504426338365</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0.1996766475076892</v>
+      </c>
+      <c r="H683" t="n">
+        <v>-1.966638177928622</v>
+      </c>
+      <c r="I683" t="n">
+        <v>16.06317020324577</v>
+      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="inlineStr"/>
+      <c r="M683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D684" t="n">
+        <v>0.1068493150684932</v>
+      </c>
+      <c r="E684" t="n">
+        <v>112890.8150805028</v>
+      </c>
+      <c r="F684" t="n">
+        <v>-0.0007215220119754865</v>
+      </c>
+      <c r="G684" t="n">
+        <v>0.1450007543539145</v>
+      </c>
+      <c r="H684" t="n">
+        <v>-0.6103747622416362</v>
+      </c>
+      <c r="I684" t="n">
+        <v>5.831970636100692</v>
+      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="inlineStr"/>
+      <c r="M684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D685" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E685" t="n">
+        <v>111210.1118809644</v>
+      </c>
+      <c r="F685" t="n">
+        <v>0.09031803956332904</v>
+      </c>
+      <c r="G685" t="n">
+        <v>0.1256099919581446</v>
+      </c>
+      <c r="H685" t="n">
+        <v>-0.7670412324054365</v>
+      </c>
+      <c r="I685" t="n">
+        <v>9.955113224084856</v>
+      </c>
+      <c r="J685" t="n">
+        <v>0.1615653718418736</v>
+      </c>
+      <c r="K685" t="n">
+        <v>0.1015442311203551</v>
+      </c>
+      <c r="L685" t="n">
+        <v>-0.5572899655021458</v>
+      </c>
+      <c r="M685" t="n">
+        <v>1.500000000000001</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D686" t="n">
+        <v>0.08493150684931507</v>
+      </c>
+      <c r="E686" t="n">
+        <v>111905.2422534114</v>
+      </c>
+      <c r="F686" t="n">
+        <v>0.02538167312024228</v>
+      </c>
+      <c r="G686" t="n">
+        <v>0.1834870816571519</v>
+      </c>
+      <c r="H686" t="n">
+        <v>-0.9713081487484628</v>
+      </c>
+      <c r="I686" t="n">
+        <v>8.64098573183959</v>
+      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="inlineStr"/>
+      <c r="M686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D687" t="n">
+        <v>0.1808219178082192</v>
+      </c>
+      <c r="E687" t="n">
+        <v>112783.8428668413</v>
+      </c>
+      <c r="F687" t="n">
+        <v>0.01406663141127824</v>
+      </c>
+      <c r="G687" t="n">
+        <v>0.200031413610335</v>
+      </c>
+      <c r="H687" t="n">
+        <v>-1.571029709057667</v>
+      </c>
+      <c r="I687" t="n">
+        <v>13.35867396994571</v>
+      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="inlineStr"/>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D688" t="n">
+        <v>0.2575342465753425</v>
+      </c>
+      <c r="E688" t="n">
+        <v>113544.2320903444</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.009501555554163809</v>
+      </c>
+      <c r="G688" t="n">
+        <v>0.1963369754297338</v>
+      </c>
+      <c r="H688" t="n">
+        <v>-0.5497117427997255</v>
+      </c>
+      <c r="I688" t="n">
+        <v>5.763739297731605</v>
+      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="inlineStr"/>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D689" t="n">
+        <v>0.3342465753424658</v>
+      </c>
+      <c r="E689" t="n">
+        <v>114128.4561815995</v>
+      </c>
+      <c r="F689" t="n">
+        <v>-0.002009433864911065</v>
+      </c>
+      <c r="G689" t="n">
+        <v>0.2316522648276584</v>
+      </c>
+      <c r="H689" t="n">
+        <v>-1.188616477990314</v>
+      </c>
+      <c r="I689" t="n">
+        <v>9.188257202501955</v>
+      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="inlineStr"/>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D690" t="n">
+        <v>0.4301369863013699</v>
+      </c>
+      <c r="E690" t="n">
+        <v>115555.1993653383</v>
+      </c>
+      <c r="F690" t="n">
+        <v>-0.00452396854342516</v>
+      </c>
+      <c r="G690" t="n">
+        <v>0.2431888563687406</v>
+      </c>
+      <c r="H690" t="n">
+        <v>-0.9715002129433412</v>
+      </c>
+      <c r="I690" t="n">
+        <v>6.260003647577064</v>
+      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="inlineStr"/>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D691" t="n">
+        <v>0.7561643835616438</v>
+      </c>
+      <c r="E691" t="n">
+        <v>115839.7918304358</v>
+      </c>
+      <c r="F691" t="n">
+        <v>-0.02836401818799655</v>
+      </c>
+      <c r="G691" t="n">
+        <v>0.2170316153108648</v>
+      </c>
+      <c r="H691" t="n">
+        <v>-1.256671993640616</v>
+      </c>
+      <c r="I691" t="n">
+        <v>8.955430861183173</v>
+      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="inlineStr"/>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D692" t="n">
+        <v>0.8328767123287671</v>
+      </c>
+      <c r="E692" t="n">
+        <v>117480.3042059308</v>
+      </c>
+      <c r="F692" t="n">
+        <v>-0.05223271191788823</v>
+      </c>
+      <c r="G692" t="n">
+        <v>0.306985175442943</v>
+      </c>
+      <c r="H692" t="n">
+        <v>-1.360161334627068</v>
+      </c>
+      <c r="I692" t="n">
+        <v>8.800544022637427</v>
+      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="inlineStr"/>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D693" t="n">
+        <v>1.082191780821918</v>
+      </c>
+      <c r="E693" t="n">
+        <v>119391.2879876443</v>
+      </c>
+      <c r="F693" t="n">
+        <v>-0.08525795827974637</v>
+      </c>
+      <c r="G693" t="n">
+        <v>0.3904586768098961</v>
+      </c>
+      <c r="H693" t="n">
+        <v>-1.537149726118259</v>
+      </c>
+      <c r="I693" t="n">
+        <v>7.400296780535466</v>
+      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="inlineStr"/>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D694" t="n">
+        <v>1.328767123287671</v>
+      </c>
+      <c r="E694" t="n">
+        <v>120567.0894050809</v>
+      </c>
+      <c r="F694" t="n">
+        <v>-0.1794503493201615</v>
+      </c>
+      <c r="G694" t="n">
+        <v>0.7639294431476253</v>
+      </c>
+      <c r="H694" t="n">
+        <v>-2.504081666874271</v>
+      </c>
+      <c r="I694" t="n">
+        <v>11.81773839187345</v>
+      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="inlineStr"/>
+      <c r="M694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D695" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E695" t="n">
+        <v>111907.5714895126</v>
+      </c>
+      <c r="F695" t="n">
+        <v>0.1067096949217893</v>
+      </c>
+      <c r="G695" t="n">
+        <v>0.1465595832198875</v>
+      </c>
+      <c r="H695" t="n">
+        <v>-0.9209669724883924</v>
+      </c>
+      <c r="I695" t="n">
+        <v>11.44289653053768</v>
+      </c>
+      <c r="J695" t="n">
+        <v>-0.0556971434199316</v>
+      </c>
+      <c r="K695" t="n">
+        <v>0.0993146148214878</v>
+      </c>
+      <c r="L695" t="n">
+        <v>0.7425634165264534</v>
+      </c>
+      <c r="M695" t="n">
+        <v>1.709080162100428</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D696" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E696" t="n">
+        <v>111909.9524111644</v>
+      </c>
+      <c r="F696" t="n">
+        <v>0.09714240637320429</v>
+      </c>
+      <c r="G696" t="n">
+        <v>0.1517671253217568</v>
+      </c>
+      <c r="H696" t="n">
+        <v>-0.8780286051174638</v>
+      </c>
+      <c r="I696" t="n">
+        <v>10.19979414013982</v>
+      </c>
+      <c r="J696" t="n">
+        <v>-0.02086235332359928</v>
+      </c>
+      <c r="K696" t="n">
+        <v>0.0924075883104656</v>
+      </c>
+      <c r="L696" t="n">
+        <v>0.4376116073850516</v>
+      </c>
+      <c r="M696" t="n">
+        <v>1.471697722182734</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D697" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E697" t="n">
+        <v>111248.1671572617</v>
+      </c>
+      <c r="F697" t="n">
+        <v>0.1671541551377489</v>
+      </c>
+      <c r="G697" t="n">
+        <v>0.1685522446006366</v>
+      </c>
+      <c r="H697" t="n">
+        <v>-0.05463515621300482</v>
+      </c>
+      <c r="I697" t="n">
+        <v>3.627923172289419</v>
+      </c>
+      <c r="J697" t="n">
+        <v>0.2958557425677688</v>
+      </c>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="inlineStr"/>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D698" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E698" t="n">
+        <v>111892.6937748841</v>
+      </c>
+      <c r="F698" t="n">
+        <v>0.08683504515274175</v>
+      </c>
+      <c r="G698" t="n">
+        <v>0.1795123770277886</v>
+      </c>
+      <c r="H698" t="n">
+        <v>-2.428609556527672</v>
+      </c>
+      <c r="I698" t="n">
+        <v>26.98893262483021</v>
+      </c>
+      <c r="J698" t="n">
+        <v>0.01593564374330777</v>
+      </c>
+      <c r="K698" t="n">
+        <v>0.0903352878886101</v>
+      </c>
+      <c r="L698" t="n">
+        <v>0.1444833864634824</v>
+      </c>
+      <c r="M698" t="n">
+        <v>1.301615397683934</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D699" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E699" t="n">
+        <v>111296.0992585944</v>
+      </c>
+      <c r="F699" t="n">
+        <v>0.1218509177177803</v>
+      </c>
+      <c r="G699" t="n">
+        <v>0.1416678471456344</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0.05023678406214175</v>
+      </c>
+      <c r="I699" t="n">
+        <v>4.314790715858938</v>
+      </c>
+      <c r="J699" t="n">
+        <v>0.3814112308072259</v>
+      </c>
+      <c r="K699" t="n">
+        <v>0.007319741567891893</v>
+      </c>
+      <c r="L699" t="n">
+        <v>9.522025508917064e-16</v>
+      </c>
+      <c r="M699" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D700" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E700" t="n">
+        <v>111787.882613011</v>
+      </c>
+      <c r="F700" t="n">
+        <v>0.06941160405941353</v>
+      </c>
+      <c r="G700" t="n">
+        <v>0.168033663957216</v>
+      </c>
+      <c r="H700" t="n">
+        <v>-1.008785439371934</v>
+      </c>
+      <c r="I700" t="n">
+        <v>6.020119731238867</v>
+      </c>
+      <c r="J700" t="n">
+        <v>0.02870971626735871</v>
+      </c>
+      <c r="K700" t="n">
+        <v>0.0757042164837053</v>
+      </c>
+      <c r="L700" t="n">
+        <v>0.03939003074080801</v>
+      </c>
+      <c r="M700" t="n">
+        <v>1.481653463479068</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D701" t="n">
+        <v>0.04657534246575343</v>
+      </c>
+      <c r="E701" t="n">
+        <v>111979.8830056149</v>
+      </c>
+      <c r="F701" t="n">
+        <v>0.05367577773774055</v>
+      </c>
+      <c r="G701" t="n">
+        <v>0.1691688334582187</v>
+      </c>
+      <c r="H701" t="n">
+        <v>-0.7755212947061388</v>
+      </c>
+      <c r="I701" t="n">
+        <v>7.471548015969184</v>
+      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="inlineStr"/>
+      <c r="M701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D702" t="n">
+        <v>0.06575342465753424</v>
+      </c>
+      <c r="E702" t="n">
+        <v>111948.0409164738</v>
+      </c>
+      <c r="F702" t="n">
+        <v>0.0336725104089835</v>
+      </c>
+      <c r="G702" t="n">
+        <v>0.2013150424994688</v>
+      </c>
+      <c r="H702" t="n">
+        <v>-1.441729504838185</v>
+      </c>
+      <c r="I702" t="n">
+        <v>12.89273168848495</v>
+      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="inlineStr"/>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D703" t="n">
+        <v>0.1041095890410959</v>
+      </c>
+      <c r="E703" t="n">
+        <v>112802.9261557879</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0.03888517931982245</v>
+      </c>
+      <c r="G703" t="n">
+        <v>0.2023602426692086</v>
+      </c>
+      <c r="H703" t="n">
+        <v>-1.503501497810408</v>
+      </c>
+      <c r="I703" t="n">
+        <v>11.74595232748234</v>
+      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="inlineStr"/>
+      <c r="M703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D704" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E704" t="n">
+        <v>112209.8897855526</v>
+      </c>
+      <c r="F704" t="n">
+        <v>0.02419683234163699</v>
+      </c>
+      <c r="G704" t="n">
+        <v>0.1398902930118788</v>
+      </c>
+      <c r="H704" t="n">
+        <v>-1.34546784392988</v>
+      </c>
+      <c r="I704" t="n">
+        <v>13.16342454527256</v>
+      </c>
+      <c r="J704" t="n">
+        <v>-0.2014355560888418</v>
+      </c>
+      <c r="K704" t="n">
+        <v>0.1387909189282587</v>
+      </c>
+      <c r="L704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M704" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D705" t="n">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="E705" t="n">
+        <v>112922.7816761344</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0.006606915382642457</v>
+      </c>
+      <c r="G705" t="n">
+        <v>0.1664384007477258</v>
+      </c>
+      <c r="H705" t="n">
+        <v>-1.070600891503675</v>
+      </c>
+      <c r="I705" t="n">
+        <v>9.901797784389265</v>
+      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="inlineStr"/>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D706" t="n">
+        <v>0.1780821917808219</v>
+      </c>
+      <c r="E706" t="n">
+        <v>113828.1899836367</v>
+      </c>
+      <c r="F706" t="n">
+        <v>0.003605793770952722</v>
+      </c>
+      <c r="G706" t="n">
+        <v>0.1760199323829811</v>
+      </c>
+      <c r="H706" t="n">
+        <v>-1.003770714227315</v>
+      </c>
+      <c r="I706" t="n">
+        <v>8.575989125085236</v>
+      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="inlineStr"/>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D707" t="n">
+        <v>0.2547945205479452</v>
+      </c>
+      <c r="E707" t="n">
+        <v>114408.1070516641</v>
+      </c>
+      <c r="F707" t="n">
+        <v>-0.006458231439976896</v>
+      </c>
+      <c r="G707" t="n">
+        <v>0.2084500318310774</v>
+      </c>
+      <c r="H707" t="n">
+        <v>-1.31914161467562</v>
+      </c>
+      <c r="I707" t="n">
+        <v>12.03921567859765</v>
+      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="inlineStr"/>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D708" t="n">
+        <v>0.3315068493150685</v>
+      </c>
+      <c r="E708" t="n">
+        <v>115059.8728769677</v>
+      </c>
+      <c r="F708" t="n">
+        <v>-0.01282133238933707</v>
+      </c>
+      <c r="G708" t="n">
+        <v>0.2276088108546259</v>
+      </c>
+      <c r="H708" t="n">
+        <v>-1.302358058081148</v>
+      </c>
+      <c r="I708" t="n">
+        <v>10.09397818392809</v>
+      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="inlineStr"/>
+      <c r="M708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D709" t="n">
+        <v>0.4273972602739726</v>
+      </c>
+      <c r="E709" t="n">
+        <v>116417.0564499931</v>
+      </c>
+      <c r="F709" t="n">
+        <v>-0.03770268929034228</v>
+      </c>
+      <c r="G709" t="n">
+        <v>0.3491551858607657</v>
+      </c>
+      <c r="H709" t="n">
+        <v>-2.165470124840212</v>
+      </c>
+      <c r="I709" t="n">
+        <v>10.72031888069482</v>
+      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="inlineStr"/>
+      <c r="M709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>0.7534246575342466</v>
+      </c>
+      <c r="E710" t="n">
+        <v>116911.8798750939</v>
+      </c>
+      <c r="F710" t="n">
+        <v>-0.03360305580084789</v>
+      </c>
+      <c r="G710" t="n">
+        <v>0.2165894248504125</v>
+      </c>
+      <c r="H710" t="n">
+        <v>-1.502239160475151</v>
+      </c>
+      <c r="I710" t="n">
+        <v>11.32703387916483</v>
+      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="inlineStr"/>
+      <c r="M710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D711" t="n">
+        <v>0.8301369863013699</v>
+      </c>
+      <c r="E711" t="n">
+        <v>118628.4928570727</v>
+      </c>
+      <c r="F711" t="n">
+        <v>-0.05710638219281537</v>
+      </c>
+      <c r="G711" t="n">
+        <v>0.3103332935826162</v>
+      </c>
+      <c r="H711" t="n">
+        <v>-1.521172405958658</v>
+      </c>
+      <c r="I711" t="n">
+        <v>9.710464337227453</v>
+      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="inlineStr"/>
+      <c r="M711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D712" t="n">
+        <v>1.079452054794521</v>
+      </c>
+      <c r="E712" t="n">
+        <v>119969.5907372423</v>
+      </c>
+      <c r="F712" t="n">
+        <v>-0.104386497714663</v>
+      </c>
+      <c r="G712" t="n">
+        <v>0.4316544714679293</v>
+      </c>
+      <c r="H712" t="n">
+        <v>-1.776634268662178</v>
+      </c>
+      <c r="I712" t="n">
+        <v>8.612391630615278</v>
+      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="inlineStr"/>
+      <c r="M712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D713" t="n">
+        <v>1.326027397260274</v>
+      </c>
+      <c r="E713" t="n">
+        <v>121666.8198876244</v>
+      </c>
+      <c r="F713" t="n">
+        <v>-0.1746040079869821</v>
+      </c>
+      <c r="G713" t="n">
+        <v>0.693095135589343</v>
+      </c>
+      <c r="H713" t="n">
+        <v>-2.227453283410747</v>
+      </c>
+      <c r="I713" t="n">
+        <v>9.570999282311039</v>
+      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="inlineStr"/>
+      <c r="M713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D714" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E714" t="n">
+        <v>112879.0565040594</v>
+      </c>
+      <c r="F714" t="n">
+        <v>0.06089058156496619</v>
+      </c>
+      <c r="G714" t="n">
+        <v>0.135884683650943</v>
+      </c>
+      <c r="H714" t="n">
+        <v>-0.7071004175848528</v>
+      </c>
+      <c r="I714" t="n">
+        <v>6.871473981369775</v>
+      </c>
+      <c r="J714" t="n">
+        <v>-0.4218634631852402</v>
+      </c>
+      <c r="K714" t="n">
+        <v>0.08951607419067811</v>
+      </c>
+      <c r="L714" t="n">
+        <v>1.434846886172737</v>
+      </c>
+      <c r="M714" t="n">
+        <v>3.157583547837752</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D715" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E715" t="n">
+        <v>112879.4334756409</v>
+      </c>
+      <c r="F715" t="n">
+        <v>0.05427649411861859</v>
+      </c>
+      <c r="G715" t="n">
+        <v>0.1342096403694262</v>
+      </c>
+      <c r="H715" t="n">
+        <v>-0.7604282867820995</v>
+      </c>
+      <c r="I715" t="n">
+        <v>6.297035634606442</v>
+      </c>
+      <c r="J715" t="n">
+        <v>-0.369504445206596</v>
+      </c>
+      <c r="K715" t="n">
+        <v>0.08830406231067171</v>
+      </c>
+      <c r="L715" t="n">
+        <v>0.8832702881027147</v>
+      </c>
+      <c r="M715" t="n">
+        <v>2.102476145195948</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D716" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E716" t="n">
+        <v>112902.659064183</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0.05030264586384061</v>
+      </c>
+      <c r="G716" t="n">
+        <v>0.1356377495223306</v>
+      </c>
+      <c r="H716" t="n">
+        <v>-0.6858746833721515</v>
+      </c>
+      <c r="I716" t="n">
+        <v>6.250311476242626</v>
+      </c>
+      <c r="J716" t="n">
+        <v>-0.3199086843708128</v>
+      </c>
+      <c r="K716" t="n">
+        <v>0.09044763322357126</v>
+      </c>
+      <c r="L716" t="n">
+        <v>0.4508738815521183</v>
+      </c>
+      <c r="M716" t="n">
+        <v>1.51006629261065</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D717" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E717" t="n">
+        <v>112219.7458896793</v>
+      </c>
+      <c r="F717" t="n">
+        <v>0.03712370242729639</v>
+      </c>
+      <c r="G717" t="n">
+        <v>0.1852257565266957</v>
+      </c>
+      <c r="H717" t="n">
+        <v>-0.09598937044486378</v>
+      </c>
+      <c r="I717" t="n">
+        <v>3.432343950159321</v>
+      </c>
+      <c r="J717" t="n">
+        <v>0.1711109764789151</v>
+      </c>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="inlineStr"/>
+      <c r="M717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D718" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E718" t="n">
+        <v>112864.7050902046</v>
+      </c>
+      <c r="F718" t="n">
+        <v>0.04237518725297609</v>
+      </c>
+      <c r="G718" t="n">
+        <v>0.1538322231873178</v>
+      </c>
+      <c r="H718" t="n">
+        <v>-1.634519616377639</v>
+      </c>
+      <c r="I718" t="n">
+        <v>16.57483485029492</v>
+      </c>
+      <c r="J718" t="n">
+        <v>-0.321672285790476</v>
+      </c>
+      <c r="K718" t="n">
+        <v>0.07916345110039691</v>
+      </c>
+      <c r="L718" t="n">
+        <v>0.5005945005331236</v>
+      </c>
+      <c r="M718" t="n">
+        <v>1.737157124074886</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D719" t="n">
+        <v>0.02465753424657534</v>
+      </c>
+      <c r="E719" t="n">
+        <v>112837.8732182029</v>
+      </c>
+      <c r="F719" t="n">
+        <v>0.03729464076664775</v>
+      </c>
+      <c r="G719" t="n">
+        <v>0.1461204903533462</v>
+      </c>
+      <c r="H719" t="n">
+        <v>-0.9322963041670089</v>
+      </c>
+      <c r="I719" t="n">
+        <v>6.685717697565914</v>
+      </c>
+      <c r="J719" t="n">
+        <v>-0.2968289181115666</v>
+      </c>
+      <c r="K719" t="n">
+        <v>0.07530505543027752</v>
+      </c>
+      <c r="L719" t="n">
+        <v>0.2673709383359824</v>
+      </c>
+      <c r="M719" t="n">
+        <v>1.609331871613779</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D720" t="n">
+        <v>0.04383561643835616</v>
+      </c>
+      <c r="E720" t="n">
+        <v>112919.6306772728</v>
+      </c>
+      <c r="F720" t="n">
+        <v>0.02338834100089797</v>
+      </c>
+      <c r="G720" t="n">
+        <v>0.1634828688678228</v>
+      </c>
+      <c r="H720" t="n">
+        <v>-1.125308743669577</v>
+      </c>
+      <c r="I720" t="n">
+        <v>10.12607725425915</v>
+      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="inlineStr"/>
+      <c r="M720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D721" t="n">
+        <v>0.06301369863013699</v>
+      </c>
+      <c r="E721" t="n">
+        <v>112928.1453893052</v>
+      </c>
+      <c r="F721" t="n">
+        <v>0.01192998949169786</v>
+      </c>
+      <c r="G721" t="n">
+        <v>0.1733306418206925</v>
+      </c>
+      <c r="H721" t="n">
+        <v>-0.9828287828724189</v>
+      </c>
+      <c r="I721" t="n">
+        <v>8.800785722436487</v>
+      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="inlineStr"/>
+      <c r="M721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D722" t="n">
+        <v>0.1013698630136986</v>
+      </c>
+      <c r="E722" t="n">
+        <v>113675.275568225</v>
+      </c>
+      <c r="F722" t="n">
+        <v>0.004199709365535821</v>
+      </c>
+      <c r="G722" t="n">
+        <v>0.3945498591383086</v>
+      </c>
+      <c r="H722" t="n">
+        <v>-10.09460885685228</v>
+      </c>
+      <c r="I722" t="n">
+        <v>189.3315329063933</v>
+      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="inlineStr"/>
+      <c r="M722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="D723" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E723" t="n">
+        <v>112025.4940574876</v>
+      </c>
+      <c r="F723" t="n">
+        <v>-0.1642225755330459</v>
+      </c>
+      <c r="G723" t="n">
+        <v>0.1232261959415141</v>
+      </c>
+      <c r="H723" t="n">
+        <v>-0.7273990134877489</v>
+      </c>
+      <c r="I723" t="n">
+        <v>8.854451229585552</v>
+      </c>
+      <c r="J723" t="n">
+        <v>-0.7450930651355149</v>
+      </c>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="inlineStr"/>
+      <c r="M723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>0.07945205479452055</v>
+      </c>
+      <c r="E724" t="n">
+        <v>112733.4537298254</v>
+      </c>
+      <c r="F724" t="n">
+        <v>-0.0304747836408862</v>
+      </c>
+      <c r="G724" t="n">
+        <v>0.1689986471120331</v>
+      </c>
+      <c r="H724" t="n">
+        <v>-1.184135874219436</v>
+      </c>
+      <c r="I724" t="n">
+        <v>10.41746039853734</v>
+      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="inlineStr"/>
+      <c r="M724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D725" t="n">
+        <v>0.1753424657534247</v>
+      </c>
+      <c r="E725" t="n">
+        <v>113657.8866348983</v>
+      </c>
+      <c r="F725" t="n">
+        <v>-0.02045178009180459</v>
+      </c>
+      <c r="G725" t="n">
+        <v>0.1739866699485718</v>
+      </c>
+      <c r="H725" t="n">
+        <v>-0.9769200819648814</v>
+      </c>
+      <c r="I725" t="n">
+        <v>8.733217702984591</v>
+      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="inlineStr"/>
+      <c r="M725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D726" t="n">
+        <v>0.252054794520548</v>
+      </c>
+      <c r="E726" t="n">
+        <v>114467.0258487835</v>
+      </c>
+      <c r="F726" t="n">
+        <v>-0.01911134750445007</v>
+      </c>
+      <c r="G726" t="n">
+        <v>0.1873735223293809</v>
+      </c>
+      <c r="H726" t="n">
+        <v>-0.96357384682768</v>
+      </c>
+      <c r="I726" t="n">
+        <v>9.715756585447012</v>
+      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="inlineStr"/>
+      <c r="M726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D727" t="n">
+        <v>0.3287671232876712</v>
+      </c>
+      <c r="E727" t="n">
+        <v>114909.9205220632</v>
+      </c>
+      <c r="F727" t="n">
+        <v>-0.03005513317970991</v>
+      </c>
+      <c r="G727" t="n">
+        <v>0.2287419059978835</v>
+      </c>
+      <c r="H727" t="n">
+        <v>-1.435859888300817</v>
+      </c>
+      <c r="I727" t="n">
+        <v>11.03242091045616</v>
+      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="inlineStr"/>
+      <c r="M727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D728" t="n">
+        <v>0.4246575342465753</v>
+      </c>
+      <c r="E728" t="n">
+        <v>116226.1289452434</v>
+      </c>
+      <c r="F728" t="n">
+        <v>-0.05240338412216063</v>
+      </c>
+      <c r="G728" t="n">
+        <v>0.3448333609654035</v>
+      </c>
+      <c r="H728" t="n">
+        <v>-2.178607266455264</v>
+      </c>
+      <c r="I728" t="n">
+        <v>10.88551713333607</v>
+      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="inlineStr"/>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D729" t="n">
+        <v>0.7506849315068493</v>
+      </c>
+      <c r="E729" t="n">
+        <v>116650.8365771396</v>
+      </c>
+      <c r="F729" t="n">
+        <v>-0.04444121295029863</v>
+      </c>
+      <c r="G729" t="n">
+        <v>0.2043781248470398</v>
+      </c>
+      <c r="H729" t="n">
+        <v>-1.058005692006027</v>
+      </c>
+      <c r="I729" t="n">
+        <v>7.349494523200217</v>
+      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="inlineStr"/>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D730" t="n">
+        <v>0.8273972602739726</v>
+      </c>
+      <c r="E730" t="n">
+        <v>118184.5733020216</v>
+      </c>
+      <c r="F730" t="n">
+        <v>-0.07275969158487282</v>
+      </c>
+      <c r="G730" t="n">
+        <v>0.3273976440802001</v>
+      </c>
+      <c r="H730" t="n">
+        <v>-1.906551059547126</v>
+      </c>
+      <c r="I730" t="n">
+        <v>12.98182714637563</v>
+      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="inlineStr"/>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D731" t="n">
+        <v>1.076712328767123</v>
+      </c>
+      <c r="E731" t="n">
+        <v>119554.3124945877</v>
+      </c>
+      <c r="F731" t="n">
+        <v>-0.1179107498468363</v>
+      </c>
+      <c r="G731" t="n">
+        <v>0.4442470354150992</v>
+      </c>
+      <c r="H731" t="n">
+        <v>-1.923407690911055</v>
+      </c>
+      <c r="I731" t="n">
+        <v>9.861442704393101</v>
+      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="inlineStr"/>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D732" t="n">
+        <v>1.323287671232877</v>
+      </c>
+      <c r="E732" t="n">
+        <v>121388.8751623646</v>
+      </c>
+      <c r="F732" t="n">
+        <v>-0.1902034215353012</v>
+      </c>
+      <c r="G732" t="n">
+        <v>0.7398575731142245</v>
+      </c>
+      <c r="H732" t="n">
+        <v>-2.446074379726724</v>
+      </c>
+      <c r="I732" t="n">
+        <v>11.3334090538318</v>
+      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="inlineStr"/>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D733" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E733" t="n">
+        <v>112740.2038395803</v>
+      </c>
+      <c r="F733" t="n">
+        <v>-0.02612106810239867</v>
+      </c>
+      <c r="G733" t="n">
+        <v>0.1104057747941172</v>
+      </c>
+      <c r="H733" t="n">
+        <v>-0.4158687279994435</v>
+      </c>
+      <c r="I733" t="n">
+        <v>5.931655073979619</v>
+      </c>
+      <c r="J733" t="n">
+        <v>-0.7412180495801943</v>
+      </c>
+      <c r="K733" t="n">
+        <v>0.002014253333654196</v>
+      </c>
+      <c r="L733" t="n">
+        <v>0.7127654457239366</v>
+      </c>
+      <c r="M733" t="n">
+        <v>2.067200464585717</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D734" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E734" t="n">
+        <v>112738.3740031733</v>
+      </c>
+      <c r="F734" t="n">
+        <v>-0.02518798417855083</v>
+      </c>
+      <c r="G734" t="n">
+        <v>0.1172883856805525</v>
+      </c>
+      <c r="H734" t="n">
+        <v>-0.6456590364388347</v>
+      </c>
+      <c r="I734" t="n">
+        <v>7.508194373201083</v>
+      </c>
+      <c r="J734" t="n">
+        <v>-0.6487385060226138</v>
+      </c>
+      <c r="K734" t="n">
+        <v>0.03582126657339705</v>
+      </c>
+      <c r="L734" t="n">
+        <v>1.341593359313167</v>
+      </c>
+      <c r="M734" t="n">
+        <v>3.018987254263033</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D735" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E735" t="n">
+        <v>112746.1676439886</v>
+      </c>
+      <c r="F735" t="n">
+        <v>-0.02407362502767285</v>
+      </c>
+      <c r="G735" t="n">
+        <v>0.1229529551497197</v>
+      </c>
+      <c r="H735" t="n">
+        <v>-0.6650797647239777</v>
+      </c>
+      <c r="I735" t="n">
+        <v>6.844446909317891</v>
+      </c>
+      <c r="J735" t="n">
+        <v>-0.5728562709913495</v>
+      </c>
+      <c r="K735" t="n">
+        <v>0.05864162344453108</v>
+      </c>
+      <c r="L735" t="n">
+        <v>0.6705990877792333</v>
+      </c>
+      <c r="M735" t="n">
+        <v>1.581998264970821</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D736" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E736" t="n">
+        <v>112770.9328114415</v>
+      </c>
+      <c r="F736" t="n">
+        <v>-0.02241598953907419</v>
+      </c>
+      <c r="G736" t="n">
+        <v>0.1301063929882369</v>
+      </c>
+      <c r="H736" t="n">
+        <v>-0.54752031236133</v>
+      </c>
+      <c r="I736" t="n">
+        <v>6.883644024329691</v>
+      </c>
+      <c r="J736" t="n">
+        <v>-0.5631808711650189</v>
+      </c>
+      <c r="K736" t="n">
+        <v>0.05082592883753707</v>
+      </c>
+      <c r="L736" t="n">
+        <v>0.5874002366778974</v>
+      </c>
+      <c r="M736" t="n">
+        <v>1.694368995274842</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D737" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E737" t="n">
+        <v>112722.7459962485</v>
+      </c>
+      <c r="F737" t="n">
+        <v>-0.02610041932245593</v>
+      </c>
+      <c r="G737" t="n">
+        <v>0.1444516575578276</v>
+      </c>
+      <c r="H737" t="n">
+        <v>-0.9688548075639848</v>
+      </c>
+      <c r="I737" t="n">
+        <v>7.774049942116793</v>
+      </c>
+      <c r="J737" t="n">
+        <v>-0.5264323814142926</v>
+      </c>
+      <c r="K737" t="n">
+        <v>0.05392584822555958</v>
+      </c>
+      <c r="L737" t="n">
+        <v>0.2452210325066943</v>
+      </c>
+      <c r="M737" t="n">
+        <v>1.332008821881291</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D738" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="E738" t="n">
+        <v>112764.0829818216</v>
+      </c>
+      <c r="F738" t="n">
+        <v>-0.02485737804116128</v>
+      </c>
+      <c r="G738" t="n">
+        <v>0.1522265778634437</v>
+      </c>
+      <c r="H738" t="n">
+        <v>-0.6309421112351417</v>
+      </c>
+      <c r="I738" t="n">
+        <v>6.7565544071346</v>
+      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="inlineStr"/>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D739" t="n">
+        <v>0.06027397260273973</v>
+      </c>
+      <c r="E739" t="n">
+        <v>112797.4569518125</v>
+      </c>
+      <c r="F739" t="n">
+        <v>-0.0273207071406505</v>
+      </c>
+      <c r="G739" t="n">
+        <v>0.1659304154922008</v>
+      </c>
+      <c r="H739" t="n">
+        <v>-0.7375678467532131</v>
+      </c>
+      <c r="I739" t="n">
+        <v>6.938219455054146</v>
+      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="inlineStr"/>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D740" t="n">
+        <v>0.09863013698630137</v>
+      </c>
+      <c r="E740" t="n">
+        <v>113637.2041272713</v>
+      </c>
+      <c r="F740" t="n">
+        <v>-0.01436926322070702</v>
+      </c>
+      <c r="G740" t="n">
+        <v>0.2303490449026511</v>
+      </c>
+      <c r="H740" t="n">
+        <v>-3.853223700564232</v>
+      </c>
+      <c r="I740" t="n">
+        <v>41.96604126698929</v>
+      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="inlineStr"/>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D741" t="n">
+        <v>0.07671232876712329</v>
+      </c>
+      <c r="E741" t="n">
+        <v>108781.3634549945</v>
+      </c>
+      <c r="F741" t="n">
+        <v>-0.02106149165456785</v>
+      </c>
+      <c r="G741" t="n">
+        <v>0.190807086239461</v>
+      </c>
+      <c r="H741" t="n">
+        <v>-1.264213080804867</v>
+      </c>
+      <c r="I741" t="n">
+        <v>9.877922028893025</v>
+      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="inlineStr"/>
+      <c r="M741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D742" t="n">
+        <v>0.1726027397260274</v>
+      </c>
+      <c r="E742" t="n">
+        <v>109615.7415662152</v>
+      </c>
+      <c r="F742" t="n">
+        <v>-0.01790502062347691</v>
+      </c>
+      <c r="G742" t="n">
+        <v>0.2030966225669442</v>
+      </c>
+      <c r="H742" t="n">
+        <v>-1.567176956023211</v>
+      </c>
+      <c r="I742" t="n">
+        <v>12.50129700330394</v>
+      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="inlineStr"/>
+      <c r="M742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D743" t="n">
+        <v>0.2493150684931507</v>
+      </c>
+      <c r="E743" t="n">
+        <v>110510.7246800761</v>
+      </c>
+      <c r="F743" t="n">
+        <v>-0.01231953280669159</v>
+      </c>
+      <c r="G743" t="n">
+        <v>0.1935220702747835</v>
+      </c>
+      <c r="H743" t="n">
+        <v>-1.049830571047935</v>
+      </c>
+      <c r="I743" t="n">
+        <v>9.987224396941615</v>
+      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="inlineStr"/>
+      <c r="M743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D744" t="n">
+        <v>0.326027397260274</v>
+      </c>
+      <c r="E744" t="n">
+        <v>110922.8865719969</v>
+      </c>
+      <c r="F744" t="n">
+        <v>-0.02466163238911094</v>
+      </c>
+      <c r="G744" t="n">
+        <v>0.2343600787706867</v>
+      </c>
+      <c r="H744" t="n">
+        <v>-1.419369765502933</v>
+      </c>
+      <c r="I744" t="n">
+        <v>10.74205306679753</v>
+      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="inlineStr"/>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D745" t="n">
+        <v>0.4219178082191781</v>
+      </c>
+      <c r="E745" t="n">
+        <v>112397.5855982749</v>
+      </c>
+      <c r="F745" t="n">
+        <v>-0.0203248875255969</v>
+      </c>
+      <c r="G745" t="n">
+        <v>0.2304568903926995</v>
+      </c>
+      <c r="H745" t="n">
+        <v>-0.8882388396738957</v>
+      </c>
+      <c r="I745" t="n">
+        <v>5.545365235030057</v>
+      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="inlineStr"/>
+      <c r="M745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D746" t="n">
+        <v>0.7479452054794521</v>
+      </c>
+      <c r="E746" t="n">
+        <v>112783.7019682874</v>
+      </c>
+      <c r="F746" t="n">
+        <v>-0.03689172997188812</v>
+      </c>
+      <c r="G746" t="n">
+        <v>0.1978080791034679</v>
+      </c>
+      <c r="H746" t="n">
+        <v>-0.8971891729351966</v>
+      </c>
+      <c r="I746" t="n">
+        <v>6.440014092212766</v>
+      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="inlineStr"/>
+      <c r="M746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D747" t="n">
+        <v>0.8246575342465754</v>
+      </c>
+      <c r="E747" t="n">
+        <v>114200.8396414854</v>
+      </c>
+      <c r="F747" t="n">
+        <v>-0.06928401405404368</v>
+      </c>
+      <c r="G747" t="n">
+        <v>0.3358829066037891</v>
+      </c>
+      <c r="H747" t="n">
+        <v>-2.004526371727725</v>
+      </c>
+      <c r="I747" t="n">
+        <v>13.94951107001333</v>
+      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="inlineStr"/>
+      <c r="M747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D748" t="n">
+        <v>1.073972602739726</v>
+      </c>
+      <c r="E748" t="n">
+        <v>115633.7241090824</v>
+      </c>
+      <c r="F748" t="n">
+        <v>-0.1160986392426217</v>
+      </c>
+      <c r="G748" t="n">
+        <v>0.4588872673657598</v>
+      </c>
+      <c r="H748" t="n">
+        <v>-1.925747945244274</v>
+      </c>
+      <c r="I748" t="n">
+        <v>9.621287257045458</v>
+      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="inlineStr"/>
+      <c r="M748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D749" t="n">
+        <v>1.320547945205479</v>
+      </c>
+      <c r="E749" t="n">
+        <v>117370.7830615943</v>
+      </c>
+      <c r="F749" t="n">
+        <v>-0.1849577439355757</v>
+      </c>
+      <c r="G749" t="n">
+        <v>0.713799551308636</v>
+      </c>
+      <c r="H749" t="n">
+        <v>-2.202694246624578</v>
+      </c>
+      <c r="I749" t="n">
+        <v>9.394898859315246</v>
+      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="inlineStr"/>
+      <c r="M749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D750" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E750" t="n">
+        <v>108762.8803156256</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0.004488592783626831</v>
+      </c>
+      <c r="G750" t="n">
+        <v>0.1261364050780774</v>
+      </c>
+      <c r="H750" t="n">
+        <v>-0.9455640000250372</v>
+      </c>
+      <c r="I750" t="n">
+        <v>5.792646453524616</v>
+      </c>
+      <c r="J750" t="n">
+        <v>0.005166687407093478</v>
+      </c>
+      <c r="K750" t="n">
+        <v>0.002678997446848205</v>
+      </c>
+      <c r="L750" t="n">
+        <v>0.5448388299240677</v>
+      </c>
+      <c r="M750" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D751" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E751" t="n">
+        <v>108870.6996546132</v>
+      </c>
+      <c r="F751" t="n">
+        <v>-0.002867287561693317</v>
+      </c>
+      <c r="G751" t="n">
+        <v>0.1696496827565817</v>
+      </c>
+      <c r="H751" t="n">
+        <v>-1.167399823051162</v>
+      </c>
+      <c r="I751" t="n">
+        <v>11.69664547001226</v>
+      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="inlineStr"/>
+      <c r="M751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D752" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E752" t="n">
+        <v>108743.0868910442</v>
+      </c>
+      <c r="F752" t="n">
+        <v>-0.0008007499514678983</v>
+      </c>
+      <c r="G752" t="n">
+        <v>0.1505632201930194</v>
+      </c>
+      <c r="H752" t="n">
+        <v>-1.153708689574328</v>
+      </c>
+      <c r="I752" t="n">
+        <v>7.441145082175749</v>
+      </c>
+      <c r="J752" t="n">
+        <v>0.1204431988911257</v>
+      </c>
+      <c r="K752" t="n">
+        <v>0.04187527038492081</v>
+      </c>
+      <c r="L752" t="n">
+        <v>0.9981225511300592</v>
+      </c>
+      <c r="M752" t="n">
+        <v>2.195854395639861</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D753" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E753" t="n">
+        <v>108741.5307269096</v>
+      </c>
+      <c r="F753" t="n">
+        <v>-0.003049579557660208</v>
+      </c>
+      <c r="G753" t="n">
+        <v>0.1581828074450289</v>
+      </c>
+      <c r="H753" t="n">
+        <v>-1.189459107935771</v>
+      </c>
+      <c r="I753" t="n">
+        <v>7.362591573517112</v>
+      </c>
+      <c r="J753" t="n">
+        <v>0.2066841529729983</v>
+      </c>
+      <c r="K753" t="n">
+        <v>0.06325022495174328</v>
+      </c>
+      <c r="L753" t="n">
+        <v>0.3691518886584595</v>
+      </c>
+      <c r="M753" t="n">
+        <v>1.27266792275657</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D754" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E754" t="n">
+        <v>108766.788916558</v>
+      </c>
+      <c r="F754" t="n">
+        <v>-0.004524451250283983</v>
+      </c>
+      <c r="G754" t="n">
+        <v>0.1873479286268211</v>
+      </c>
+      <c r="H754" t="n">
+        <v>-1.151029190981829</v>
+      </c>
+      <c r="I754" t="n">
+        <v>8.399944379716716</v>
+      </c>
+      <c r="J754" t="n">
+        <v>0.2122308929655787</v>
+      </c>
+      <c r="K754" t="n">
+        <v>0.05286235241584585</v>
+      </c>
+      <c r="L754" t="n">
+        <v>0.3307386390892133</v>
+      </c>
+      <c r="M754" t="n">
+        <v>1.482990703787508</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D755" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E755" t="n">
+        <v>108727.4035417235</v>
+      </c>
+      <c r="F755" t="n">
+        <v>-0.008563393902002014</v>
+      </c>
+      <c r="G755" t="n">
+        <v>0.1853515655849017</v>
+      </c>
+      <c r="H755" t="n">
+        <v>-1.409270989655532</v>
+      </c>
+      <c r="I755" t="n">
+        <v>10.95602636035802</v>
+      </c>
+      <c r="J755" t="n">
+        <v>0.2498979242528254</v>
+      </c>
+      <c r="K755" t="n">
+        <v>0.05382341926097727</v>
+      </c>
+      <c r="L755" t="n">
+        <v>-0.005712833026667687</v>
+      </c>
+      <c r="M755" t="n">
+        <v>1.309338724366762</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D756" t="n">
+        <v>0.03835616438356165</v>
+      </c>
+      <c r="E756" t="n">
+        <v>108723.9957759292</v>
+      </c>
+      <c r="F756" t="n">
+        <v>-0.01768420206931056</v>
+      </c>
+      <c r="G756" t="n">
+        <v>0.2240106197438504</v>
+      </c>
+      <c r="H756" t="n">
+        <v>-2.797133389053686</v>
+      </c>
+      <c r="I756" t="n">
+        <v>24.32112420090724</v>
+      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="inlineStr"/>
+      <c r="M756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D757" t="n">
+        <v>0.05753424657534247</v>
+      </c>
+      <c r="E757" t="n">
+        <v>108810.2633870761</v>
+      </c>
+      <c r="F757" t="n">
+        <v>-0.02002590500642199</v>
+      </c>
+      <c r="G757" t="n">
+        <v>0.2161788559010547</v>
+      </c>
+      <c r="H757" t="n">
+        <v>-2.003775498484837</v>
+      </c>
+      <c r="I757" t="n">
+        <v>17.96299439952379</v>
+      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
+      <c r="L757" t="inlineStr"/>
+      <c r="M757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D758" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="E758" t="n">
+        <v>109742.9109100211</v>
+      </c>
+      <c r="F758" t="n">
+        <v>0.0009352378779039195</v>
+      </c>
+      <c r="G758" t="n">
+        <v>0.2038270242861016</v>
+      </c>
+      <c r="H758" t="n">
+        <v>-1.513887484327447</v>
+      </c>
+      <c r="I758" t="n">
+        <v>11.85845164684422</v>
+      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
+      <c r="L758" t="inlineStr"/>
+      <c r="M758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D759" t="n">
+        <v>0.06575342465753424</v>
+      </c>
+      <c r="E759" t="n">
+        <v>111379.1300871618</v>
+      </c>
+      <c r="F759" t="n">
+        <v>-0.01949911135520265</v>
+      </c>
+      <c r="G759" t="n">
+        <v>0.1667877317714304</v>
+      </c>
+      <c r="H759" t="n">
+        <v>-0.6876815437055857</v>
+      </c>
+      <c r="I759" t="n">
+        <v>7.140504829698325</v>
+      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
+      <c r="L759" t="inlineStr"/>
+      <c r="M759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D760" t="n">
+        <v>0.1616438356164384</v>
+      </c>
+      <c r="E760" t="n">
+        <v>112258.1412992615</v>
+      </c>
+      <c r="F760" t="n">
+        <v>-0.01430725357848252</v>
+      </c>
+      <c r="G760" t="n">
+        <v>0.1807106952451308</v>
+      </c>
+      <c r="H760" t="n">
+        <v>-0.9704809293308488</v>
+      </c>
+      <c r="I760" t="n">
+        <v>8.492973349451711</v>
+      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
+      <c r="L760" t="inlineStr"/>
+      <c r="M760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D761" t="n">
+        <v>0.2383561643835616</v>
+      </c>
+      <c r="E761" t="n">
+        <v>113023.1625190263</v>
+      </c>
+      <c r="F761" t="n">
+        <v>-0.01568340646532186</v>
+      </c>
+      <c r="G761" t="n">
+        <v>0.1988130428803633</v>
+      </c>
+      <c r="H761" t="n">
+        <v>-1.024024156841118</v>
+      </c>
+      <c r="I761" t="n">
+        <v>9.612631562974096</v>
+      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="inlineStr"/>
+      <c r="M761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D762" t="n">
+        <v>0.3150684931506849</v>
+      </c>
+      <c r="E762" t="n">
+        <v>113572.7821611548</v>
+      </c>
+      <c r="F762" t="n">
+        <v>-0.02364971388389287</v>
+      </c>
+      <c r="G762" t="n">
+        <v>0.2280904105786195</v>
+      </c>
+      <c r="H762" t="n">
+        <v>-1.263958693419094</v>
+      </c>
+      <c r="I762" t="n">
+        <v>10.19408306547632</v>
+      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
+      <c r="L762" t="inlineStr"/>
+      <c r="M762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D763" t="n">
+        <v>0.410958904109589</v>
+      </c>
+      <c r="E763" t="n">
+        <v>114846.066095579</v>
+      </c>
+      <c r="F763" t="n">
+        <v>-0.01911308145765816</v>
+      </c>
+      <c r="G763" t="n">
+        <v>0.2162405929885567</v>
+      </c>
+      <c r="H763" t="n">
+        <v>-0.7384202592535212</v>
+      </c>
+      <c r="I763" t="n">
+        <v>5.79255115018622</v>
+      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
+      <c r="L763" t="inlineStr"/>
+      <c r="M763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D764" t="n">
+        <v>0.4876712328767123</v>
+      </c>
+      <c r="E764" t="n">
+        <v>114712.2899720394</v>
+      </c>
+      <c r="F764" t="n">
+        <v>-0.06247934041350461</v>
+      </c>
+      <c r="G764" t="n">
+        <v>0.3972110828237425</v>
+      </c>
+      <c r="H764" t="n">
+        <v>-3.106957819502613</v>
+      </c>
+      <c r="I764" t="n">
+        <v>22.67099208072165</v>
+      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
+      <c r="L764" t="inlineStr"/>
+      <c r="M764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D765" t="n">
+        <v>0.736986301369863</v>
+      </c>
+      <c r="E765" t="n">
+        <v>115303.6257735022</v>
+      </c>
+      <c r="F765" t="n">
+        <v>-0.04007572735261813</v>
+      </c>
+      <c r="G765" t="n">
+        <v>0.214717051516982</v>
+      </c>
+      <c r="H765" t="n">
+        <v>-1.555647431198241</v>
+      </c>
+      <c r="I765" t="n">
+        <v>10.88364694053477</v>
+      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
+      <c r="L765" t="inlineStr"/>
+      <c r="M765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D766" t="n">
+        <v>0.8136986301369863</v>
+      </c>
+      <c r="E766" t="n">
+        <v>116985.7767390816</v>
+      </c>
+      <c r="F766" t="n">
+        <v>-0.06198556868268281</v>
+      </c>
+      <c r="G766" t="n">
+        <v>0.2975611053083361</v>
+      </c>
+      <c r="H766" t="n">
+        <v>-1.414129146786107</v>
+      </c>
+      <c r="I766" t="n">
+        <v>9.370276450083585</v>
+      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
+      <c r="L766" t="inlineStr"/>
+      <c r="M766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D767" t="n">
+        <v>1.063013698630137</v>
+      </c>
+      <c r="E767" t="n">
+        <v>118249.8975923125</v>
+      </c>
+      <c r="F767" t="n">
+        <v>-0.1124320365492087</v>
+      </c>
+      <c r="G767" t="n">
+        <v>0.4367955750814665</v>
+      </c>
+      <c r="H767" t="n">
+        <v>-1.806995414436236</v>
+      </c>
+      <c r="I767" t="n">
+        <v>8.830287271443453</v>
+      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
+      <c r="L767" t="inlineStr"/>
+      <c r="M767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D768" t="n">
+        <v>1.30958904109589</v>
+      </c>
+      <c r="E768" t="n">
+        <v>120078.2748487159</v>
+      </c>
+      <c r="F768" t="n">
+        <v>-0.186250076938025</v>
+      </c>
+      <c r="G768" t="n">
+        <v>0.7420694826239956</v>
+      </c>
+      <c r="H768" t="n">
+        <v>-2.44328947778527</v>
+      </c>
+      <c r="I768" t="n">
+        <v>11.31343285283515</v>
+      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="inlineStr"/>
+      <c r="M768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D769" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E769" t="n">
+        <v>111367.205001813</v>
+      </c>
+      <c r="F769" t="n">
+        <v>-0.008128815036215107</v>
+      </c>
+      <c r="G769" t="n">
+        <v>0.1517998287711808</v>
+      </c>
+      <c r="H769" t="n">
+        <v>-0.9341854021774312</v>
+      </c>
+      <c r="I769" t="n">
+        <v>6.521624677964191</v>
+      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
+      <c r="L769" t="inlineStr"/>
+      <c r="M769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D770" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E770" t="n">
+        <v>111376.1795045543</v>
+      </c>
+      <c r="F770" t="n">
+        <v>-0.009370758315240179</v>
+      </c>
+      <c r="G770" t="n">
+        <v>0.1650235338474601</v>
+      </c>
+      <c r="H770" t="n">
+        <v>-1.184456704561325</v>
+      </c>
+      <c r="I770" t="n">
+        <v>9.981517865116112</v>
+      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
+      <c r="L770" t="inlineStr"/>
+      <c r="M770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D771" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E771" t="n">
+        <v>111384.4354703865</v>
+      </c>
+      <c r="F771" t="n">
+        <v>0.002508011848921134</v>
+      </c>
+      <c r="G771" t="n">
+        <v>0.1670792432126986</v>
+      </c>
+      <c r="H771" t="n">
+        <v>-0.2601419784588722</v>
+      </c>
+      <c r="I771" t="n">
+        <v>3.305395723485871</v>
+      </c>
+      <c r="J771" t="n">
+        <v>0.08537523595726196</v>
+      </c>
+      <c r="K771" t="inlineStr"/>
+      <c r="L771" t="inlineStr"/>
+      <c r="M771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D772" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E772" t="n">
+        <v>111377.1987897739</v>
+      </c>
+      <c r="F772" t="n">
+        <v>-0.01077263151500723</v>
+      </c>
+      <c r="G772" t="n">
+        <v>0.1721581923332408</v>
+      </c>
+      <c r="H772" t="n">
+        <v>-0.7864848107954778</v>
+      </c>
+      <c r="I772" t="n">
+        <v>6.437865236174289</v>
+      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
+      <c r="L772" t="inlineStr"/>
+      <c r="M772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D773" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E773" t="n">
+        <v>111402.2140313774</v>
+      </c>
+      <c r="F773" t="n">
+        <v>0.001781862946980729</v>
+      </c>
+      <c r="G773" t="n">
+        <v>0.1407959078757291</v>
+      </c>
+      <c r="H773" t="n">
+        <v>-0.3588833309758238</v>
+      </c>
+      <c r="I773" t="n">
+        <v>3.341684239772248</v>
+      </c>
+      <c r="J773" t="n">
+        <v>-0.07046645222874116</v>
+      </c>
+      <c r="K773" t="n">
+        <v>0.02428663177666343</v>
+      </c>
+      <c r="L773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M773" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D774" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E774" t="n">
+        <v>111326.066269682</v>
+      </c>
+      <c r="F774" t="n">
+        <v>-0.01041949757504418</v>
+      </c>
+      <c r="G774" t="n">
+        <v>0.1910733424769783</v>
+      </c>
+      <c r="H774" t="n">
+        <v>-1.995143935885795</v>
+      </c>
+      <c r="I774" t="n">
+        <v>19.67046363147106</v>
+      </c>
+      <c r="J774" t="n">
+        <v>-0.04376850860813352</v>
+      </c>
+      <c r="K774" t="n">
+        <v>0.01761664823824724</v>
+      </c>
+      <c r="L774" t="n">
+        <v>-0.5383360062677832</v>
+      </c>
+      <c r="M774" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D775" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E775" t="n">
+        <v>111315.6940679056</v>
+      </c>
+      <c r="F775" t="n">
+        <v>-0.0155708322343471</v>
+      </c>
+      <c r="G775" t="n">
+        <v>0.1700809769089267</v>
+      </c>
+      <c r="H775" t="n">
+        <v>-0.9714721900488857</v>
+      </c>
+      <c r="I775" t="n">
+        <v>6.701751478932397</v>
+      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
+      <c r="L775" t="inlineStr"/>
+      <c r="M775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D776" t="n">
+        <v>0.04657534246575343</v>
+      </c>
+      <c r="E776" t="n">
+        <v>111397.7481607808</v>
+      </c>
+      <c r="F776" t="n">
+        <v>-0.01644922369364177</v>
+      </c>
+      <c r="G776" t="n">
+        <v>0.1736536285005901</v>
+      </c>
+      <c r="H776" t="n">
+        <v>-0.7708168744637222</v>
+      </c>
+      <c r="I776" t="n">
+        <v>6.741788262191434</v>
+      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
+      <c r="L776" t="inlineStr"/>
+      <c r="M776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D777" t="n">
+        <v>0.08493150684931507</v>
+      </c>
+      <c r="E777" t="n">
+        <v>112268.1793521112</v>
+      </c>
+      <c r="F777" t="n">
+        <v>-0.004281301289525522</v>
+      </c>
+      <c r="G777" t="n">
+        <v>0.2438748732499511</v>
+      </c>
+      <c r="H777" t="n">
+        <v>-3.799507125856254</v>
+      </c>
+      <c r="I777" t="n">
+        <v>43.53086165472727</v>
+      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="inlineStr"/>
+      <c r="M777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D778" t="n">
+        <v>0.06301369863013699</v>
+      </c>
+      <c r="E778" t="n">
+        <v>112831.2947443823</v>
+      </c>
+      <c r="F778" t="n">
+        <v>0.01544626091011205</v>
+      </c>
+      <c r="G778" t="n">
+        <v>0.1607931841678054</v>
+      </c>
+      <c r="H778" t="n">
+        <v>-0.6067311238577134</v>
+      </c>
+      <c r="I778" t="n">
+        <v>7.252800848669408</v>
+      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
+      <c r="L778" t="inlineStr"/>
+      <c r="M778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D779" t="n">
+        <v>0.1589041095890411</v>
+      </c>
+      <c r="E779" t="n">
+        <v>113691.6932909086</v>
+      </c>
+      <c r="F779" t="n">
+        <v>0.007534946030074996</v>
+      </c>
+      <c r="G779" t="n">
+        <v>0.1761346660456279</v>
+      </c>
+      <c r="H779" t="n">
+        <v>-0.925007993494073</v>
+      </c>
+      <c r="I779" t="n">
+        <v>8.751427601134663</v>
+      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="inlineStr"/>
+      <c r="M779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D780" t="n">
+        <v>0.2356164383561644</v>
+      </c>
+      <c r="E780" t="n">
+        <v>114395.1461954141</v>
+      </c>
+      <c r="F780" t="n">
+        <v>0.003482543173528085</v>
+      </c>
+      <c r="G780" t="n">
+        <v>0.1817254057813461</v>
+      </c>
+      <c r="H780" t="n">
+        <v>-0.5394106168636683</v>
+      </c>
+      <c r="I780" t="n">
+        <v>5.825879463951512</v>
+      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="inlineStr"/>
+      <c r="M780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D781" t="n">
+        <v>0.3123287671232877</v>
+      </c>
+      <c r="E781" t="n">
+        <v>115018.1415541562</v>
+      </c>
+      <c r="F781" t="n">
+        <v>-0.00695598693064586</v>
+      </c>
+      <c r="G781" t="n">
+        <v>0.2214910470781146</v>
+      </c>
+      <c r="H781" t="n">
+        <v>-1.271928310892101</v>
+      </c>
+      <c r="I781" t="n">
+        <v>10.23137569421016</v>
+      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="inlineStr"/>
+      <c r="M781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D782" t="n">
+        <v>0.4082191780821918</v>
+      </c>
+      <c r="E782" t="n">
+        <v>116249.4808169681</v>
+      </c>
+      <c r="F782" t="n">
+        <v>-0.004677496645300505</v>
+      </c>
+      <c r="G782" t="n">
+        <v>0.2134995235398339</v>
+      </c>
+      <c r="H782" t="n">
+        <v>-0.8903650343923416</v>
+      </c>
+      <c r="I782" t="n">
+        <v>7.835858310770077</v>
+      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="inlineStr"/>
+      <c r="M782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D783" t="n">
+        <v>0.4849315068493151</v>
+      </c>
+      <c r="E783" t="n">
+        <v>116315.8542476986</v>
+      </c>
+      <c r="F783" t="n">
+        <v>-0.01407760093688102</v>
+      </c>
+      <c r="G783" t="n">
+        <v>0.2063520670221113</v>
+      </c>
+      <c r="H783" t="n">
+        <v>-0.3799389916205135</v>
+      </c>
+      <c r="I783" t="n">
+        <v>4.911529226161563</v>
+      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="inlineStr"/>
+      <c r="M783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D784" t="n">
+        <v>0.7342465753424657</v>
+      </c>
+      <c r="E784" t="n">
+        <v>116758.4123869857</v>
+      </c>
+      <c r="F784" t="n">
+        <v>-0.02753692304054389</v>
+      </c>
+      <c r="G784" t="n">
+        <v>0.2038034136329659</v>
+      </c>
+      <c r="H784" t="n">
+        <v>-1.378405401963576</v>
+      </c>
+      <c r="I784" t="n">
+        <v>10.00434743858609</v>
+      </c>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
+      <c r="L784" t="inlineStr"/>
+      <c r="M784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D785" t="n">
+        <v>0.810958904109589</v>
+      </c>
+      <c r="E785" t="n">
+        <v>118284.1857908773</v>
+      </c>
+      <c r="F785" t="n">
+        <v>-0.05790759291044427</v>
+      </c>
+      <c r="G785" t="n">
+        <v>0.3329101344999462</v>
+      </c>
+      <c r="H785" t="n">
+        <v>-2.121130793137533</v>
+      </c>
+      <c r="I785" t="n">
+        <v>14.91094071118173</v>
+      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
+      <c r="L785" t="inlineStr"/>
+      <c r="M785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D786" t="n">
+        <v>1.06027397260274</v>
+      </c>
+      <c r="E786" t="n">
+        <v>119715.1391956368</v>
+      </c>
+      <c r="F786" t="n">
+        <v>-0.1033574627504499</v>
+      </c>
+      <c r="G786" t="n">
+        <v>0.4340012653109135</v>
+      </c>
+      <c r="H786" t="n">
+        <v>-1.848530290631657</v>
+      </c>
+      <c r="I786" t="n">
+        <v>9.310451148502041</v>
+      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="inlineStr"/>
+      <c r="M786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D787" t="n">
+        <v>1.306849315068493</v>
+      </c>
+      <c r="E787" t="n">
+        <v>121629.4741754314</v>
+      </c>
+      <c r="F787" t="n">
+        <v>-0.1756486771014271</v>
+      </c>
+      <c r="G787" t="n">
+        <v>0.7289828450362286</v>
+      </c>
+      <c r="H787" t="n">
+        <v>-2.449235900479498</v>
+      </c>
+      <c r="I787" t="n">
+        <v>11.41751982573704</v>
+      </c>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
+      <c r="L787" t="inlineStr"/>
+      <c r="M787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D788" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E788" t="n">
+        <v>112831.8157744365</v>
+      </c>
+      <c r="F788" t="n">
+        <v>0.06836243942345077</v>
+      </c>
+      <c r="G788" t="n">
+        <v>0.1173354690226914</v>
+      </c>
+      <c r="H788" t="n">
+        <v>-0.5443179738819176</v>
+      </c>
+      <c r="I788" t="n">
+        <v>5.725677283246958</v>
+      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
+      <c r="L788" t="inlineStr"/>
+      <c r="M788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D789" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E789" t="n">
+        <v>112825.2793255278</v>
+      </c>
+      <c r="F789" t="n">
+        <v>0.05905308614769373</v>
+      </c>
+      <c r="G789" t="n">
+        <v>0.1436949503858919</v>
+      </c>
+      <c r="H789" t="n">
+        <v>-0.8810267864511313</v>
+      </c>
+      <c r="I789" t="n">
+        <v>9.952175328699088</v>
+      </c>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="inlineStr"/>
+      <c r="M789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D790" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E790" t="n">
+        <v>112766.8700416233</v>
+      </c>
+      <c r="F790" t="n">
+        <v>0.04957123076553718</v>
+      </c>
+      <c r="G790" t="n">
+        <v>0.1425577350212126</v>
+      </c>
+      <c r="H790" t="n">
+        <v>-0.7674200092646093</v>
+      </c>
+      <c r="I790" t="n">
+        <v>5.887377683849195</v>
+      </c>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
+      <c r="L790" t="inlineStr"/>
+      <c r="M790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D791" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E791" t="n">
+        <v>112830.8536028279</v>
+      </c>
+      <c r="F791" t="n">
+        <v>0.1639731576360749</v>
+      </c>
+      <c r="G791" t="n">
+        <v>0.1568101410003611</v>
+      </c>
+      <c r="H791" t="n">
+        <v>-0.2125828153794598</v>
+      </c>
+      <c r="I791" t="n">
+        <v>3.205830177200385</v>
+      </c>
+      <c r="J791" t="n">
+        <v>-0.3116833763720054</v>
+      </c>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="inlineStr"/>
+      <c r="M791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D792" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E792" t="n">
+        <v>112796.1097410079</v>
+      </c>
+      <c r="F792" t="n">
+        <v>0.04415299662623077</v>
+      </c>
+      <c r="G792" t="n">
+        <v>0.1816808439934367</v>
+      </c>
+      <c r="H792" t="n">
+        <v>-1.623904241034051</v>
+      </c>
+      <c r="I792" t="n">
+        <v>15.13411246037325</v>
+      </c>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
+      <c r="L792" t="inlineStr"/>
+      <c r="M792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D793" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E793" t="n">
+        <v>112871.2336722037</v>
+      </c>
+      <c r="F793" t="n">
+        <v>0.1183090529649143</v>
+      </c>
+      <c r="G793" t="n">
+        <v>0.1446145401445806</v>
+      </c>
+      <c r="H793" t="n">
+        <v>-0.19786141959303</v>
+      </c>
+      <c r="I793" t="n">
+        <v>3.988665469654808</v>
+      </c>
+      <c r="J793" t="n">
+        <v>-0.1937156168480924</v>
+      </c>
+      <c r="K793" t="n">
+        <v>0.01391639228709177</v>
+      </c>
+      <c r="L793" t="n">
+        <v>-1.320840190220745e-16</v>
+      </c>
+      <c r="M793" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D794" t="n">
+        <v>0.02465753424657534</v>
+      </c>
+      <c r="E794" t="n">
+        <v>112819.3787472671</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0.04236368052200182</v>
+      </c>
+      <c r="G794" t="n">
+        <v>0.1659317890930498</v>
+      </c>
+      <c r="H794" t="n">
+        <v>-0.6837642977097942</v>
+      </c>
+      <c r="I794" t="n">
+        <v>6.835166303708448</v>
+      </c>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
+      <c r="L794" t="inlineStr"/>
+      <c r="M794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D795" t="n">
+        <v>0.04383561643835616</v>
+      </c>
+      <c r="E795" t="n">
+        <v>112853.4116114269</v>
+      </c>
+      <c r="F795" t="n">
+        <v>0.02569371552481819</v>
+      </c>
+      <c r="G795" t="n">
+        <v>0.1648752504067804</v>
+      </c>
+      <c r="H795" t="n">
+        <v>-0.4983790271143999</v>
+      </c>
+      <c r="I795" t="n">
+        <v>5.95041994999684</v>
+      </c>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
+      <c r="L795" t="inlineStr"/>
+      <c r="M795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D796" t="n">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="E796" t="n">
+        <v>113696.9561589532</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0.02728130806399492</v>
+      </c>
+      <c r="G796" t="n">
+        <v>0.2250696951877901</v>
+      </c>
+      <c r="H796" t="n">
+        <v>-3.49204969650032</v>
+      </c>
+      <c r="I796" t="n">
+        <v>42.70468449013802</v>
+      </c>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="inlineStr"/>
+      <c r="M796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D797" t="n">
+        <v>0.06027397260273973</v>
+      </c>
+      <c r="E797" t="n">
+        <v>110235.3184884231</v>
+      </c>
+      <c r="F797" t="n">
+        <v>-0.0130403811950445</v>
+      </c>
+      <c r="G797" t="n">
+        <v>0.1730977107013403</v>
+      </c>
+      <c r="H797" t="n">
+        <v>-0.8010042003571431</v>
+      </c>
+      <c r="I797" t="n">
+        <v>7.25798247798682</v>
+      </c>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
+      <c r="L797" t="inlineStr"/>
+      <c r="M797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D798" t="n">
+        <v>0.1561643835616438</v>
+      </c>
+      <c r="E798" t="n">
+        <v>111086.5482204857</v>
+      </c>
+      <c r="F798" t="n">
+        <v>-0.0108489787887318</v>
+      </c>
+      <c r="G798" t="n">
+        <v>0.1872295317044708</v>
+      </c>
+      <c r="H798" t="n">
+        <v>-1.181031059433712</v>
+      </c>
+      <c r="I798" t="n">
+        <v>10.19906408460631</v>
+      </c>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="inlineStr"/>
+      <c r="M798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D799" t="n">
+        <v>0.2328767123287671</v>
+      </c>
+      <c r="E799" t="n">
+        <v>111880.561772157</v>
+      </c>
+      <c r="F799" t="n">
+        <v>-0.01062588201088036</v>
+      </c>
+      <c r="G799" t="n">
+        <v>0.1959278086907256</v>
+      </c>
+      <c r="H799" t="n">
+        <v>-1.04071220467474</v>
+      </c>
+      <c r="I799" t="n">
+        <v>9.707828715626047</v>
+      </c>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="inlineStr"/>
+      <c r="M799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D800" t="n">
+        <v>0.3095890410958904</v>
+      </c>
+      <c r="E800" t="n">
+        <v>112446.8012617622</v>
+      </c>
+      <c r="F800" t="n">
+        <v>-0.01943128012150405</v>
+      </c>
+      <c r="G800" t="n">
+        <v>0.2286629662440883</v>
+      </c>
+      <c r="H800" t="n">
+        <v>-1.310532269865769</v>
+      </c>
+      <c r="I800" t="n">
+        <v>10.37705482425065</v>
+      </c>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
+      <c r="L800" t="inlineStr"/>
+      <c r="M800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D801" t="n">
+        <v>0.4054794520547945</v>
+      </c>
+      <c r="E801" t="n">
+        <v>113656.5110279703</v>
+      </c>
+      <c r="F801" t="n">
+        <v>-0.01437321119983079</v>
+      </c>
+      <c r="G801" t="n">
+        <v>0.2148145465141612</v>
+      </c>
+      <c r="H801" t="n">
+        <v>-0.9194925018339264</v>
+      </c>
+      <c r="I801" t="n">
+        <v>7.914703216047312</v>
+      </c>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
+      <c r="L801" t="inlineStr"/>
+      <c r="M801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D802" t="n">
+        <v>0.4821917808219178</v>
+      </c>
+      <c r="E802" t="n">
+        <v>113726.3743747535</v>
+      </c>
+      <c r="F802" t="n">
+        <v>-0.04140406937243996</v>
+      </c>
+      <c r="G802" t="n">
+        <v>0.3005762649719448</v>
+      </c>
+      <c r="H802" t="n">
+        <v>-2.025086761131561</v>
+      </c>
+      <c r="I802" t="n">
+        <v>13.36947859587326</v>
+      </c>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
+      <c r="L802" t="inlineStr"/>
+      <c r="M802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D803" t="n">
+        <v>0.7315068493150685</v>
+      </c>
+      <c r="E803" t="n">
+        <v>114173.9785261752</v>
+      </c>
+      <c r="F803" t="n">
+        <v>-0.03440223081580156</v>
+      </c>
+      <c r="G803" t="n">
+        <v>0.2018729088567885</v>
+      </c>
+      <c r="H803" t="n">
+        <v>-1.245281946398301</v>
+      </c>
+      <c r="I803" t="n">
+        <v>8.737931944074056</v>
+      </c>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
+      <c r="L803" t="inlineStr"/>
+      <c r="M803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D804" t="n">
+        <v>0.8082191780821918</v>
+      </c>
+      <c r="E804" t="n">
+        <v>115700.2458455966</v>
+      </c>
+      <c r="F804" t="n">
+        <v>-0.06016136794524492</v>
+      </c>
+      <c r="G804" t="n">
+        <v>0.3045915880210849</v>
+      </c>
+      <c r="H804" t="n">
+        <v>-1.540382691617794</v>
+      </c>
+      <c r="I804" t="n">
+        <v>9.765535009906518</v>
+      </c>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="inlineStr"/>
+      <c r="M804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D805" t="n">
+        <v>1.057534246575343</v>
+      </c>
+      <c r="E805" t="n">
+        <v>117190.7254123417</v>
+      </c>
+      <c r="F805" t="n">
+        <v>-0.1018732021083687</v>
+      </c>
+      <c r="G805" t="n">
+        <v>0.4148617083654865</v>
+      </c>
+      <c r="H805" t="n">
+        <v>-1.783744012210249</v>
+      </c>
+      <c r="I805" t="n">
+        <v>8.635802366985811</v>
+      </c>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
+      <c r="L805" t="inlineStr"/>
+      <c r="M805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D806" t="n">
+        <v>1.304109589041096</v>
+      </c>
+      <c r="E806" t="n">
+        <v>119055.5466518932</v>
+      </c>
+      <c r="F806" t="n">
+        <v>-0.1656364761742672</v>
+      </c>
+      <c r="G806" t="n">
+        <v>0.6540768958392227</v>
+      </c>
+      <c r="H806" t="n">
+        <v>-2.190911673376554</v>
+      </c>
+      <c r="I806" t="n">
+        <v>9.26455838749313</v>
+      </c>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
+      <c r="L806" t="inlineStr"/>
+      <c r="M806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D807" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E807" t="n">
+        <v>110263.1437212832</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0.01219951656045526</v>
+      </c>
+      <c r="G807" t="n">
+        <v>0.1456128931962112</v>
+      </c>
+      <c r="H807" t="n">
+        <v>-0.6004168385869785</v>
+      </c>
+      <c r="I807" t="n">
+        <v>5.963606545374893</v>
+      </c>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
+      <c r="L807" t="inlineStr"/>
+      <c r="M807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D808" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E808" t="n">
+        <v>110227.7267600845</v>
+      </c>
+      <c r="F808" t="n">
+        <v>0.004226963064531788</v>
+      </c>
+      <c r="G808" t="n">
+        <v>0.1863390740540663</v>
+      </c>
+      <c r="H808" t="n">
+        <v>-1.610827736463545</v>
+      </c>
+      <c r="I808" t="n">
+        <v>16.54907703958716</v>
+      </c>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
+      <c r="L808" t="inlineStr"/>
+      <c r="M808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D809" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E809" t="n">
+        <v>110181.1543078783</v>
+      </c>
+      <c r="F809" t="n">
+        <v>-0.000459771948648552</v>
+      </c>
+      <c r="G809" t="n">
+        <v>0.1692681552655799</v>
+      </c>
+      <c r="H809" t="n">
+        <v>-0.9925100351406353</v>
+      </c>
+      <c r="I809" t="n">
+        <v>6.484052199504728</v>
+      </c>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
+      <c r="L809" t="inlineStr"/>
+      <c r="M809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D810" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E810" t="n">
+        <v>110238.5706685617</v>
+      </c>
+      <c r="F810" t="n">
+        <v>0.0003329657230639655</v>
+      </c>
+      <c r="G810" t="n">
+        <v>0.1870513989885459</v>
+      </c>
+      <c r="H810" t="n">
+        <v>-0.8203216244269347</v>
+      </c>
+      <c r="I810" t="n">
+        <v>6.861491321269101</v>
+      </c>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
+      <c r="L810" t="inlineStr"/>
+      <c r="M810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D811" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E811" t="n">
+        <v>110235.2841353988</v>
+      </c>
+      <c r="F811" t="n">
+        <v>0.02812287316841284</v>
+      </c>
+      <c r="G811" t="n">
+        <v>0.2590304544690596</v>
+      </c>
+      <c r="H811" t="n">
+        <v>-0.6793133492273797</v>
+      </c>
+      <c r="I811" t="n">
+        <v>5.532082569469244</v>
+      </c>
+      <c r="J811" t="n">
+        <v>0.2359355190478255</v>
+      </c>
+      <c r="K811" t="inlineStr"/>
+      <c r="L811" t="inlineStr"/>
+      <c r="M811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D812" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E812" t="n">
+        <v>110237.1146291578</v>
+      </c>
+      <c r="F812" t="n">
+        <v>-0.001455566830297997</v>
+      </c>
+      <c r="G812" t="n">
+        <v>0.1874262454238468</v>
+      </c>
+      <c r="H812" t="n">
+        <v>-0.8735760845906572</v>
+      </c>
+      <c r="I812" t="n">
+        <v>7.131555547897904</v>
+      </c>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
+      <c r="L812" t="inlineStr"/>
+      <c r="M812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D813" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="E813" t="n">
+        <v>110302.8815435176</v>
+      </c>
+      <c r="F813" t="n">
+        <v>-0.005694135565297518</v>
+      </c>
+      <c r="G813" t="n">
+        <v>0.1732890166246955</v>
+      </c>
+      <c r="H813" t="n">
+        <v>-0.851959000024247</v>
+      </c>
+      <c r="I813" t="n">
+        <v>7.952550734035643</v>
+      </c>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="inlineStr"/>
+      <c r="M813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D814" t="n">
+        <v>0.07945205479452055</v>
+      </c>
+      <c r="E814" t="n">
+        <v>111101.4383579657</v>
+      </c>
+      <c r="F814" t="n">
+        <v>0.00157762595959743</v>
+      </c>
+      <c r="G814" t="n">
+        <v>0.2540471887493716</v>
+      </c>
+      <c r="H814" t="n">
+        <v>-4.067288431242367</v>
+      </c>
+      <c r="I814" t="n">
+        <v>45.83537110914045</v>
+      </c>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
+      <c r="L814" t="inlineStr"/>
+      <c r="M814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D815" t="n">
+        <v>0.09863013698630137</v>
+      </c>
+      <c r="E815" t="n">
+        <v>111052.7471326565</v>
+      </c>
+      <c r="F815" t="n">
+        <v>0.0008931033520894515</v>
+      </c>
+      <c r="G815" t="n">
+        <v>0.1775631121718058</v>
+      </c>
+      <c r="H815" t="n">
+        <v>-0.4017076225821825</v>
+      </c>
+      <c r="I815" t="n">
+        <v>5.310094348048753</v>
+      </c>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
+      <c r="L815" t="inlineStr"/>
+      <c r="M815" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_analyzed/moment.xlsx
+++ b/data_analyzed/moment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M815"/>
+  <dimension ref="A1:M910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20156,10 +20156,18 @@
       <c r="I456" t="n">
         <v>6.340092180308363</v>
       </c>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
-      <c r="M456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>-0.4171720644817287</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3357195371335476</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0.2372264367509181</v>
+      </c>
+      <c r="M456" t="n">
+        <v>2.175867269640444</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -20969,10 +20977,18 @@
       <c r="I475" t="n">
         <v>7.538921199370701</v>
       </c>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
-      <c r="M475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>-0.475090227869142</v>
+      </c>
+      <c r="K475" t="n">
+        <v>0.3390417815583261</v>
+      </c>
+      <c r="L475" t="n">
+        <v>0.2941700511571806</v>
+      </c>
+      <c r="M475" t="n">
+        <v>2.206662329477553</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -21776,10 +21792,18 @@
       <c r="I494" t="n">
         <v>6.858465299510215</v>
       </c>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
-      <c r="M494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>-1.090592475347884</v>
+      </c>
+      <c r="K494" t="n">
+        <v>0.305552710783839</v>
+      </c>
+      <c r="L494" t="n">
+        <v>0.459843913720376</v>
+      </c>
+      <c r="M494" t="n">
+        <v>2.595473261476525</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -22583,10 +22607,18 @@
       <c r="I513" t="n">
         <v>8.056092228949829</v>
       </c>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
-      <c r="M513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>-0.9712759750021939</v>
+      </c>
+      <c r="K513" t="n">
+        <v>0.2859287179783679</v>
+      </c>
+      <c r="L513" t="n">
+        <v>0.5190875794184199</v>
+      </c>
+      <c r="M513" t="n">
+        <v>2.848823562284922</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -23390,10 +23422,18 @@
       <c r="I532" t="n">
         <v>6.28830101052083</v>
       </c>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
-      <c r="M532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>-1.417434297872755</v>
+      </c>
+      <c r="K532" t="n">
+        <v>0.2306493530254091</v>
+      </c>
+      <c r="L532" t="n">
+        <v>0.2501630079354575</v>
+      </c>
+      <c r="M532" t="n">
+        <v>2.346422858371362</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -24150,10 +24190,18 @@
       <c r="I550" t="n">
         <v>6.236857686632747</v>
       </c>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
-      <c r="M550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>-0.9853713629864949</v>
+      </c>
+      <c r="K550" t="n">
+        <v>0.2062375548920074</v>
+      </c>
+      <c r="L550" t="n">
+        <v>0.2052426328312739</v>
+      </c>
+      <c r="M550" t="n">
+        <v>2.39656107586889</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -24955,10 +25003,18 @@
       <c r="I569" t="n">
         <v>6.93498853200975</v>
       </c>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
-      <c r="M569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>-0.8738619947286198</v>
+      </c>
+      <c r="K569" t="n">
+        <v>0.1872709478582608</v>
+      </c>
+      <c r="L569" t="n">
+        <v>0.1902102483788586</v>
+      </c>
+      <c r="M569" t="n">
+        <v>2.518181527300346</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -25754,10 +25810,18 @@
       <c r="I588" t="n">
         <v>7.893800570573736</v>
       </c>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
-      <c r="M588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>-0.5348266449214059</v>
+      </c>
+      <c r="K588" t="n">
+        <v>0.1282018702557457</v>
+      </c>
+      <c r="L588" t="n">
+        <v>-0.2262958989451835</v>
+      </c>
+      <c r="M588" t="n">
+        <v>2.013425631032702</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -26553,10 +26617,18 @@
       <c r="I607" t="n">
         <v>7.814295974217599</v>
       </c>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
-      <c r="M607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>-0.4136749362997461</v>
+      </c>
+      <c r="K607" t="n">
+        <v>0.1266985367328312</v>
+      </c>
+      <c r="L607" t="n">
+        <v>-0.1582366148292134</v>
+      </c>
+      <c r="M607" t="n">
+        <v>2.04042933805079</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -27352,10 +27424,18 @@
       <c r="I626" t="n">
         <v>8.243353072496781</v>
       </c>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
-      <c r="M626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>-0.2080064881564166</v>
+      </c>
+      <c r="K626" t="n">
+        <v>0.1304043896348948</v>
+      </c>
+      <c r="L626" t="n">
+        <v>-0.09342636787466206</v>
+      </c>
+      <c r="M626" t="n">
+        <v>1.993387849628447</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -28104,10 +28184,18 @@
       <c r="I644" t="n">
         <v>14.55164498862496</v>
       </c>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
-      <c r="M644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>-0.2809526231947743</v>
+      </c>
+      <c r="K644" t="n">
+        <v>0.1328999324788512</v>
+      </c>
+      <c r="L644" t="n">
+        <v>-0.01258305283788508</v>
+      </c>
+      <c r="M644" t="n">
+        <v>1.984619266005203</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -28901,10 +28989,18 @@
       <c r="I663" t="n">
         <v>22.22244899502702</v>
       </c>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
-      <c r="M663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>-0.6067089621107076</v>
+      </c>
+      <c r="K663" t="n">
+        <v>0.1224968750237004</v>
+      </c>
+      <c r="L663" t="n">
+        <v>0.006238849779163275</v>
+      </c>
+      <c r="M663" t="n">
+        <v>2.054960549259019</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -29692,10 +29788,18 @@
       <c r="I682" t="n">
         <v>8.659380502592677</v>
       </c>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
-      <c r="M682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>-0.1107587875764343</v>
+      </c>
+      <c r="K682" t="n">
+        <v>0.1116453926146825</v>
+      </c>
+      <c r="L682" t="n">
+        <v>0.1635099888121481</v>
+      </c>
+      <c r="M682" t="n">
+        <v>2.252950313514092</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -30483,10 +30587,18 @@
       <c r="I701" t="n">
         <v>7.471548015969184</v>
       </c>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
-      <c r="M701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>0.2019572604821628</v>
+      </c>
+      <c r="K701" t="n">
+        <v>0.1159468389252036</v>
+      </c>
+      <c r="L701" t="n">
+        <v>0.07503651310250715</v>
+      </c>
+      <c r="M701" t="n">
+        <v>2.189568379381487</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -31274,10 +31386,18 @@
       <c r="I720" t="n">
         <v>10.12607725425915</v>
       </c>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
-      <c r="M720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>-0.09976713721595667</v>
+      </c>
+      <c r="K720" t="n">
+        <v>0.1226080174363657</v>
+      </c>
+      <c r="L720" t="n">
+        <v>0.1223982275083728</v>
+      </c>
+      <c r="M720" t="n">
+        <v>2.086696089546653</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -32018,10 +32138,18 @@
       <c r="I738" t="n">
         <v>6.7565544071346</v>
       </c>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
-      <c r="M738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>-0.2889366546078636</v>
+      </c>
+      <c r="K738" t="n">
+        <v>0.1255641108669581</v>
+      </c>
+      <c r="L738" t="n">
+        <v>0.2492139062772706</v>
+      </c>
+      <c r="M738" t="n">
+        <v>2.134687693561835</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -32533,10 +32661,18 @@
       <c r="I751" t="n">
         <v>11.69664547001226</v>
       </c>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
-      <c r="M751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>0.3222525556017057</v>
+      </c>
+      <c r="K751" t="n">
+        <v>0.05337495275340508</v>
+      </c>
+      <c r="L751" t="n">
+        <v>-0.4103541666894833</v>
+      </c>
+      <c r="M751" t="n">
+        <v>1.728572074161355</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -32760,10 +32896,18 @@
       <c r="I756" t="n">
         <v>24.32112420090724</v>
       </c>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
-      <c r="M756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>0.4887390112796265</v>
+      </c>
+      <c r="K756" t="n">
+        <v>0.1186085878524447</v>
+      </c>
+      <c r="L756" t="n">
+        <v>0.1721465981455686</v>
+      </c>
+      <c r="M756" t="n">
+        <v>2.224517934906989</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -33267,10 +33411,18 @@
       <c r="I769" t="n">
         <v>6.521624677964191</v>
       </c>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
-      <c r="M769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>-0.009480606601132577</v>
+      </c>
+      <c r="K769" t="n">
+        <v>0.01578916715912978</v>
+      </c>
+      <c r="L769" t="n">
+        <v>-0.2836171216747701</v>
+      </c>
+      <c r="M769" t="n">
+        <v>2.311125364129039</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -33306,10 +33458,18 @@
       <c r="I770" t="n">
         <v>9.981517865116112</v>
       </c>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
-      <c r="M770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>0.008713973304380595</v>
+      </c>
+      <c r="K770" t="n">
+        <v>0.01551982827831129</v>
+      </c>
+      <c r="L770" t="n">
+        <v>-0.5380701125052759</v>
+      </c>
+      <c r="M770" t="n">
+        <v>2.392278948236461</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -33386,10 +33546,18 @@
       <c r="I772" t="n">
         <v>6.437865236174289</v>
       </c>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
-      <c r="M772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>0.06622089617124935</v>
+      </c>
+      <c r="K772" t="n">
+        <v>0.03672917298683431</v>
+      </c>
+      <c r="L772" t="n">
+        <v>0.6725847961907231</v>
+      </c>
+      <c r="M772" t="n">
+        <v>3.168892690376738</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -33519,10 +33687,18 @@
       <c r="I775" t="n">
         <v>6.701751478932397</v>
       </c>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
-      <c r="M775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>0.1697846028918021</v>
+      </c>
+      <c r="K775" t="n">
+        <v>0.07334250380262709</v>
+      </c>
+      <c r="L775" t="n">
+        <v>0.4683031253288178</v>
+      </c>
+      <c r="M775" t="n">
+        <v>2.011110609254798</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -34026,10 +34202,18 @@
       <c r="I788" t="n">
         <v>5.725677283246958</v>
       </c>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
-      <c r="M788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>-0.1138270110700734</v>
+      </c>
+      <c r="K788" t="n">
+        <v>0.01678756918276458</v>
+      </c>
+      <c r="L788" t="n">
+        <v>0.053487084533311</v>
+      </c>
+      <c r="M788" t="n">
+        <v>2.298063698297935</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -34065,10 +34249,18 @@
       <c r="I789" t="n">
         <v>9.952175328699088</v>
       </c>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
-      <c r="M789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>-0.08943813976169483</v>
+      </c>
+      <c r="K789" t="n">
+        <v>0.01696372620412041</v>
+      </c>
+      <c r="L789" t="n">
+        <v>-0.2880759216279744</v>
+      </c>
+      <c r="M789" t="n">
+        <v>2.14521553204206</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -34104,10 +34296,18 @@
       <c r="I790" t="n">
         <v>5.887377683849195</v>
       </c>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
-      <c r="M790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>-0.02189067404115775</v>
+      </c>
+      <c r="K790" t="n">
+        <v>0.04191629749799171</v>
+      </c>
+      <c r="L790" t="n">
+        <v>0.6704757719610467</v>
+      </c>
+      <c r="M790" t="n">
+        <v>2.815473210689341</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -34184,10 +34384,18 @@
       <c r="I792" t="n">
         <v>15.13411246037325</v>
       </c>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
-      <c r="M792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>0.03408971441573483</v>
+      </c>
+      <c r="K792" t="n">
+        <v>0.05861338755323488</v>
+      </c>
+      <c r="L792" t="n">
+        <v>0.4399583757458075</v>
+      </c>
+      <c r="M792" t="n">
+        <v>1.992906231796149</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -34270,10 +34478,18 @@
       <c r="I794" t="n">
         <v>6.835166303708448</v>
       </c>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
-      <c r="M794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>0.09378818548282215</v>
+      </c>
+      <c r="K794" t="n">
+        <v>0.08061204851819169</v>
+      </c>
+      <c r="L794" t="n">
+        <v>0.3553474179588729</v>
+      </c>
+      <c r="M794" t="n">
+        <v>1.795346708229094</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -34777,10 +34993,18 @@
       <c r="I807" t="n">
         <v>5.963606545374893</v>
       </c>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
-      <c r="M807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>0.2473204566274169</v>
+      </c>
+      <c r="K807" t="n">
+        <v>0.008750979825177335</v>
+      </c>
+      <c r="L807" t="n">
+        <v>0.8089196720461374</v>
+      </c>
+      <c r="M807" t="n">
+        <v>2.101860250809634</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
@@ -34816,10 +35040,18 @@
       <c r="I808" t="n">
         <v>16.54907703958716</v>
       </c>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
-      <c r="M808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>0.2666942839323744</v>
+      </c>
+      <c r="K808" t="n">
+        <v>0.008502164597911139</v>
+      </c>
+      <c r="L808" t="n">
+        <v>0.2680339375067249</v>
+      </c>
+      <c r="M808" t="n">
+        <v>1.532865872683723</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
@@ -34855,10 +35087,18 @@
       <c r="I809" t="n">
         <v>6.484052199504728</v>
       </c>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
-      <c r="M809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>0.3380914860526574</v>
+      </c>
+      <c r="K809" t="n">
+        <v>0.03257293951794873</v>
+      </c>
+      <c r="L809" t="n">
+        <v>1.009832860521988</v>
+      </c>
+      <c r="M809" t="n">
+        <v>2.815720396193842</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
@@ -34894,10 +35134,18 @@
       <c r="I810" t="n">
         <v>6.861491321269101</v>
       </c>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
-      <c r="M810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>0.3951692466145622</v>
+      </c>
+      <c r="K810" t="n">
+        <v>0.04746688694852878</v>
+      </c>
+      <c r="L810" t="n">
+        <v>0.569185250568909</v>
+      </c>
+      <c r="M810" t="n">
+        <v>1.739304231923645</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
@@ -34974,10 +35222,18 @@
       <c r="I812" t="n">
         <v>7.131555547897904</v>
       </c>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
-      <c r="M812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>0.4561555070866828</v>
+      </c>
+      <c r="K812" t="n">
+        <v>0.06756879384457612</v>
+      </c>
+      <c r="L812" t="n">
+        <v>0.4030054558325659</v>
+      </c>
+      <c r="M812" t="n">
+        <v>1.590884813525737</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
@@ -35096,6 +35352,3807 @@
       <c r="L815" t="inlineStr"/>
       <c r="M815" t="inlineStr"/>
     </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D816" t="n">
+        <v>0.05753424657534247</v>
+      </c>
+      <c r="E816" t="n">
+        <v>111950.099610962</v>
+      </c>
+      <c r="F816" t="n">
+        <v>0.002293563032286254</v>
+      </c>
+      <c r="G816" t="n">
+        <v>0.1576424449324726</v>
+      </c>
+      <c r="H816" t="n">
+        <v>-0.8055530864960956</v>
+      </c>
+      <c r="I816" t="n">
+        <v>6.814174400985319</v>
+      </c>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
+      <c r="L816" t="inlineStr"/>
+      <c r="M816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D817" t="n">
+        <v>0.1534246575342466</v>
+      </c>
+      <c r="E817" t="n">
+        <v>112803.1891561327</v>
+      </c>
+      <c r="F817" t="n">
+        <v>9.701185263500406e-05</v>
+      </c>
+      <c r="G817" t="n">
+        <v>0.1722957261695063</v>
+      </c>
+      <c r="H817" t="n">
+        <v>-1.22248897823845</v>
+      </c>
+      <c r="I817" t="n">
+        <v>10.43423696254672</v>
+      </c>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="inlineStr"/>
+      <c r="M817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D818" t="n">
+        <v>0.2301369863013699</v>
+      </c>
+      <c r="E818" t="n">
+        <v>113606.554906055</v>
+      </c>
+      <c r="F818" t="n">
+        <v>-0.002890898904414514</v>
+      </c>
+      <c r="G818" t="n">
+        <v>0.1923176121256891</v>
+      </c>
+      <c r="H818" t="n">
+        <v>-1.132220241259939</v>
+      </c>
+      <c r="I818" t="n">
+        <v>9.957529844255356</v>
+      </c>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="inlineStr"/>
+      <c r="M818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D819" t="n">
+        <v>0.3068493150684932</v>
+      </c>
+      <c r="E819" t="n">
+        <v>114194.4678753093</v>
+      </c>
+      <c r="F819" t="n">
+        <v>-0.012021211363259</v>
+      </c>
+      <c r="G819" t="n">
+        <v>0.2232821526960972</v>
+      </c>
+      <c r="H819" t="n">
+        <v>-1.308430985346893</v>
+      </c>
+      <c r="I819" t="n">
+        <v>9.890040629932885</v>
+      </c>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
+      <c r="L819" t="inlineStr"/>
+      <c r="M819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D820" t="n">
+        <v>0.4027397260273973</v>
+      </c>
+      <c r="E820" t="n">
+        <v>115094.6184930315</v>
+      </c>
+      <c r="F820" t="n">
+        <v>-0.01131461168908758</v>
+      </c>
+      <c r="G820" t="n">
+        <v>0.2045939589546089</v>
+      </c>
+      <c r="H820" t="n">
+        <v>-0.5604727309264568</v>
+      </c>
+      <c r="I820" t="n">
+        <v>5.218431885528368</v>
+      </c>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
+      <c r="L820" t="inlineStr"/>
+      <c r="M820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D821" t="n">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="E821" t="n">
+        <v>115744.2328964068</v>
+      </c>
+      <c r="F821" t="n">
+        <v>-0.01428943651869636</v>
+      </c>
+      <c r="G821" t="n">
+        <v>0.2051886454571602</v>
+      </c>
+      <c r="H821" t="n">
+        <v>-0.4031830220238187</v>
+      </c>
+      <c r="I821" t="n">
+        <v>4.761088007090696</v>
+      </c>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
+      <c r="L821" t="inlineStr"/>
+      <c r="M821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D822" t="n">
+        <v>0.7287671232876712</v>
+      </c>
+      <c r="E822" t="n">
+        <v>115896.2040295099</v>
+      </c>
+      <c r="F822" t="n">
+        <v>-0.032632487527276</v>
+      </c>
+      <c r="G822" t="n">
+        <v>0.2093133162937546</v>
+      </c>
+      <c r="H822" t="n">
+        <v>-1.367002483580489</v>
+      </c>
+      <c r="I822" t="n">
+        <v>9.01776789703051</v>
+      </c>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
+      <c r="L822" t="inlineStr"/>
+      <c r="M822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D823" t="n">
+        <v>0.8054794520547945</v>
+      </c>
+      <c r="E823" t="n">
+        <v>117591.1708460943</v>
+      </c>
+      <c r="F823" t="n">
+        <v>-0.05756627903728836</v>
+      </c>
+      <c r="G823" t="n">
+        <v>0.3136165992303823</v>
+      </c>
+      <c r="H823" t="n">
+        <v>-1.583661129879171</v>
+      </c>
+      <c r="I823" t="n">
+        <v>9.505436324235388</v>
+      </c>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
+      <c r="L823" t="inlineStr"/>
+      <c r="M823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D824" t="n">
+        <v>1.054794520547945</v>
+      </c>
+      <c r="E824" t="n">
+        <v>118988.9405505411</v>
+      </c>
+      <c r="F824" t="n">
+        <v>-0.09833901090262025</v>
+      </c>
+      <c r="G824" t="n">
+        <v>0.4186621339055681</v>
+      </c>
+      <c r="H824" t="n">
+        <v>-1.930336354359066</v>
+      </c>
+      <c r="I824" t="n">
+        <v>10.06319598730032</v>
+      </c>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
+      <c r="L824" t="inlineStr"/>
+      <c r="M824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D825" t="n">
+        <v>1.301369863013699</v>
+      </c>
+      <c r="E825" t="n">
+        <v>120893.2601175081</v>
+      </c>
+      <c r="F825" t="n">
+        <v>-0.1603343416758367</v>
+      </c>
+      <c r="G825" t="n">
+        <v>0.6466744142559917</v>
+      </c>
+      <c r="H825" t="n">
+        <v>-2.221641284329906</v>
+      </c>
+      <c r="I825" t="n">
+        <v>9.531777449110113</v>
+      </c>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="inlineStr"/>
+      <c r="M825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D826" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E826" t="n">
+        <v>111922.4848009286</v>
+      </c>
+      <c r="F826" t="n">
+        <v>0.04762781495851497</v>
+      </c>
+      <c r="G826" t="n">
+        <v>0.08711891077207809</v>
+      </c>
+      <c r="H826" t="n">
+        <v>-0.6451696411852456</v>
+      </c>
+      <c r="I826" t="n">
+        <v>5.799865174877321</v>
+      </c>
+      <c r="J826" t="n">
+        <v>0.01517991677278606</v>
+      </c>
+      <c r="K826" t="n">
+        <v>0.011610365631929</v>
+      </c>
+      <c r="L826" t="n">
+        <v>0.6004555249989233</v>
+      </c>
+      <c r="M826" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D827" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E827" t="n">
+        <v>111913.636236021</v>
+      </c>
+      <c r="F827" t="n">
+        <v>0.0150794376495774</v>
+      </c>
+      <c r="G827" t="n">
+        <v>0.153530327157326</v>
+      </c>
+      <c r="H827" t="n">
+        <v>-0.8414873904767076</v>
+      </c>
+      <c r="I827" t="n">
+        <v>7.011937907066979</v>
+      </c>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="inlineStr"/>
+      <c r="M827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D828" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E828" t="n">
+        <v>111992.6742273136</v>
+      </c>
+      <c r="F828" t="n">
+        <v>0.04413863204402541</v>
+      </c>
+      <c r="G828" t="n">
+        <v>0.1239319196069358</v>
+      </c>
+      <c r="H828" t="n">
+        <v>-0.3799280037148337</v>
+      </c>
+      <c r="I828" t="n">
+        <v>4.67882136465155</v>
+      </c>
+      <c r="J828" t="n">
+        <v>0.03844845610568442</v>
+      </c>
+      <c r="K828" t="n">
+        <v>0.01033204899200667</v>
+      </c>
+      <c r="L828" t="n">
+        <v>0.02964126085934176</v>
+      </c>
+      <c r="M828" t="n">
+        <v>1.252041615773261</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D829" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E829" t="n">
+        <v>111922.4151948104</v>
+      </c>
+      <c r="F829" t="n">
+        <v>0.03155389514894694</v>
+      </c>
+      <c r="G829" t="n">
+        <v>0.1428362445838861</v>
+      </c>
+      <c r="H829" t="n">
+        <v>-0.7838226599377212</v>
+      </c>
+      <c r="I829" t="n">
+        <v>6.07017067294946</v>
+      </c>
+      <c r="J829" t="n">
+        <v>0.1225871604057971</v>
+      </c>
+      <c r="K829" t="n">
+        <v>0.03658292543881253</v>
+      </c>
+      <c r="L829" t="n">
+        <v>0.7269108226853095</v>
+      </c>
+      <c r="M829" t="n">
+        <v>2.283258046995905</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D830" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E830" t="n">
+        <v>111949.0290608311</v>
+      </c>
+      <c r="F830" t="n">
+        <v>0.02820439540375154</v>
+      </c>
+      <c r="G830" t="n">
+        <v>0.1567903892481256</v>
+      </c>
+      <c r="H830" t="n">
+        <v>-0.6609413669389544</v>
+      </c>
+      <c r="I830" t="n">
+        <v>5.829481920231169</v>
+      </c>
+      <c r="J830" t="n">
+        <v>0.1857726821611913</v>
+      </c>
+      <c r="K830" t="n">
+        <v>0.05044782199651743</v>
+      </c>
+      <c r="L830" t="n">
+        <v>0.3093338362019623</v>
+      </c>
+      <c r="M830" t="n">
+        <v>1.524200376593016</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D831" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E831" t="n">
+        <v>111872.231584931</v>
+      </c>
+      <c r="F831" t="n">
+        <v>0.01892712527436574</v>
+      </c>
+      <c r="G831" t="n">
+        <v>0.1702764310070614</v>
+      </c>
+      <c r="H831" t="n">
+        <v>-1.604158327874284</v>
+      </c>
+      <c r="I831" t="n">
+        <v>15.01642476338653</v>
+      </c>
+      <c r="J831" t="n">
+        <v>0.2516799863301211</v>
+      </c>
+      <c r="K831" t="n">
+        <v>0.0693036267396242</v>
+      </c>
+      <c r="L831" t="n">
+        <v>0.166800521123699</v>
+      </c>
+      <c r="M831" t="n">
+        <v>1.492689794117197</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D832" t="n">
+        <v>0.03835616438356165</v>
+      </c>
+      <c r="E832" t="n">
+        <v>111980.2028822354</v>
+      </c>
+      <c r="F832" t="n">
+        <v>0.01053782083727607</v>
+      </c>
+      <c r="G832" t="n">
+        <v>0.1625916714896777</v>
+      </c>
+      <c r="H832" t="n">
+        <v>-0.79344328612077</v>
+      </c>
+      <c r="I832" t="n">
+        <v>7.251224732472367</v>
+      </c>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="inlineStr"/>
+      <c r="M832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D833" t="n">
+        <v>0.07671232876712329</v>
+      </c>
+      <c r="E833" t="n">
+        <v>112967.1226771672</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0.02772516384122036</v>
+      </c>
+      <c r="G833" t="n">
+        <v>0.1595180809597363</v>
+      </c>
+      <c r="H833" t="n">
+        <v>-0.5854302720873038</v>
+      </c>
+      <c r="I833" t="n">
+        <v>5.571798574880623</v>
+      </c>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="inlineStr"/>
+      <c r="M833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D834" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="E834" t="n">
+        <v>112806.9498575561</v>
+      </c>
+      <c r="F834" t="n">
+        <v>0.01433507702473926</v>
+      </c>
+      <c r="G834" t="n">
+        <v>0.168378615873762</v>
+      </c>
+      <c r="H834" t="n">
+        <v>-0.6562902607940158</v>
+      </c>
+      <c r="I834" t="n">
+        <v>5.371320605976026</v>
+      </c>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="inlineStr"/>
+      <c r="M834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D835" t="n">
+        <v>0.04931506849315068</v>
+      </c>
+      <c r="E835" t="n">
+        <v>112475.662957574</v>
+      </c>
+      <c r="F835" t="n">
+        <v>-0.01140724445524908</v>
+      </c>
+      <c r="G835" t="n">
+        <v>0.1479596428958266</v>
+      </c>
+      <c r="H835" t="n">
+        <v>-0.8570923606517562</v>
+      </c>
+      <c r="I835" t="n">
+        <v>7.170469853157511</v>
+      </c>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="inlineStr"/>
+      <c r="M835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D836" t="n">
+        <v>0.1452054794520548</v>
+      </c>
+      <c r="E836" t="n">
+        <v>113312.1531741012</v>
+      </c>
+      <c r="F836" t="n">
+        <v>-0.008099423416980949</v>
+      </c>
+      <c r="G836" t="n">
+        <v>0.1674370927440353</v>
+      </c>
+      <c r="H836" t="n">
+        <v>-1.303595366108981</v>
+      </c>
+      <c r="I836" t="n">
+        <v>11.75268514010502</v>
+      </c>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="inlineStr"/>
+      <c r="M836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D837" t="n">
+        <v>0.2219178082191781</v>
+      </c>
+      <c r="E837" t="n">
+        <v>114012.9960156796</v>
+      </c>
+      <c r="F837" t="n">
+        <v>-0.012793570798794</v>
+      </c>
+      <c r="G837" t="n">
+        <v>0.2077691993767707</v>
+      </c>
+      <c r="H837" t="n">
+        <v>-2.505932944546365</v>
+      </c>
+      <c r="I837" t="n">
+        <v>28.71420195217609</v>
+      </c>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="inlineStr"/>
+      <c r="M837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D838" t="n">
+        <v>0.2986301369863014</v>
+      </c>
+      <c r="E838" t="n">
+        <v>114772.4762990291</v>
+      </c>
+      <c r="F838" t="n">
+        <v>-0.01270215520375952</v>
+      </c>
+      <c r="G838" t="n">
+        <v>0.2013345021341199</v>
+      </c>
+      <c r="H838" t="n">
+        <v>-1.073502543772299</v>
+      </c>
+      <c r="I838" t="n">
+        <v>8.792760753136537</v>
+      </c>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="inlineStr"/>
+      <c r="M838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D839" t="n">
+        <v>0.3945205479452055</v>
+      </c>
+      <c r="E839" t="n">
+        <v>115925.7710213943</v>
+      </c>
+      <c r="F839" t="n">
+        <v>-0.01070196667881092</v>
+      </c>
+      <c r="G839" t="n">
+        <v>0.1998130525869451</v>
+      </c>
+      <c r="H839" t="n">
+        <v>-0.8023875817831331</v>
+      </c>
+      <c r="I839" t="n">
+        <v>7.399622717820547</v>
+      </c>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="inlineStr"/>
+      <c r="M839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D840" t="n">
+        <v>0.4712328767123288</v>
+      </c>
+      <c r="E840" t="n">
+        <v>116306.7190943286</v>
+      </c>
+      <c r="F840" t="n">
+        <v>-0.02223758087095558</v>
+      </c>
+      <c r="G840" t="n">
+        <v>0.227079742128506</v>
+      </c>
+      <c r="H840" t="n">
+        <v>-1.179416438324198</v>
+      </c>
+      <c r="I840" t="n">
+        <v>8.389009548028856</v>
+      </c>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="inlineStr"/>
+      <c r="M840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D841" t="n">
+        <v>0.7205479452054795</v>
+      </c>
+      <c r="E841" t="n">
+        <v>116442.3861980024</v>
+      </c>
+      <c r="F841" t="n">
+        <v>-0.03448748950367278</v>
+      </c>
+      <c r="G841" t="n">
+        <v>0.2029215864781988</v>
+      </c>
+      <c r="H841" t="n">
+        <v>-1.368716605644995</v>
+      </c>
+      <c r="I841" t="n">
+        <v>9.458329263714418</v>
+      </c>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="inlineStr"/>
+      <c r="M841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D842" t="n">
+        <v>0.7972602739726027</v>
+      </c>
+      <c r="E842" t="n">
+        <v>117951.8372220107</v>
+      </c>
+      <c r="F842" t="n">
+        <v>-0.0613640345435921</v>
+      </c>
+      <c r="G842" t="n">
+        <v>0.3077364299375565</v>
+      </c>
+      <c r="H842" t="n">
+        <v>-1.520785764836273</v>
+      </c>
+      <c r="I842" t="n">
+        <v>8.9093404038132</v>
+      </c>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="inlineStr"/>
+      <c r="M842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D843" t="n">
+        <v>1.046575342465753</v>
+      </c>
+      <c r="E843" t="n">
+        <v>119528.7813635168</v>
+      </c>
+      <c r="F843" t="n">
+        <v>-0.09413004086265164</v>
+      </c>
+      <c r="G843" t="n">
+        <v>0.3762842735929738</v>
+      </c>
+      <c r="H843" t="n">
+        <v>-1.524244133288902</v>
+      </c>
+      <c r="I843" t="n">
+        <v>7.404424575030574</v>
+      </c>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="inlineStr"/>
+      <c r="M843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D844" t="n">
+        <v>1.293150684931507</v>
+      </c>
+      <c r="E844" t="n">
+        <v>124114.848909564</v>
+      </c>
+      <c r="F844" t="n">
+        <v>-0.09117028907325496</v>
+      </c>
+      <c r="G844" t="n">
+        <v>0.4233968085335629</v>
+      </c>
+      <c r="H844" t="n">
+        <v>-1.776333503404707</v>
+      </c>
+      <c r="I844" t="n">
+        <v>7.648188420902539</v>
+      </c>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="inlineStr"/>
+      <c r="M844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D845" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E845" t="n">
+        <v>112482.3875728318</v>
+      </c>
+      <c r="F845" t="n">
+        <v>-0.002507994126054419</v>
+      </c>
+      <c r="G845" t="n">
+        <v>0.1443621796361534</v>
+      </c>
+      <c r="H845" t="n">
+        <v>-0.7780749770495108</v>
+      </c>
+      <c r="I845" t="n">
+        <v>6.288697433255122</v>
+      </c>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="inlineStr"/>
+      <c r="M845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D846" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E846" t="n">
+        <v>112480.9607316328</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0.0150908187715532</v>
+      </c>
+      <c r="G846" t="n">
+        <v>0.1706598524907748</v>
+      </c>
+      <c r="H846" t="n">
+        <v>-0.08230811079841927</v>
+      </c>
+      <c r="I846" t="n">
+        <v>2.854703979207449</v>
+      </c>
+      <c r="J846" t="n">
+        <v>-0.0566961977795883</v>
+      </c>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="inlineStr"/>
+      <c r="M846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D847" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E847" t="n">
+        <v>112458.2279090198</v>
+      </c>
+      <c r="F847" t="n">
+        <v>-0.005862230499384257</v>
+      </c>
+      <c r="G847" t="n">
+        <v>0.1559461381421021</v>
+      </c>
+      <c r="H847" t="n">
+        <v>-1.301167218025355</v>
+      </c>
+      <c r="I847" t="n">
+        <v>12.53748302699012</v>
+      </c>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="inlineStr"/>
+      <c r="M847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D848" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E848" t="n">
+        <v>112515.9762390781</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0.01323934363543634</v>
+      </c>
+      <c r="G848" t="n">
+        <v>0.1292365718580022</v>
+      </c>
+      <c r="H848" t="n">
+        <v>-0.2941812139323229</v>
+      </c>
+      <c r="I848" t="n">
+        <v>3.649714375147955</v>
+      </c>
+      <c r="J848" t="n">
+        <v>0.1187477539713453</v>
+      </c>
+      <c r="K848" t="n">
+        <v>0.03078058020598393</v>
+      </c>
+      <c r="L848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M848" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D849" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E849" t="n">
+        <v>112453.5870632726</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0.001925339802519785</v>
+      </c>
+      <c r="G849" t="n">
+        <v>0.1471464165632581</v>
+      </c>
+      <c r="H849" t="n">
+        <v>-0.6512128457295741</v>
+      </c>
+      <c r="I849" t="n">
+        <v>4.665193692170698</v>
+      </c>
+      <c r="J849" t="n">
+        <v>0.1914151756656277</v>
+      </c>
+      <c r="K849" t="n">
+        <v>0.03108149515537862</v>
+      </c>
+      <c r="L849" t="n">
+        <v>-0.6763282335868304</v>
+      </c>
+      <c r="M849" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D850" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E850" t="n">
+        <v>112457.6135103974</v>
+      </c>
+      <c r="F850" t="n">
+        <v>-0.0002936800205633542</v>
+      </c>
+      <c r="G850" t="n">
+        <v>0.1543298320016014</v>
+      </c>
+      <c r="H850" t="n">
+        <v>-0.6487565508246312</v>
+      </c>
+      <c r="I850" t="n">
+        <v>4.764132664041259</v>
+      </c>
+      <c r="J850" t="n">
+        <v>0.2641047666141533</v>
+      </c>
+      <c r="K850" t="n">
+        <v>0.03916245126332588</v>
+      </c>
+      <c r="L850" t="n">
+        <v>-0.7172214601094596</v>
+      </c>
+      <c r="M850" t="n">
+        <v>2.09969529306094</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D851" t="n">
+        <v>0.03013698630136986</v>
+      </c>
+      <c r="E851" t="n">
+        <v>112456.2436100248</v>
+      </c>
+      <c r="F851" t="n">
+        <v>-0.008741226341814163</v>
+      </c>
+      <c r="G851" t="n">
+        <v>0.1516867128355948</v>
+      </c>
+      <c r="H851" t="n">
+        <v>-0.892777600240229</v>
+      </c>
+      <c r="I851" t="n">
+        <v>7.989412686763538</v>
+      </c>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="inlineStr"/>
+      <c r="M851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D852" t="n">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="E852" t="n">
+        <v>113432.6861886893</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0.01519265919609604</v>
+      </c>
+      <c r="G852" t="n">
+        <v>0.1554297902898029</v>
+      </c>
+      <c r="H852" t="n">
+        <v>-0.6966288237316405</v>
+      </c>
+      <c r="I852" t="n">
+        <v>5.976765079822982</v>
+      </c>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="inlineStr"/>
+      <c r="M852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D853" t="n">
+        <v>0.08767123287671233</v>
+      </c>
+      <c r="E853" t="n">
+        <v>113506.1505157483</v>
+      </c>
+      <c r="F853" t="n">
+        <v>0.01119191427840498</v>
+      </c>
+      <c r="G853" t="n">
+        <v>0.1510260353990546</v>
+      </c>
+      <c r="H853" t="n">
+        <v>-0.5673556417208362</v>
+      </c>
+      <c r="I853" t="n">
+        <v>5.362469780063074</v>
+      </c>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="inlineStr"/>
+      <c r="M853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D854" t="n">
+        <v>0.04657534246575343</v>
+      </c>
+      <c r="E854" t="n">
+        <v>111692.8557318299</v>
+      </c>
+      <c r="F854" t="n">
+        <v>-0.02978019917966164</v>
+      </c>
+      <c r="G854" t="n">
+        <v>0.151382802620357</v>
+      </c>
+      <c r="H854" t="n">
+        <v>-0.9054379426187182</v>
+      </c>
+      <c r="I854" t="n">
+        <v>7.342438936742024</v>
+      </c>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="inlineStr"/>
+      <c r="M854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D855" t="n">
+        <v>0.1424657534246575</v>
+      </c>
+      <c r="E855" t="n">
+        <v>112533.3663530384</v>
+      </c>
+      <c r="F855" t="n">
+        <v>-0.01909430404073182</v>
+      </c>
+      <c r="G855" t="n">
+        <v>0.1728155143652927</v>
+      </c>
+      <c r="H855" t="n">
+        <v>-1.197035217388404</v>
+      </c>
+      <c r="I855" t="n">
+        <v>10.83309386973573</v>
+      </c>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="inlineStr"/>
+      <c r="M855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D856" t="n">
+        <v>0.2191780821917808</v>
+      </c>
+      <c r="E856" t="n">
+        <v>113288.9772318856</v>
+      </c>
+      <c r="F856" t="n">
+        <v>-0.01747892637678835</v>
+      </c>
+      <c r="G856" t="n">
+        <v>0.1849611553562259</v>
+      </c>
+      <c r="H856" t="n">
+        <v>-1.072600169010829</v>
+      </c>
+      <c r="I856" t="n">
+        <v>9.790210802075562</v>
+      </c>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="inlineStr"/>
+      <c r="M856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D857" t="n">
+        <v>0.2958904109589041</v>
+      </c>
+      <c r="E857" t="n">
+        <v>113900.3231499783</v>
+      </c>
+      <c r="F857" t="n">
+        <v>-0.02368654860695967</v>
+      </c>
+      <c r="G857" t="n">
+        <v>0.2163594752020082</v>
+      </c>
+      <c r="H857" t="n">
+        <v>-1.339703353023801</v>
+      </c>
+      <c r="I857" t="n">
+        <v>10.59577337693559</v>
+      </c>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="inlineStr"/>
+      <c r="M857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D858" t="n">
+        <v>0.3917808219178082</v>
+      </c>
+      <c r="E858" t="n">
+        <v>115144.3146739977</v>
+      </c>
+      <c r="F858" t="n">
+        <v>-0.01639491294144225</v>
+      </c>
+      <c r="G858" t="n">
+        <v>0.1993073123251151</v>
+      </c>
+      <c r="H858" t="n">
+        <v>-0.7577353613084802</v>
+      </c>
+      <c r="I858" t="n">
+        <v>7.358984147436302</v>
+      </c>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="inlineStr"/>
+      <c r="M858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D859" t="n">
+        <v>0.4684931506849315</v>
+      </c>
+      <c r="E859" t="n">
+        <v>115387.2238974011</v>
+      </c>
+      <c r="F859" t="n">
+        <v>-0.02329718423332614</v>
+      </c>
+      <c r="G859" t="n">
+        <v>0.1995879168664023</v>
+      </c>
+      <c r="H859" t="n">
+        <v>-0.458548781342674</v>
+      </c>
+      <c r="I859" t="n">
+        <v>4.907928602178837</v>
+      </c>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="inlineStr"/>
+      <c r="M859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D860" t="n">
+        <v>0.7178082191780822</v>
+      </c>
+      <c r="E860" t="n">
+        <v>115643.8970641071</v>
+      </c>
+      <c r="F860" t="n">
+        <v>-0.03772782925476648</v>
+      </c>
+      <c r="G860" t="n">
+        <v>0.1979718113957536</v>
+      </c>
+      <c r="H860" t="n">
+        <v>-1.26383357387501</v>
+      </c>
+      <c r="I860" t="n">
+        <v>8.61775566765486</v>
+      </c>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="inlineStr"/>
+      <c r="M860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D861" t="n">
+        <v>0.7945205479452054</v>
+      </c>
+      <c r="E861" t="n">
+        <v>117145.8746894842</v>
+      </c>
+      <c r="F861" t="n">
+        <v>-0.06899021943994139</v>
+      </c>
+      <c r="G861" t="n">
+        <v>0.3365088729482733</v>
+      </c>
+      <c r="H861" t="n">
+        <v>-2.147626684546458</v>
+      </c>
+      <c r="I861" t="n">
+        <v>14.56777003057582</v>
+      </c>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
+      <c r="L861" t="inlineStr"/>
+      <c r="M861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D862" t="n">
+        <v>1.043835616438356</v>
+      </c>
+      <c r="E862" t="n">
+        <v>119065.8908675039</v>
+      </c>
+      <c r="F862" t="n">
+        <v>-0.09262717413222762</v>
+      </c>
+      <c r="G862" t="n">
+        <v>0.3716522798905745</v>
+      </c>
+      <c r="H862" t="n">
+        <v>-1.568533238273599</v>
+      </c>
+      <c r="I862" t="n">
+        <v>7.749363819803936</v>
+      </c>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
+      <c r="L862" t="inlineStr"/>
+      <c r="M862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D863" t="n">
+        <v>1.29041095890411</v>
+      </c>
+      <c r="E863" t="n">
+        <v>120553.510853111</v>
+      </c>
+      <c r="F863" t="n">
+        <v>-0.1721178514439965</v>
+      </c>
+      <c r="G863" t="n">
+        <v>0.6900071227775538</v>
+      </c>
+      <c r="H863" t="n">
+        <v>-2.465197232454836</v>
+      </c>
+      <c r="I863" t="n">
+        <v>11.56419141630363</v>
+      </c>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
+      <c r="L863" t="inlineStr"/>
+      <c r="M863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D864" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E864" t="n">
+        <v>111670.0798448132</v>
+      </c>
+      <c r="F864" t="n">
+        <v>-0.03411409254850937</v>
+      </c>
+      <c r="G864" t="n">
+        <v>0.1370553137700598</v>
+      </c>
+      <c r="H864" t="n">
+        <v>-0.765143271326474</v>
+      </c>
+      <c r="I864" t="n">
+        <v>5.569029515826807</v>
+      </c>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
+      <c r="L864" t="inlineStr"/>
+      <c r="M864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D865" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E865" t="n">
+        <v>111665.0203247202</v>
+      </c>
+      <c r="F865" t="n">
+        <v>-0.03576786013764902</v>
+      </c>
+      <c r="G865" t="n">
+        <v>0.177376198156932</v>
+      </c>
+      <c r="H865" t="n">
+        <v>-2.068079523258437</v>
+      </c>
+      <c r="I865" t="n">
+        <v>20.1619959523439</v>
+      </c>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="inlineStr"/>
+      <c r="M865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D866" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E866" t="n">
+        <v>111688.7990336683</v>
+      </c>
+      <c r="F866" t="n">
+        <v>-0.06296146532803061</v>
+      </c>
+      <c r="G866" t="n">
+        <v>0.1584295623194165</v>
+      </c>
+      <c r="H866" t="n">
+        <v>-0.2874276068137356</v>
+      </c>
+      <c r="I866" t="n">
+        <v>3.532153242931081</v>
+      </c>
+      <c r="J866" t="n">
+        <v>0.3508879035018694</v>
+      </c>
+      <c r="K866" t="inlineStr"/>
+      <c r="L866" t="inlineStr"/>
+      <c r="M866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D867" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E867" t="n">
+        <v>111679.8640223027</v>
+      </c>
+      <c r="F867" t="n">
+        <v>-0.03284312000629162</v>
+      </c>
+      <c r="G867" t="n">
+        <v>0.154014745352272</v>
+      </c>
+      <c r="H867" t="n">
+        <v>-0.7949601440235577</v>
+      </c>
+      <c r="I867" t="n">
+        <v>6.163366665062721</v>
+      </c>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
+      <c r="L867" t="inlineStr"/>
+      <c r="M867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D868" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E868" t="n">
+        <v>111666.0790384044</v>
+      </c>
+      <c r="F868" t="n">
+        <v>-0.05063734851008633</v>
+      </c>
+      <c r="G868" t="n">
+        <v>0.1645880042060623</v>
+      </c>
+      <c r="H868" t="n">
+        <v>-0.6960658641234545</v>
+      </c>
+      <c r="I868" t="n">
+        <v>5.014656566263765</v>
+      </c>
+      <c r="J868" t="n">
+        <v>0.372167060167827</v>
+      </c>
+      <c r="K868" t="n">
+        <v>0.0004528025084143649</v>
+      </c>
+      <c r="L868" t="n">
+        <v>0</v>
+      </c>
+      <c r="M868" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D869" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E869" t="n">
+        <v>111832.5791653157</v>
+      </c>
+      <c r="F869" t="n">
+        <v>-0.02580327913082217</v>
+      </c>
+      <c r="G869" t="n">
+        <v>0.1321951162532141</v>
+      </c>
+      <c r="H869" t="n">
+        <v>-0.1376978415711794</v>
+      </c>
+      <c r="I869" t="n">
+        <v>3.261113816929032</v>
+      </c>
+      <c r="J869" t="n">
+        <v>0.4277346191916581</v>
+      </c>
+      <c r="K869" t="n">
+        <v>0.006477375570676819</v>
+      </c>
+      <c r="L869" t="n">
+        <v>0.5617269463841342</v>
+      </c>
+      <c r="M869" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D870" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E870" t="n">
+        <v>111692.7655187572</v>
+      </c>
+      <c r="F870" t="n">
+        <v>-0.03077740083379396</v>
+      </c>
+      <c r="G870" t="n">
+        <v>0.1498019996298361</v>
+      </c>
+      <c r="H870" t="n">
+        <v>-0.659716127185082</v>
+      </c>
+      <c r="I870" t="n">
+        <v>4.395867897681192</v>
+      </c>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
+      <c r="L870" t="inlineStr"/>
+      <c r="M870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D871" t="n">
+        <v>0.06575342465753424</v>
+      </c>
+      <c r="E871" t="n">
+        <v>112661.4737912152</v>
+      </c>
+      <c r="F871" t="n">
+        <v>0.0005820466789978624</v>
+      </c>
+      <c r="G871" t="n">
+        <v>0.1607083540159102</v>
+      </c>
+      <c r="H871" t="n">
+        <v>-0.7126075700381211</v>
+      </c>
+      <c r="I871" t="n">
+        <v>6.152338567716306</v>
+      </c>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
+      <c r="L871" t="inlineStr"/>
+      <c r="M871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D872" t="n">
+        <v>0.08493150684931507</v>
+      </c>
+      <c r="E872" t="n">
+        <v>112740.4488893053</v>
+      </c>
+      <c r="F872" t="n">
+        <v>-0.001688626208177548</v>
+      </c>
+      <c r="G872" t="n">
+        <v>0.1556460445123202</v>
+      </c>
+      <c r="H872" t="n">
+        <v>-0.5878175865459662</v>
+      </c>
+      <c r="I872" t="n">
+        <v>5.49745497074329</v>
+      </c>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
+      <c r="L872" t="inlineStr"/>
+      <c r="M872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D873" t="n">
+        <v>0.04383561643835616</v>
+      </c>
+      <c r="E873" t="n">
+        <v>113966.0020390408</v>
+      </c>
+      <c r="F873" t="n">
+        <v>-0.02019068875068475</v>
+      </c>
+      <c r="G873" t="n">
+        <v>0.1422298944151117</v>
+      </c>
+      <c r="H873" t="n">
+        <v>-1.155574717578378</v>
+      </c>
+      <c r="I873" t="n">
+        <v>9.067577376010485</v>
+      </c>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
+      <c r="L873" t="inlineStr"/>
+      <c r="M873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D874" t="n">
+        <v>0.1397260273972603</v>
+      </c>
+      <c r="E874" t="n">
+        <v>114844.0209407878</v>
+      </c>
+      <c r="F874" t="n">
+        <v>-0.01147814113835749</v>
+      </c>
+      <c r="G874" t="n">
+        <v>0.1601478971891726</v>
+      </c>
+      <c r="H874" t="n">
+        <v>-0.9580917562449961</v>
+      </c>
+      <c r="I874" t="n">
+        <v>8.774752746187053</v>
+      </c>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
+      <c r="L874" t="inlineStr"/>
+      <c r="M874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D875" t="n">
+        <v>0.2164383561643836</v>
+      </c>
+      <c r="E875" t="n">
+        <v>115515.869752923</v>
+      </c>
+      <c r="F875" t="n">
+        <v>-0.01592502307528787</v>
+      </c>
+      <c r="G875" t="n">
+        <v>0.1990772191342972</v>
+      </c>
+      <c r="H875" t="n">
+        <v>-2.054822895080575</v>
+      </c>
+      <c r="I875" t="n">
+        <v>22.59032950166808</v>
+      </c>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
+      <c r="L875" t="inlineStr"/>
+      <c r="M875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D876" t="n">
+        <v>0.2931506849315069</v>
+      </c>
+      <c r="E876" t="n">
+        <v>116211.0805787633</v>
+      </c>
+      <c r="F876" t="n">
+        <v>-0.01862042913758765</v>
+      </c>
+      <c r="G876" t="n">
+        <v>0.2098840880663143</v>
+      </c>
+      <c r="H876" t="n">
+        <v>-1.346662516236812</v>
+      </c>
+      <c r="I876" t="n">
+        <v>11.11023615142587</v>
+      </c>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
+      <c r="L876" t="inlineStr"/>
+      <c r="M876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D877" t="n">
+        <v>0.389041095890411</v>
+      </c>
+      <c r="E877" t="n">
+        <v>117085.3086362548</v>
+      </c>
+      <c r="F877" t="n">
+        <v>-0.01804408797976221</v>
+      </c>
+      <c r="G877" t="n">
+        <v>0.1957327655809966</v>
+      </c>
+      <c r="H877" t="n">
+        <v>-0.5089991861496532</v>
+      </c>
+      <c r="I877" t="n">
+        <v>5.447365761971636</v>
+      </c>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
+      <c r="L877" t="inlineStr"/>
+      <c r="M877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D878" t="n">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="E878" t="n">
+        <v>117651.688109483</v>
+      </c>
+      <c r="F878" t="n">
+        <v>-0.02112700459447586</v>
+      </c>
+      <c r="G878" t="n">
+        <v>0.1985533269114679</v>
+      </c>
+      <c r="H878" t="n">
+        <v>-0.447509631384117</v>
+      </c>
+      <c r="I878" t="n">
+        <v>4.924906125811309</v>
+      </c>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
+      <c r="L878" t="inlineStr"/>
+      <c r="M878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D879" t="n">
+        <v>0.7150684931506849</v>
+      </c>
+      <c r="E879" t="n">
+        <v>118033.0961083623</v>
+      </c>
+      <c r="F879" t="n">
+        <v>-0.03100746028196988</v>
+      </c>
+      <c r="G879" t="n">
+        <v>0.1829234050421697</v>
+      </c>
+      <c r="H879" t="n">
+        <v>-1.044357573098943</v>
+      </c>
+      <c r="I879" t="n">
+        <v>7.623420468169047</v>
+      </c>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
+      <c r="L879" t="inlineStr"/>
+      <c r="M879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D880" t="n">
+        <v>0.7917808219178082</v>
+      </c>
+      <c r="E880" t="n">
+        <v>119644.0947283433</v>
+      </c>
+      <c r="F880" t="n">
+        <v>-0.05873003840620205</v>
+      </c>
+      <c r="G880" t="n">
+        <v>0.2998770116182286</v>
+      </c>
+      <c r="H880" t="n">
+        <v>-1.639501452798533</v>
+      </c>
+      <c r="I880" t="n">
+        <v>10.22861815132921</v>
+      </c>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
+      <c r="L880" t="inlineStr"/>
+      <c r="M880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D881" t="n">
+        <v>1.041095890410959</v>
+      </c>
+      <c r="E881" t="n">
+        <v>121131.23864154</v>
+      </c>
+      <c r="F881" t="n">
+        <v>-0.09440700874141618</v>
+      </c>
+      <c r="G881" t="n">
+        <v>0.3724649451006405</v>
+      </c>
+      <c r="H881" t="n">
+        <v>-1.539195331449584</v>
+      </c>
+      <c r="I881" t="n">
+        <v>7.638666498372044</v>
+      </c>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
+      <c r="L881" t="inlineStr"/>
+      <c r="M881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D882" t="n">
+        <v>1.287671232876712</v>
+      </c>
+      <c r="E882" t="n">
+        <v>123015.1402100438</v>
+      </c>
+      <c r="F882" t="n">
+        <v>-0.1663162442947912</v>
+      </c>
+      <c r="G882" t="n">
+        <v>0.6741482216423634</v>
+      </c>
+      <c r="H882" t="n">
+        <v>-2.481752741124204</v>
+      </c>
+      <c r="I882" t="n">
+        <v>11.77182058450353</v>
+      </c>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
+      <c r="L882" t="inlineStr"/>
+      <c r="M882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D883" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E883" t="n">
+        <v>113993.9418785267</v>
+      </c>
+      <c r="F883" t="n">
+        <v>-0.01465248833798145</v>
+      </c>
+      <c r="G883" t="n">
+        <v>0.1033554704649684</v>
+      </c>
+      <c r="H883" t="n">
+        <v>-0.4606119637827947</v>
+      </c>
+      <c r="I883" t="n">
+        <v>4.846217837762755</v>
+      </c>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
+      <c r="L883" t="inlineStr"/>
+      <c r="M883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D884" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E884" t="n">
+        <v>113964.1828323864</v>
+      </c>
+      <c r="F884" t="n">
+        <v>-0.01790247203149638</v>
+      </c>
+      <c r="G884" t="n">
+        <v>0.1248690766954584</v>
+      </c>
+      <c r="H884" t="n">
+        <v>-0.6019047713575554</v>
+      </c>
+      <c r="I884" t="n">
+        <v>6.231117724616652</v>
+      </c>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
+      <c r="L884" t="inlineStr"/>
+      <c r="M884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D885" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E885" t="n">
+        <v>113973.5165954895</v>
+      </c>
+      <c r="F885" t="n">
+        <v>-0.01800359444710063</v>
+      </c>
+      <c r="G885" t="n">
+        <v>0.1362922172484409</v>
+      </c>
+      <c r="H885" t="n">
+        <v>-0.7495326897990063</v>
+      </c>
+      <c r="I885" t="n">
+        <v>8.339794479936625</v>
+      </c>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="inlineStr"/>
+      <c r="M885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D886" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E886" t="n">
+        <v>113965.5365941751</v>
+      </c>
+      <c r="F886" t="n">
+        <v>-0.02906250579649617</v>
+      </c>
+      <c r="G886" t="n">
+        <v>0.1937452402338606</v>
+      </c>
+      <c r="H886" t="n">
+        <v>-0.3055711069215656</v>
+      </c>
+      <c r="I886" t="n">
+        <v>3.737845614877521</v>
+      </c>
+      <c r="J886" t="n">
+        <v>0.04255831333191579</v>
+      </c>
+      <c r="K886" t="inlineStr"/>
+      <c r="L886" t="inlineStr"/>
+      <c r="M886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D887" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E887" t="n">
+        <v>113968.4134717482</v>
+      </c>
+      <c r="F887" t="n">
+        <v>-0.01871483372635751</v>
+      </c>
+      <c r="G887" t="n">
+        <v>0.1412410803627646</v>
+      </c>
+      <c r="H887" t="n">
+        <v>-1.051959857265147</v>
+      </c>
+      <c r="I887" t="n">
+        <v>9.44350494178971</v>
+      </c>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
+      <c r="L887" t="inlineStr"/>
+      <c r="M887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D888" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E888" t="n">
+        <v>113870.6143231212</v>
+      </c>
+      <c r="F888" t="n">
+        <v>-0.03457679372244465</v>
+      </c>
+      <c r="G888" t="n">
+        <v>0.1754765463214087</v>
+      </c>
+      <c r="H888" t="n">
+        <v>-2.875323048374219</v>
+      </c>
+      <c r="I888" t="n">
+        <v>41.74605748340719</v>
+      </c>
+      <c r="J888" t="n">
+        <v>0.1152700735346838</v>
+      </c>
+      <c r="K888" t="n">
+        <v>0.005287000071784839</v>
+      </c>
+      <c r="L888" t="n">
+        <v>2.820306437580456e-16</v>
+      </c>
+      <c r="M888" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D889" t="n">
+        <v>0.02465753424657534</v>
+      </c>
+      <c r="E889" t="n">
+        <v>113662.2692810884</v>
+      </c>
+      <c r="F889" t="n">
+        <v>-0.03501634020698981</v>
+      </c>
+      <c r="G889" t="n">
+        <v>0.1249154147729686</v>
+      </c>
+      <c r="H889" t="n">
+        <v>-0.977151454675463</v>
+      </c>
+      <c r="I889" t="n">
+        <v>4.886035991046247</v>
+      </c>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
+      <c r="L889" t="inlineStr"/>
+      <c r="M889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D890" t="n">
+        <v>0.06301369863013699</v>
+      </c>
+      <c r="E890" t="n">
+        <v>114852.3618998145</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0.004737104570537671</v>
+      </c>
+      <c r="G890" t="n">
+        <v>0.1681804327611288</v>
+      </c>
+      <c r="H890" t="n">
+        <v>-1.554544496040412</v>
+      </c>
+      <c r="I890" t="n">
+        <v>13.66311307545645</v>
+      </c>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
+      <c r="L890" t="inlineStr"/>
+      <c r="M890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D891" t="n">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="E891" t="n">
+        <v>114919.1486275211</v>
+      </c>
+      <c r="F891" t="n">
+        <v>0.00262655417426444</v>
+      </c>
+      <c r="G891" t="n">
+        <v>0.1529268621405513</v>
+      </c>
+      <c r="H891" t="n">
+        <v>-0.7141480375004229</v>
+      </c>
+      <c r="I891" t="n">
+        <v>6.127519854420505</v>
+      </c>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
+      <c r="L891" t="inlineStr"/>
+      <c r="M891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D892" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="E892" t="n">
+        <v>114918.5308086081</v>
+      </c>
+      <c r="F892" t="n">
+        <v>0.01118684779909018</v>
+      </c>
+      <c r="G892" t="n">
+        <v>0.1314238568440338</v>
+      </c>
+      <c r="H892" t="n">
+        <v>-1.16181985114501</v>
+      </c>
+      <c r="I892" t="n">
+        <v>11.197878828116</v>
+      </c>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
+      <c r="L892" t="inlineStr"/>
+      <c r="M892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D893" t="n">
+        <v>0.136986301369863</v>
+      </c>
+      <c r="E893" t="n">
+        <v>115796.9201424547</v>
+      </c>
+      <c r="F893" t="n">
+        <v>0.006491812400758156</v>
+      </c>
+      <c r="G893" t="n">
+        <v>0.1534774055175853</v>
+      </c>
+      <c r="H893" t="n">
+        <v>-1.005341598809046</v>
+      </c>
+      <c r="I893" t="n">
+        <v>9.359814936911434</v>
+      </c>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="inlineStr"/>
+      <c r="M893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D894" t="n">
+        <v>0.2136986301369863</v>
+      </c>
+      <c r="E894" t="n">
+        <v>116449.0693108803</v>
+      </c>
+      <c r="F894" t="n">
+        <v>-0.0005002575585284747</v>
+      </c>
+      <c r="G894" t="n">
+        <v>0.1858648855850594</v>
+      </c>
+      <c r="H894" t="n">
+        <v>-1.997911804475045</v>
+      </c>
+      <c r="I894" t="n">
+        <v>24.79221564491825</v>
+      </c>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="inlineStr"/>
+      <c r="M894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D895" t="n">
+        <v>0.2904109589041096</v>
+      </c>
+      <c r="E895" t="n">
+        <v>117150.6044848357</v>
+      </c>
+      <c r="F895" t="n">
+        <v>-0.005997622062143608</v>
+      </c>
+      <c r="G895" t="n">
+        <v>0.2038613149371446</v>
+      </c>
+      <c r="H895" t="n">
+        <v>-1.36640288000329</v>
+      </c>
+      <c r="I895" t="n">
+        <v>11.67456551442118</v>
+      </c>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="inlineStr"/>
+      <c r="M895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D896" t="n">
+        <v>0.3863013698630137</v>
+      </c>
+      <c r="E896" t="n">
+        <v>118340.540732479</v>
+      </c>
+      <c r="F896" t="n">
+        <v>-0.003068942802712522</v>
+      </c>
+      <c r="G896" t="n">
+        <v>0.1930367445363273</v>
+      </c>
+      <c r="H896" t="n">
+        <v>-0.7290535773892177</v>
+      </c>
+      <c r="I896" t="n">
+        <v>7.575851361816929</v>
+      </c>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="inlineStr"/>
+      <c r="M896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D897" t="n">
+        <v>0.463013698630137</v>
+      </c>
+      <c r="E897" t="n">
+        <v>119127.5604092949</v>
+      </c>
+      <c r="F897" t="n">
+        <v>-0.004464042831141681</v>
+      </c>
+      <c r="G897" t="n">
+        <v>0.1943644839292936</v>
+      </c>
+      <c r="H897" t="n">
+        <v>-0.5980225829751022</v>
+      </c>
+      <c r="I897" t="n">
+        <v>6.744307934915907</v>
+      </c>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="inlineStr"/>
+      <c r="M897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D898" t="n">
+        <v>0.7123287671232876</v>
+      </c>
+      <c r="E898" t="n">
+        <v>118904.8725118622</v>
+      </c>
+      <c r="F898" t="n">
+        <v>-0.02796733025776764</v>
+      </c>
+      <c r="G898" t="n">
+        <v>0.2081743371558379</v>
+      </c>
+      <c r="H898" t="n">
+        <v>-2.281703596102505</v>
+      </c>
+      <c r="I898" t="n">
+        <v>21.23155279173184</v>
+      </c>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="inlineStr"/>
+      <c r="M898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D899" t="n">
+        <v>0.7890410958904109</v>
+      </c>
+      <c r="E899" t="n">
+        <v>120402.3797145811</v>
+      </c>
+      <c r="F899" t="n">
+        <v>-0.05890508454771556</v>
+      </c>
+      <c r="G899" t="n">
+        <v>0.3320216454383011</v>
+      </c>
+      <c r="H899" t="n">
+        <v>-2.225657344303349</v>
+      </c>
+      <c r="I899" t="n">
+        <v>15.64812030733237</v>
+      </c>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
+      <c r="L899" t="inlineStr"/>
+      <c r="M899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D900" t="n">
+        <v>1.038356164383562</v>
+      </c>
+      <c r="E900" t="n">
+        <v>122396.7385939461</v>
+      </c>
+      <c r="F900" t="n">
+        <v>-0.08230125668399267</v>
+      </c>
+      <c r="G900" t="n">
+        <v>0.3608128632518757</v>
+      </c>
+      <c r="H900" t="n">
+        <v>-1.555847424069358</v>
+      </c>
+      <c r="I900" t="n">
+        <v>7.978259481991468</v>
+      </c>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
+      <c r="L900" t="inlineStr"/>
+      <c r="M900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D901" t="n">
+        <v>1.284931506849315</v>
+      </c>
+      <c r="E901" t="n">
+        <v>123956.9059203563</v>
+      </c>
+      <c r="F901" t="n">
+        <v>-0.1555348028303687</v>
+      </c>
+      <c r="G901" t="n">
+        <v>0.635867501115666</v>
+      </c>
+      <c r="H901" t="n">
+        <v>-2.316233665953103</v>
+      </c>
+      <c r="I901" t="n">
+        <v>10.40252333034482</v>
+      </c>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
+      <c r="L901" t="inlineStr"/>
+      <c r="M901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D902" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E902" t="n">
+        <v>114907.1611602911</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0.04110106206138803</v>
+      </c>
+      <c r="G902" t="n">
+        <v>0.08100610714862778</v>
+      </c>
+      <c r="H902" t="n">
+        <v>-0.3779824366373084</v>
+      </c>
+      <c r="I902" t="n">
+        <v>4.32887360222632</v>
+      </c>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
+      <c r="L902" t="inlineStr"/>
+      <c r="M902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D903" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E903" t="n">
+        <v>114907.0504968996</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0.0342434638350548</v>
+      </c>
+      <c r="G903" t="n">
+        <v>0.1073213503608973</v>
+      </c>
+      <c r="H903" t="n">
+        <v>-0.6775292914356353</v>
+      </c>
+      <c r="I903" t="n">
+        <v>6.837531519633435</v>
+      </c>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
+      <c r="L903" t="inlineStr"/>
+      <c r="M903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D904" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E904" t="n">
+        <v>114913.2812801584</v>
+      </c>
+      <c r="F904" t="n">
+        <v>0.03002364862387137</v>
+      </c>
+      <c r="G904" t="n">
+        <v>0.1157903226938213</v>
+      </c>
+      <c r="H904" t="n">
+        <v>-0.6842554309232842</v>
+      </c>
+      <c r="I904" t="n">
+        <v>6.917147901119264</v>
+      </c>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
+      <c r="L904" t="inlineStr"/>
+      <c r="M904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D905" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E905" t="n">
+        <v>114919.3780948793</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0.0266177752194584</v>
+      </c>
+      <c r="G905" t="n">
+        <v>0.1220424823457438</v>
+      </c>
+      <c r="H905" t="n">
+        <v>-0.5896884140553141</v>
+      </c>
+      <c r="I905" t="n">
+        <v>6.245935127005477</v>
+      </c>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
+      <c r="L905" t="inlineStr"/>
+      <c r="M905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D906" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E906" t="n">
+        <v>114895.4938747079</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0.08509746701371777</v>
+      </c>
+      <c r="G906" t="n">
+        <v>0.1393197082059368</v>
+      </c>
+      <c r="H906" t="n">
+        <v>-0.1758196602645248</v>
+      </c>
+      <c r="I906" t="n">
+        <v>2.677979182211032</v>
+      </c>
+      <c r="J906" t="n">
+        <v>0.1454235204055392</v>
+      </c>
+      <c r="K906" t="inlineStr"/>
+      <c r="L906" t="inlineStr"/>
+      <c r="M906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D907" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E907" t="n">
+        <v>114835.7125178231</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0.01876034836425523</v>
+      </c>
+      <c r="G907" t="n">
+        <v>0.1228341155971844</v>
+      </c>
+      <c r="H907" t="n">
+        <v>-0.9097778929356922</v>
+      </c>
+      <c r="I907" t="n">
+        <v>6.016509364523203</v>
+      </c>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
+      <c r="L907" t="inlineStr"/>
+      <c r="M907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D908" t="n">
+        <v>0.06027397260273973</v>
+      </c>
+      <c r="E908" t="n">
+        <v>115786.5778048187</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0.03135289385886732</v>
+      </c>
+      <c r="G908" t="n">
+        <v>0.153489402768434</v>
+      </c>
+      <c r="H908" t="n">
+        <v>-1.438802980095279</v>
+      </c>
+      <c r="I908" t="n">
+        <v>13.76763375469023</v>
+      </c>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
+      <c r="L908" t="inlineStr"/>
+      <c r="M908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D909" t="n">
+        <v>0.07945205479452055</v>
+      </c>
+      <c r="E909" t="n">
+        <v>115814.2537922122</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0.02382300163682413</v>
+      </c>
+      <c r="G909" t="n">
+        <v>0.1461734146402583</v>
+      </c>
+      <c r="H909" t="n">
+        <v>-0.5896684427599178</v>
+      </c>
+      <c r="I909" t="n">
+        <v>5.479943412847926</v>
+      </c>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
+      <c r="L909" t="inlineStr"/>
+      <c r="M909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D910" t="n">
+        <v>0.09863013698630137</v>
+      </c>
+      <c r="E910" t="n">
+        <v>116004.9588301066</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0.02250472055527215</v>
+      </c>
+      <c r="G910" t="n">
+        <v>0.1409292166276038</v>
+      </c>
+      <c r="H910" t="n">
+        <v>-0.5441822519686473</v>
+      </c>
+      <c r="I910" t="n">
+        <v>5.834648396060894</v>
+      </c>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
+      <c r="L910" t="inlineStr"/>
+      <c r="M910" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_analyzed/moment.xlsx
+++ b/data_analyzed/moment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M910"/>
+  <dimension ref="A1:M986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35823,10 +35823,18 @@
       <c r="I827" t="n">
         <v>7.011937907066979</v>
       </c>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
-      <c r="M827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>0.3779298801345128</v>
+      </c>
+      <c r="K827" t="n">
+        <v>0.08732206993011483</v>
+      </c>
+      <c r="L827" t="n">
+        <v>-0.3326748274291247</v>
+      </c>
+      <c r="M827" t="n">
+        <v>1.552525783804963</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
@@ -36557,10 +36565,18 @@
       <c r="I845" t="n">
         <v>6.288697433255122</v>
       </c>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr"/>
-      <c r="M845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>0.368443878262713</v>
+      </c>
+      <c r="K845" t="n">
+        <v>0.03920614569937778</v>
+      </c>
+      <c r="L845" t="n">
+        <v>-1.127910942023814</v>
+      </c>
+      <c r="M845" t="n">
+        <v>3.329723141697085</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
@@ -36637,10 +36653,18 @@
       <c r="I847" t="n">
         <v>5.450011004942664</v>
       </c>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr"/>
-      <c r="M847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>0.3802977549935186</v>
+      </c>
+      <c r="K847" t="n">
+        <v>0.03528897824179948</v>
+      </c>
+      <c r="L847" t="n">
+        <v>-1.329203199933692</v>
+      </c>
+      <c r="M847" t="n">
+        <v>3.915931171864705</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
@@ -37324,10 +37348,18 @@
       <c r="I864" t="n">
         <v>5.569029515826807</v>
       </c>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
-      <c r="L864" t="inlineStr"/>
-      <c r="M864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>0.4959967553826868</v>
+      </c>
+      <c r="K864" t="n">
+        <v>0.01059582026591913</v>
+      </c>
+      <c r="L864" t="n">
+        <v>-0.01514285199917103</v>
+      </c>
+      <c r="M864" t="n">
+        <v>1.663557790814084</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
@@ -37363,10 +37395,18 @@
       <c r="I865" t="n">
         <v>4.878534593564482</v>
       </c>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
-      <c r="L865" t="inlineStr"/>
-      <c r="M865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>0.4994216603121239</v>
+      </c>
+      <c r="K865" t="n">
+        <v>0.009152511499156205</v>
+      </c>
+      <c r="L865" t="n">
+        <v>-0.1213644036507729</v>
+      </c>
+      <c r="M865" t="n">
+        <v>1.921334939992117</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
@@ -37443,10 +37483,18 @@
       <c r="I867" t="n">
         <v>6.163366665062721</v>
       </c>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
-      <c r="L867" t="inlineStr"/>
-      <c r="M867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>0.5169561186157083</v>
+      </c>
+      <c r="K867" t="n">
+        <v>0.01016064815776268</v>
+      </c>
+      <c r="L867" t="n">
+        <v>-0.2810304976759443</v>
+      </c>
+      <c r="M867" t="n">
+        <v>1.845989007204349</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
@@ -38083,10 +38131,18 @@
       <c r="I883" t="n">
         <v>4.846217837762755</v>
       </c>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
-      <c r="L883" t="inlineStr"/>
-      <c r="M883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>0.1741306222569814</v>
+      </c>
+      <c r="K883" t="n">
+        <v>0.007661405384502213</v>
+      </c>
+      <c r="L883" t="n">
+        <v>-0.1494289167025337</v>
+      </c>
+      <c r="M883" t="n">
+        <v>1.834056543320003</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
@@ -38122,10 +38178,18 @@
       <c r="I884" t="n">
         <v>4.9482245951439</v>
       </c>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
-      <c r="L884" t="inlineStr"/>
-      <c r="M884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>0.1732893829452975</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0.006388042904982789</v>
+      </c>
+      <c r="L884" t="n">
+        <v>-0.1320200159195386</v>
+      </c>
+      <c r="M884" t="n">
+        <v>2.192210077531122</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
@@ -38161,10 +38225,18 @@
       <c r="I885" t="n">
         <v>8.359587161463592</v>
       </c>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
-      <c r="L885" t="inlineStr"/>
-      <c r="M885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>0.1897922458443881</v>
+      </c>
+      <c r="K885" t="n">
+        <v>0.00710953225032518</v>
+      </c>
+      <c r="L885" t="n">
+        <v>-0.3236641155507869</v>
+      </c>
+      <c r="M885" t="n">
+        <v>2.042420822161466</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
@@ -38241,10 +38313,18 @@
       <c r="I887" t="n">
         <v>9.44350494178971</v>
       </c>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
-      <c r="L887" t="inlineStr"/>
-      <c r="M887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>0.2410106334485396</v>
+      </c>
+      <c r="K887" t="n">
+        <v>0.02458410332041821</v>
+      </c>
+      <c r="L887" t="n">
+        <v>1.171992255373215</v>
+      </c>
+      <c r="M887" t="n">
+        <v>3.796393522117083</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
@@ -38834,10 +38914,18 @@
       <c r="I902" t="n">
         <v>4.32887360222632</v>
       </c>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
-      <c r="L902" t="inlineStr"/>
-      <c r="M902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>0.1644653861563335</v>
+      </c>
+      <c r="K902" t="n">
+        <v>0.004166984081917661</v>
+      </c>
+      <c r="L902" t="n">
+        <v>-0.009744353085738667</v>
+      </c>
+      <c r="M902" t="n">
+        <v>1.829707928933755</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
@@ -38873,10 +38961,18 @@
       <c r="I903" t="n">
         <v>6.83385722220373</v>
       </c>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
-      <c r="L903" t="inlineStr"/>
-      <c r="M903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>0.1568772835360597</v>
+      </c>
+      <c r="K903" t="n">
+        <v>0.003563904471037351</v>
+      </c>
+      <c r="L903" t="n">
+        <v>0.3221801397222507</v>
+      </c>
+      <c r="M903" t="n">
+        <v>2.100310050176578</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
@@ -38912,10 +39008,18 @@
       <c r="I904" t="n">
         <v>6.931938019205041</v>
       </c>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
-      <c r="L904" t="inlineStr"/>
-      <c r="M904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>0.1717729212645522</v>
+      </c>
+      <c r="K904" t="n">
+        <v>0.004079320509223575</v>
+      </c>
+      <c r="L904" t="n">
+        <v>-0.03643626733293952</v>
+      </c>
+      <c r="M904" t="n">
+        <v>1.679618112128374</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
@@ -38951,10 +39055,18 @@
       <c r="I905" t="n">
         <v>6.245935127005477</v>
       </c>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
-      <c r="L905" t="inlineStr"/>
-      <c r="M905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>0.2268026515618569</v>
+      </c>
+      <c r="K905" t="n">
+        <v>0.02166618773604188</v>
+      </c>
+      <c r="L905" t="n">
+        <v>1.384061321255182</v>
+      </c>
+      <c r="M905" t="n">
+        <v>3.823793060073173</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
@@ -39153,6 +39265,3032 @@
       <c r="L910" t="inlineStr"/>
       <c r="M910" t="inlineStr"/>
     </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D911" t="n">
+        <v>0.03835616438356165</v>
+      </c>
+      <c r="E911" t="n">
+        <v>117250.6646791917</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0.07714818357581613</v>
+      </c>
+      <c r="G911" t="n">
+        <v>0.1214329407171924</v>
+      </c>
+      <c r="H911" t="n">
+        <v>-1.226353334601541</v>
+      </c>
+      <c r="I911" t="n">
+        <v>12.77716345986741</v>
+      </c>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
+      <c r="L911" t="inlineStr"/>
+      <c r="M911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D912" t="n">
+        <v>0.1342465753424658</v>
+      </c>
+      <c r="E912" t="n">
+        <v>118131.0625543694</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0.04115282734244539</v>
+      </c>
+      <c r="G912" t="n">
+        <v>0.1520392390788521</v>
+      </c>
+      <c r="H912" t="n">
+        <v>-1.115499296337649</v>
+      </c>
+      <c r="I912" t="n">
+        <v>10.52864733864939</v>
+      </c>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
+      <c r="L912" t="inlineStr"/>
+      <c r="M912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D913" t="n">
+        <v>0.210958904109589</v>
+      </c>
+      <c r="E913" t="n">
+        <v>118864.6027847091</v>
+      </c>
+      <c r="F913" t="n">
+        <v>0.02998690542077836</v>
+      </c>
+      <c r="G913" t="n">
+        <v>0.1705372080604419</v>
+      </c>
+      <c r="H913" t="n">
+        <v>-1.078272026540769</v>
+      </c>
+      <c r="I913" t="n">
+        <v>10.64523010100589</v>
+      </c>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
+      <c r="L913" t="inlineStr"/>
+      <c r="M913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D914" t="n">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="E914" t="n">
+        <v>119530.7918885916</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0.01778517691593047</v>
+      </c>
+      <c r="G914" t="n">
+        <v>0.2037885530668088</v>
+      </c>
+      <c r="H914" t="n">
+        <v>-1.376302409928244</v>
+      </c>
+      <c r="I914" t="n">
+        <v>11.79722082354386</v>
+      </c>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
+      <c r="L914" t="inlineStr"/>
+      <c r="M914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D915" t="n">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="E915" t="n">
+        <v>120404.3596888673</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0.01289090820033025</v>
+      </c>
+      <c r="G915" t="n">
+        <v>0.1938711304487538</v>
+      </c>
+      <c r="H915" t="n">
+        <v>-0.6378818179877589</v>
+      </c>
+      <c r="I915" t="n">
+        <v>6.326109792932535</v>
+      </c>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
+      <c r="L915" t="inlineStr"/>
+      <c r="M915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D916" t="n">
+        <v>0.4602739726027397</v>
+      </c>
+      <c r="E916" t="n">
+        <v>121033.780157313</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0.006831362070791325</v>
+      </c>
+      <c r="G916" t="n">
+        <v>0.1999954663889719</v>
+      </c>
+      <c r="H916" t="n">
+        <v>-0.5802440706894725</v>
+      </c>
+      <c r="I916" t="n">
+        <v>5.858325544873711</v>
+      </c>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
+      <c r="L916" t="inlineStr"/>
+      <c r="M916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D917" t="n">
+        <v>0.7095890410958904</v>
+      </c>
+      <c r="E917" t="n">
+        <v>121275.4503200592</v>
+      </c>
+      <c r="F917" t="n">
+        <v>-0.009322891678381491</v>
+      </c>
+      <c r="G917" t="n">
+        <v>0.1831629728301987</v>
+      </c>
+      <c r="H917" t="n">
+        <v>-1.213941120755275</v>
+      </c>
+      <c r="I917" t="n">
+        <v>8.985744013401083</v>
+      </c>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
+      <c r="L917" t="inlineStr"/>
+      <c r="M917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D918" t="n">
+        <v>0.7863013698630137</v>
+      </c>
+      <c r="E918" t="n">
+        <v>122767.5126752124</v>
+      </c>
+      <c r="F918" t="n">
+        <v>-0.04222667747188644</v>
+      </c>
+      <c r="G918" t="n">
+        <v>0.3172840645435622</v>
+      </c>
+      <c r="H918" t="n">
+        <v>-1.969085119927182</v>
+      </c>
+      <c r="I918" t="n">
+        <v>12.38520844366341</v>
+      </c>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
+      <c r="L918" t="inlineStr"/>
+      <c r="M918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D919" t="n">
+        <v>1.035616438356164</v>
+      </c>
+      <c r="E919" t="n">
+        <v>124354.2299555857</v>
+      </c>
+      <c r="F919" t="n">
+        <v>-0.08029192337556597</v>
+      </c>
+      <c r="G919" t="n">
+        <v>0.392754437386377</v>
+      </c>
+      <c r="H919" t="n">
+        <v>-1.852772122091808</v>
+      </c>
+      <c r="I919" t="n">
+        <v>9.926316636906009</v>
+      </c>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
+      <c r="L919" t="inlineStr"/>
+      <c r="M919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D920" t="n">
+        <v>1.282191780821918</v>
+      </c>
+      <c r="E920" t="n">
+        <v>126352.3927678542</v>
+      </c>
+      <c r="F920" t="n">
+        <v>-0.1461094578992783</v>
+      </c>
+      <c r="G920" t="n">
+        <v>0.6571274269691558</v>
+      </c>
+      <c r="H920" t="n">
+        <v>-2.532209624730751</v>
+      </c>
+      <c r="I920" t="n">
+        <v>12.31282035746453</v>
+      </c>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
+      <c r="L920" t="inlineStr"/>
+      <c r="M920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D921" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E921" t="n">
+        <v>117243.5824423559</v>
+      </c>
+      <c r="F921" t="n">
+        <v>0.1871104740968699</v>
+      </c>
+      <c r="G921" t="n">
+        <v>0.07441708976951739</v>
+      </c>
+      <c r="H921" t="n">
+        <v>-0.3892419742533572</v>
+      </c>
+      <c r="I921" t="n">
+        <v>5.694989720529963</v>
+      </c>
+      <c r="J921" t="n">
+        <v>0.02538915433439373</v>
+      </c>
+      <c r="K921" t="n">
+        <v>0.005394826486436175</v>
+      </c>
+      <c r="L921" t="n">
+        <v>-0.2629081428452572</v>
+      </c>
+      <c r="M921" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D922" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E922" t="n">
+        <v>117288.8373536223</v>
+      </c>
+      <c r="F922" t="n">
+        <v>0.09711957839296059</v>
+      </c>
+      <c r="G922" t="n">
+        <v>0.1155419997448188</v>
+      </c>
+      <c r="H922" t="n">
+        <v>-0.8443424577724018</v>
+      </c>
+      <c r="I922" t="n">
+        <v>9.628057125794983</v>
+      </c>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
+      <c r="L922" t="inlineStr"/>
+      <c r="M922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D923" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E923" t="n">
+        <v>117269.2265082631</v>
+      </c>
+      <c r="F923" t="n">
+        <v>0.1626413725246243</v>
+      </c>
+      <c r="G923" t="n">
+        <v>0.08425522926219284</v>
+      </c>
+      <c r="H923" t="n">
+        <v>-0.222155325015116</v>
+      </c>
+      <c r="I923" t="n">
+        <v>4.323408154166935</v>
+      </c>
+      <c r="J923" t="n">
+        <v>0.01431720391315161</v>
+      </c>
+      <c r="K923" t="n">
+        <v>0.004413884123218463</v>
+      </c>
+      <c r="L923" t="n">
+        <v>0.1640915620408306</v>
+      </c>
+      <c r="M923" t="n">
+        <v>1.671946117951479</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D924" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E924" t="n">
+        <v>117207.4900648898</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0.1390160235293125</v>
+      </c>
+      <c r="G924" t="n">
+        <v>0.1012491435117097</v>
+      </c>
+      <c r="H924" t="n">
+        <v>-0.693737401876694</v>
+      </c>
+      <c r="I924" t="n">
+        <v>6.661062592193561</v>
+      </c>
+      <c r="J924" t="n">
+        <v>0.03161928103081686</v>
+      </c>
+      <c r="K924" t="n">
+        <v>0.004728554788917312</v>
+      </c>
+      <c r="L924" t="n">
+        <v>-0.2541427140166077</v>
+      </c>
+      <c r="M924" t="n">
+        <v>1.538388068439291</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D925" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E925" t="n">
+        <v>117267.9785506385</v>
+      </c>
+      <c r="F925" t="n">
+        <v>0.1292054428984758</v>
+      </c>
+      <c r="G925" t="n">
+        <v>0.1110550072809432</v>
+      </c>
+      <c r="H925" t="n">
+        <v>-0.4547091680753564</v>
+      </c>
+      <c r="I925" t="n">
+        <v>6.324924510814944</v>
+      </c>
+      <c r="J925" t="n">
+        <v>0.09494231968237128</v>
+      </c>
+      <c r="K925" t="n">
+        <v>0.02398949844442904</v>
+      </c>
+      <c r="L925" t="n">
+        <v>1.146734435186549</v>
+      </c>
+      <c r="M925" t="n">
+        <v>3.178402480160985</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D926" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E926" t="n">
+        <v>117268.3467627528</v>
+      </c>
+      <c r="F926" t="n">
+        <v>0.1185069757863117</v>
+      </c>
+      <c r="G926" t="n">
+        <v>0.1114465726449506</v>
+      </c>
+      <c r="H926" t="n">
+        <v>-0.3436436233073483</v>
+      </c>
+      <c r="I926" t="n">
+        <v>5.293005229764328</v>
+      </c>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
+      <c r="L926" t="inlineStr"/>
+      <c r="M926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D927" t="n">
+        <v>0.05753424657534247</v>
+      </c>
+      <c r="E927" t="n">
+        <v>118184.2318838252</v>
+      </c>
+      <c r="F927" t="n">
+        <v>0.08873828779734873</v>
+      </c>
+      <c r="G927" t="n">
+        <v>0.133603444840359</v>
+      </c>
+      <c r="H927" t="n">
+        <v>-0.7656343299127967</v>
+      </c>
+      <c r="I927" t="n">
+        <v>7.777405239588595</v>
+      </c>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
+      <c r="L927" t="inlineStr"/>
+      <c r="M927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D928" t="n">
+        <v>0.07671232876712329</v>
+      </c>
+      <c r="E928" t="n">
+        <v>118173.3428349895</v>
+      </c>
+      <c r="F928" t="n">
+        <v>0.0712238324412736</v>
+      </c>
+      <c r="G928" t="n">
+        <v>0.1397275262736631</v>
+      </c>
+      <c r="H928" t="n">
+        <v>-0.6400421741889533</v>
+      </c>
+      <c r="I928" t="n">
+        <v>6.477308024687465</v>
+      </c>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
+      <c r="L928" t="inlineStr"/>
+      <c r="M928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D929" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="E929" t="n">
+        <v>118280.9648804801</v>
+      </c>
+      <c r="F929" t="n">
+        <v>0.06316614154918503</v>
+      </c>
+      <c r="G929" t="n">
+        <v>0.1337982982085132</v>
+      </c>
+      <c r="H929" t="n">
+        <v>-0.3777182315593056</v>
+      </c>
+      <c r="I929" t="n">
+        <v>5.484758287719742</v>
+      </c>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
+      <c r="L929" t="inlineStr"/>
+      <c r="M929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D930" t="n">
+        <v>0.03013698630136986</v>
+      </c>
+      <c r="E930" t="n">
+        <v>115579.5320580891</v>
+      </c>
+      <c r="F930" t="n">
+        <v>0.02595664126462834</v>
+      </c>
+      <c r="G930" t="n">
+        <v>0.1500083007271827</v>
+      </c>
+      <c r="H930" t="n">
+        <v>-1.249313363057696</v>
+      </c>
+      <c r="I930" t="n">
+        <v>13.52297642088387</v>
+      </c>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
+      <c r="L930" t="inlineStr"/>
+      <c r="M930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D931" t="n">
+        <v>0.126027397260274</v>
+      </c>
+      <c r="E931" t="n">
+        <v>116437.8607119196</v>
+      </c>
+      <c r="F931" t="n">
+        <v>0.01351260491757434</v>
+      </c>
+      <c r="G931" t="n">
+        <v>0.1545833169281959</v>
+      </c>
+      <c r="H931" t="n">
+        <v>-1.223941177282235</v>
+      </c>
+      <c r="I931" t="n">
+        <v>11.57436934395236</v>
+      </c>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
+      <c r="L931" t="inlineStr"/>
+      <c r="M931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D932" t="n">
+        <v>0.2027397260273973</v>
+      </c>
+      <c r="E932" t="n">
+        <v>117141.4544279742</v>
+      </c>
+      <c r="F932" t="n">
+        <v>0.007546176649098554</v>
+      </c>
+      <c r="G932" t="n">
+        <v>0.1722799591919066</v>
+      </c>
+      <c r="H932" t="n">
+        <v>-1.172237665984363</v>
+      </c>
+      <c r="I932" t="n">
+        <v>11.68552066330636</v>
+      </c>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
+      <c r="L932" t="inlineStr"/>
+      <c r="M932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D933" t="n">
+        <v>0.2794520547945206</v>
+      </c>
+      <c r="E933" t="n">
+        <v>117883.942212601</v>
+      </c>
+      <c r="F933" t="n">
+        <v>0.0006671652864473709</v>
+      </c>
+      <c r="G933" t="n">
+        <v>0.2005005136092679</v>
+      </c>
+      <c r="H933" t="n">
+        <v>-1.258069093950971</v>
+      </c>
+      <c r="I933" t="n">
+        <v>10.68256342480368</v>
+      </c>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
+      <c r="L933" t="inlineStr"/>
+      <c r="M933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D934" t="n">
+        <v>0.3753424657534247</v>
+      </c>
+      <c r="E934" t="n">
+        <v>118602.9292911225</v>
+      </c>
+      <c r="F934" t="n">
+        <v>-0.01461722479219837</v>
+      </c>
+      <c r="G934" t="n">
+        <v>0.2655390905253522</v>
+      </c>
+      <c r="H934" t="n">
+        <v>-2.858712953962472</v>
+      </c>
+      <c r="I934" t="n">
+        <v>25.83924743997575</v>
+      </c>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
+      <c r="L934" t="inlineStr"/>
+      <c r="M934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D935" t="n">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="E935" t="n">
+        <v>119310.6097676981</v>
+      </c>
+      <c r="F935" t="n">
+        <v>-0.007431952126198738</v>
+      </c>
+      <c r="G935" t="n">
+        <v>0.1998136053875798</v>
+      </c>
+      <c r="H935" t="n">
+        <v>-0.6203418047285336</v>
+      </c>
+      <c r="I935" t="n">
+        <v>5.841112321504236</v>
+      </c>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
+      <c r="L935" t="inlineStr"/>
+      <c r="M935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D936" t="n">
+        <v>0.7013698630136986</v>
+      </c>
+      <c r="E936" t="n">
+        <v>119600.2272974841</v>
+      </c>
+      <c r="F936" t="n">
+        <v>-0.02018208511547447</v>
+      </c>
+      <c r="G936" t="n">
+        <v>0.1813202265097833</v>
+      </c>
+      <c r="H936" t="n">
+        <v>-1.209625485831285</v>
+      </c>
+      <c r="I936" t="n">
+        <v>9.036102402254345</v>
+      </c>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
+      <c r="L936" t="inlineStr"/>
+      <c r="M936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D937" t="n">
+        <v>0.7780821917808219</v>
+      </c>
+      <c r="E937" t="n">
+        <v>121103.1744497202</v>
+      </c>
+      <c r="F937" t="n">
+        <v>-0.05144446095270336</v>
+      </c>
+      <c r="G937" t="n">
+        <v>0.3136802165217599</v>
+      </c>
+      <c r="H937" t="n">
+        <v>-1.975317167213251</v>
+      </c>
+      <c r="I937" t="n">
+        <v>12.47551197118902</v>
+      </c>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr"/>
+      <c r="L937" t="inlineStr"/>
+      <c r="M937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D938" t="n">
+        <v>1.027397260273973</v>
+      </c>
+      <c r="E938" t="n">
+        <v>122788.4025037009</v>
+      </c>
+      <c r="F938" t="n">
+        <v>-0.08901643174474598</v>
+      </c>
+      <c r="G938" t="n">
+        <v>0.3949850563763727</v>
+      </c>
+      <c r="H938" t="n">
+        <v>-1.844148480071863</v>
+      </c>
+      <c r="I938" t="n">
+        <v>9.782794413607794</v>
+      </c>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr"/>
+      <c r="L938" t="inlineStr"/>
+      <c r="M938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D939" t="n">
+        <v>1.273972602739726</v>
+      </c>
+      <c r="E939" t="n">
+        <v>124750.303207982</v>
+      </c>
+      <c r="F939" t="n">
+        <v>-0.1545661038692219</v>
+      </c>
+      <c r="G939" t="n">
+        <v>0.6619810155237301</v>
+      </c>
+      <c r="H939" t="n">
+        <v>-2.525063303949898</v>
+      </c>
+      <c r="I939" t="n">
+        <v>12.23608521588394</v>
+      </c>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
+      <c r="L939" t="inlineStr"/>
+      <c r="M939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D940" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E940" t="n">
+        <v>115573.5118193813</v>
+      </c>
+      <c r="F940" t="n">
+        <v>0.0372933522742661</v>
+      </c>
+      <c r="G940" t="n">
+        <v>0.1497465764053942</v>
+      </c>
+      <c r="H940" t="n">
+        <v>-0.9666848279534654</v>
+      </c>
+      <c r="I940" t="n">
+        <v>9.158323151786888</v>
+      </c>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
+      <c r="L940" t="inlineStr"/>
+      <c r="M940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D941" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E941" t="n">
+        <v>115089.7103414434</v>
+      </c>
+      <c r="F941" t="n">
+        <v>0.04425206250406902</v>
+      </c>
+      <c r="G941" t="n">
+        <v>0.06840124960253047</v>
+      </c>
+      <c r="H941" t="n">
+        <v>-1.029378594740445</v>
+      </c>
+      <c r="I941" t="n">
+        <v>3.015314299905404</v>
+      </c>
+      <c r="J941" t="n">
+        <v>0.05152224139030301</v>
+      </c>
+      <c r="K941" t="inlineStr"/>
+      <c r="L941" t="inlineStr"/>
+      <c r="M941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D942" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E942" t="n">
+        <v>115569.7619538604</v>
+      </c>
+      <c r="F942" t="n">
+        <v>0.03374051940936252</v>
+      </c>
+      <c r="G942" t="n">
+        <v>0.1437542567338728</v>
+      </c>
+      <c r="H942" t="n">
+        <v>-0.827904072903654</v>
+      </c>
+      <c r="I942" t="n">
+        <v>8.166986038398656</v>
+      </c>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
+      <c r="L942" t="inlineStr"/>
+      <c r="M942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D943" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E943" t="n">
+        <v>115709.9173001613</v>
+      </c>
+      <c r="F943" t="n">
+        <v>0.100698445198168</v>
+      </c>
+      <c r="G943" t="n">
+        <v>0.1201249823975057</v>
+      </c>
+      <c r="H943" t="n">
+        <v>0.4888285800173214</v>
+      </c>
+      <c r="I943" t="n">
+        <v>4.940708217255506</v>
+      </c>
+      <c r="J943" t="n">
+        <v>0.1113853598163298</v>
+      </c>
+      <c r="K943" t="n">
+        <v>0.003583592947688513</v>
+      </c>
+      <c r="L943" t="n">
+        <v>0</v>
+      </c>
+      <c r="M943" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D944" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E944" t="n">
+        <v>115613.021807891</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0.06983442023580318</v>
+      </c>
+      <c r="G944" t="n">
+        <v>0.1491046669228473</v>
+      </c>
+      <c r="H944" t="n">
+        <v>0.03491664728520097</v>
+      </c>
+      <c r="I944" t="n">
+        <v>4.654584489446504</v>
+      </c>
+      <c r="J944" t="n">
+        <v>0.2349163737712275</v>
+      </c>
+      <c r="K944" t="n">
+        <v>0.0329088847825759</v>
+      </c>
+      <c r="L944" t="n">
+        <v>0.4832169786564608</v>
+      </c>
+      <c r="M944" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D945" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E945" t="n">
+        <v>115436.3347730561</v>
+      </c>
+      <c r="F945" t="n">
+        <v>0.0436320881701142</v>
+      </c>
+      <c r="G945" t="n">
+        <v>0.1560553075110627</v>
+      </c>
+      <c r="H945" t="n">
+        <v>-1.295248854566389</v>
+      </c>
+      <c r="I945" t="n">
+        <v>9.003855347563105</v>
+      </c>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr"/>
+      <c r="L945" t="inlineStr"/>
+      <c r="M945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D946" t="n">
+        <v>0.04931506849315068</v>
+      </c>
+      <c r="E946" t="n">
+        <v>116505.1719115963</v>
+      </c>
+      <c r="F946" t="n">
+        <v>0.05060139388372915</v>
+      </c>
+      <c r="G946" t="n">
+        <v>0.1375751724682175</v>
+      </c>
+      <c r="H946" t="n">
+        <v>-0.832125406976703</v>
+      </c>
+      <c r="I946" t="n">
+        <v>8.958770030864056</v>
+      </c>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr"/>
+      <c r="L946" t="inlineStr"/>
+      <c r="M946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D947" t="n">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="E947" t="n">
+        <v>116545.8778038837</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0.0380339814334387</v>
+      </c>
+      <c r="G947" t="n">
+        <v>0.1436367897004675</v>
+      </c>
+      <c r="H947" t="n">
+        <v>-0.4955570443498888</v>
+      </c>
+      <c r="I947" t="n">
+        <v>6.678315202598641</v>
+      </c>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr"/>
+      <c r="L947" t="inlineStr"/>
+      <c r="M947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D948" t="n">
+        <v>0.08767123287671233</v>
+      </c>
+      <c r="E948" t="n">
+        <v>116705.33864515</v>
+      </c>
+      <c r="F948" t="n">
+        <v>0.03368722597024811</v>
+      </c>
+      <c r="G948" t="n">
+        <v>0.1400491480122466</v>
+      </c>
+      <c r="H948" t="n">
+        <v>-0.4462187529018185</v>
+      </c>
+      <c r="I948" t="n">
+        <v>6.499995497826918</v>
+      </c>
+      <c r="J948" t="inlineStr"/>
+      <c r="K948" t="inlineStr"/>
+      <c r="L948" t="inlineStr"/>
+      <c r="M948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D949" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E949" t="n">
+        <v>117086.057201255</v>
+      </c>
+      <c r="F949" t="n">
+        <v>0.08880067104379755</v>
+      </c>
+      <c r="G949" t="n">
+        <v>0.1707131998264829</v>
+      </c>
+      <c r="H949" t="n">
+        <v>-1.520471032894363</v>
+      </c>
+      <c r="I949" t="n">
+        <v>14.23718895045043</v>
+      </c>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr"/>
+      <c r="L949" t="inlineStr"/>
+      <c r="M949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D950" t="n">
+        <v>0.1232876712328767</v>
+      </c>
+      <c r="E950" t="n">
+        <v>117982.5583404625</v>
+      </c>
+      <c r="F950" t="n">
+        <v>0.04289536237732518</v>
+      </c>
+      <c r="G950" t="n">
+        <v>0.1620110263450616</v>
+      </c>
+      <c r="H950" t="n">
+        <v>-1.281579453546158</v>
+      </c>
+      <c r="I950" t="n">
+        <v>12.49071084338882</v>
+      </c>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr"/>
+      <c r="L950" t="inlineStr"/>
+      <c r="M950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D951" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E951" t="n">
+        <v>118655.8683768171</v>
+      </c>
+      <c r="F951" t="n">
+        <v>0.03046812851571434</v>
+      </c>
+      <c r="G951" t="n">
+        <v>0.1735750225277822</v>
+      </c>
+      <c r="H951" t="n">
+        <v>-1.145964116596201</v>
+      </c>
+      <c r="I951" t="n">
+        <v>11.53345595335768</v>
+      </c>
+      <c r="J951" t="inlineStr"/>
+      <c r="K951" t="inlineStr"/>
+      <c r="L951" t="inlineStr"/>
+      <c r="M951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D952" t="n">
+        <v>0.2767123287671233</v>
+      </c>
+      <c r="E952" t="n">
+        <v>119366.8164790674</v>
+      </c>
+      <c r="F952" t="n">
+        <v>0.01854850833029607</v>
+      </c>
+      <c r="G952" t="n">
+        <v>0.2076751468508892</v>
+      </c>
+      <c r="H952" t="n">
+        <v>-1.436616527623723</v>
+      </c>
+      <c r="I952" t="n">
+        <v>12.29408422097338</v>
+      </c>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
+      <c r="L952" t="inlineStr"/>
+      <c r="M952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D953" t="n">
+        <v>0.3726027397260274</v>
+      </c>
+      <c r="E953" t="n">
+        <v>120244.9566991789</v>
+      </c>
+      <c r="F953" t="n">
+        <v>0.01302175108200674</v>
+      </c>
+      <c r="G953" t="n">
+        <v>0.1986263265919851</v>
+      </c>
+      <c r="H953" t="n">
+        <v>-0.6792479293778165</v>
+      </c>
+      <c r="I953" t="n">
+        <v>6.407332570145709</v>
+      </c>
+      <c r="J953" t="inlineStr"/>
+      <c r="K953" t="inlineStr"/>
+      <c r="L953" t="inlineStr"/>
+      <c r="M953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D954" t="n">
+        <v>0.4493150684931507</v>
+      </c>
+      <c r="E954" t="n">
+        <v>121350.214946859</v>
+      </c>
+      <c r="F954" t="n">
+        <v>0.01404187092373234</v>
+      </c>
+      <c r="G954" t="n">
+        <v>0.1996549675989268</v>
+      </c>
+      <c r="H954" t="n">
+        <v>-0.7412946069320099</v>
+      </c>
+      <c r="I954" t="n">
+        <v>7.411305541277764</v>
+      </c>
+      <c r="J954" t="inlineStr"/>
+      <c r="K954" t="inlineStr"/>
+      <c r="L954" t="inlineStr"/>
+      <c r="M954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D955" t="n">
+        <v>0.6986301369863014</v>
+      </c>
+      <c r="E955" t="n">
+        <v>121103.6797630952</v>
+      </c>
+      <c r="F955" t="n">
+        <v>-0.008661112359266492</v>
+      </c>
+      <c r="G955" t="n">
+        <v>0.1840769256405153</v>
+      </c>
+      <c r="H955" t="n">
+        <v>-1.332504362440177</v>
+      </c>
+      <c r="I955" t="n">
+        <v>10.16641447187808</v>
+      </c>
+      <c r="J955" t="inlineStr"/>
+      <c r="K955" t="inlineStr"/>
+      <c r="L955" t="inlineStr"/>
+      <c r="M955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D956" t="n">
+        <v>0.7753424657534247</v>
+      </c>
+      <c r="E956" t="n">
+        <v>122620.7494221981</v>
+      </c>
+      <c r="F956" t="n">
+        <v>-0.03822307707386723</v>
+      </c>
+      <c r="G956" t="n">
+        <v>0.3019352474335903</v>
+      </c>
+      <c r="H956" t="n">
+        <v>-1.790510669213726</v>
+      </c>
+      <c r="I956" t="n">
+        <v>11.2800260984637</v>
+      </c>
+      <c r="J956" t="inlineStr"/>
+      <c r="K956" t="inlineStr"/>
+      <c r="L956" t="inlineStr"/>
+      <c r="M956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D957" t="n">
+        <v>1.024657534246575</v>
+      </c>
+      <c r="E957" t="n">
+        <v>124349.526518944</v>
+      </c>
+      <c r="F957" t="n">
+        <v>-0.0773906024655823</v>
+      </c>
+      <c r="G957" t="n">
+        <v>0.3887584203061669</v>
+      </c>
+      <c r="H957" t="n">
+        <v>-1.832495351531562</v>
+      </c>
+      <c r="I957" t="n">
+        <v>9.855681753719942</v>
+      </c>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr"/>
+      <c r="L957" t="inlineStr"/>
+      <c r="M957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D958" t="n">
+        <v>1.271232876712329</v>
+      </c>
+      <c r="E958" t="n">
+        <v>126337.6607212174</v>
+      </c>
+      <c r="F958" t="n">
+        <v>-0.1431781587678564</v>
+      </c>
+      <c r="G958" t="n">
+        <v>0.6529245424995945</v>
+      </c>
+      <c r="H958" t="n">
+        <v>-2.540790213097438</v>
+      </c>
+      <c r="I958" t="n">
+        <v>12.42550551413606</v>
+      </c>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
+      <c r="L958" t="inlineStr"/>
+      <c r="M958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D959" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E959" t="n">
+        <v>117097.4057955129</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0.1219578724584407</v>
+      </c>
+      <c r="G959" t="n">
+        <v>0.1669123235554588</v>
+      </c>
+      <c r="H959" t="n">
+        <v>-1.53796834261918</v>
+      </c>
+      <c r="I959" t="n">
+        <v>16.1356679850286</v>
+      </c>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
+      <c r="L959" t="inlineStr"/>
+      <c r="M959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D960" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E960" t="n">
+        <v>117068.3262566525</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0.1095936343872741</v>
+      </c>
+      <c r="G960" t="n">
+        <v>0.1661896225736003</v>
+      </c>
+      <c r="H960" t="n">
+        <v>-1.146502352187473</v>
+      </c>
+      <c r="I960" t="n">
+        <v>9.094615366209824</v>
+      </c>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
+      <c r="L960" t="inlineStr"/>
+      <c r="M960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D961" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E961" t="n">
+        <v>117028.62628845</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0.3094163461483572</v>
+      </c>
+      <c r="G961" t="n">
+        <v>0.164350430078904</v>
+      </c>
+      <c r="H961" t="n">
+        <v>-0.3199883698459225</v>
+      </c>
+      <c r="I961" t="n">
+        <v>4.175997001234516</v>
+      </c>
+      <c r="J961" t="n">
+        <v>0.1197262368520523</v>
+      </c>
+      <c r="K961" t="inlineStr"/>
+      <c r="L961" t="inlineStr"/>
+      <c r="M961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D962" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E962" t="n">
+        <v>117125.1781293021</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0.1042567812617171</v>
+      </c>
+      <c r="G962" t="n">
+        <v>0.165468805059278</v>
+      </c>
+      <c r="H962" t="n">
+        <v>-0.7441930805704752</v>
+      </c>
+      <c r="I962" t="n">
+        <v>8.775648177366282</v>
+      </c>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
+      <c r="L962" t="inlineStr"/>
+      <c r="M962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D963" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E963" t="n">
+        <v>117133.9122110062</v>
+      </c>
+      <c r="F963" t="n">
+        <v>0.2262942761140729</v>
+      </c>
+      <c r="G963" t="n">
+        <v>0.2080062491388271</v>
+      </c>
+      <c r="H963" t="n">
+        <v>-0.08641494223191094</v>
+      </c>
+      <c r="I963" t="n">
+        <v>5.156825556682436</v>
+      </c>
+      <c r="J963" t="n">
+        <v>0.2750911985713857</v>
+      </c>
+      <c r="K963" t="n">
+        <v>0.02413827133004993</v>
+      </c>
+      <c r="L963" t="n">
+        <v>2.891019533645416e-16</v>
+      </c>
+      <c r="M963" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D964" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E964" t="n">
+        <v>117034.9730364334</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0.1727672600662484</v>
+      </c>
+      <c r="G964" t="n">
+        <v>0.1980391236303057</v>
+      </c>
+      <c r="H964" t="n">
+        <v>-0.8802046992249465</v>
+      </c>
+      <c r="I964" t="n">
+        <v>7.681348196542678</v>
+      </c>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
+      <c r="L964" t="inlineStr"/>
+      <c r="M964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D965" t="n">
+        <v>0.04657534246575343</v>
+      </c>
+      <c r="E965" t="n">
+        <v>117989.7805380193</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0.0978823074051402</v>
+      </c>
+      <c r="G965" t="n">
+        <v>0.1501780347855073</v>
+      </c>
+      <c r="H965" t="n">
+        <v>-1.015365030418042</v>
+      </c>
+      <c r="I965" t="n">
+        <v>9.055620922796669</v>
+      </c>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
+      <c r="L965" t="inlineStr"/>
+      <c r="M965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D966" t="n">
+        <v>0.06575342465753424</v>
+      </c>
+      <c r="E966" t="n">
+        <v>118058.7152166847</v>
+      </c>
+      <c r="F966" t="n">
+        <v>0.07817208858304883</v>
+      </c>
+      <c r="G966" t="n">
+        <v>0.1525816019829916</v>
+      </c>
+      <c r="H966" t="n">
+        <v>-0.7255992261860844</v>
+      </c>
+      <c r="I966" t="n">
+        <v>7.099423958564801</v>
+      </c>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
+      <c r="L966" t="inlineStr"/>
+      <c r="M966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D967" t="n">
+        <v>0.08493150684931507</v>
+      </c>
+      <c r="E967" t="n">
+        <v>117958.6853243402</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0.06028656912247458</v>
+      </c>
+      <c r="G967" t="n">
+        <v>0.1580789930453955</v>
+      </c>
+      <c r="H967" t="n">
+        <v>-0.6712832499919513</v>
+      </c>
+      <c r="I967" t="n">
+        <v>6.157321997772498</v>
+      </c>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
+      <c r="L967" t="inlineStr"/>
+      <c r="M967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D968" t="n">
+        <v>0.02465753424657534</v>
+      </c>
+      <c r="E968" t="n">
+        <v>115822.2496956292</v>
+      </c>
+      <c r="F968" t="n">
+        <v>-0.01218833998739266</v>
+      </c>
+      <c r="G968" t="n">
+        <v>0.1469807926543989</v>
+      </c>
+      <c r="H968" t="n">
+        <v>-1.542105880135277</v>
+      </c>
+      <c r="I968" t="n">
+        <v>15.7809911585817</v>
+      </c>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
+      <c r="L968" t="inlineStr"/>
+      <c r="M968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D969" t="n">
+        <v>0.1205479452054795</v>
+      </c>
+      <c r="E969" t="n">
+        <v>116682.416852635</v>
+      </c>
+      <c r="F969" t="n">
+        <v>-0.005252702314999623</v>
+      </c>
+      <c r="G969" t="n">
+        <v>0.1582220041713745</v>
+      </c>
+      <c r="H969" t="n">
+        <v>-1.375405429118615</v>
+      </c>
+      <c r="I969" t="n">
+        <v>12.79148720818062</v>
+      </c>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
+      <c r="L969" t="inlineStr"/>
+      <c r="M969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="D970" t="n">
+        <v>0.1972602739726027</v>
+      </c>
+      <c r="E970" t="n">
+        <v>117385.9050352908</v>
+      </c>
+      <c r="F970" t="n">
+        <v>-0.006679512344602833</v>
+      </c>
+      <c r="G970" t="n">
+        <v>0.1714250184705691</v>
+      </c>
+      <c r="H970" t="n">
+        <v>-1.146861493487216</v>
+      </c>
+      <c r="I970" t="n">
+        <v>11.45993870067113</v>
+      </c>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
+      <c r="L970" t="inlineStr"/>
+      <c r="M970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D971" t="n">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="E971" t="n">
+        <v>118068.3338892571</v>
+      </c>
+      <c r="F971" t="n">
+        <v>-0.0144455146371095</v>
+      </c>
+      <c r="G971" t="n">
+        <v>0.212949946108634</v>
+      </c>
+      <c r="H971" t="n">
+        <v>-1.609561521925613</v>
+      </c>
+      <c r="I971" t="n">
+        <v>13.45205439434847</v>
+      </c>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
+      <c r="L971" t="inlineStr"/>
+      <c r="M971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D972" t="n">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="E972" t="n">
+        <v>119208.6428809396</v>
+      </c>
+      <c r="F972" t="n">
+        <v>-0.009800645915073219</v>
+      </c>
+      <c r="G972" t="n">
+        <v>0.1942304192324773</v>
+      </c>
+      <c r="H972" t="n">
+        <v>-0.8094656307714714</v>
+      </c>
+      <c r="I972" t="n">
+        <v>7.995995437878839</v>
+      </c>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
+      <c r="L972" t="inlineStr"/>
+      <c r="M972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D973" t="n">
+        <v>0.4465753424657534</v>
+      </c>
+      <c r="E973" t="n">
+        <v>119967.6414036005</v>
+      </c>
+      <c r="F973" t="n">
+        <v>-0.0127886104892476</v>
+      </c>
+      <c r="G973" t="n">
+        <v>0.2027490287194912</v>
+      </c>
+      <c r="H973" t="n">
+        <v>-0.8023498443544875</v>
+      </c>
+      <c r="I973" t="n">
+        <v>7.659690874918008</v>
+      </c>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
+      <c r="L973" t="inlineStr"/>
+      <c r="M973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="D974" t="n">
+        <v>0.6958904109589041</v>
+      </c>
+      <c r="E974" t="n">
+        <v>119810.4629630309</v>
+      </c>
+      <c r="F974" t="n">
+        <v>-0.02837587171955037</v>
+      </c>
+      <c r="G974" t="n">
+        <v>0.1819741682566775</v>
+      </c>
+      <c r="H974" t="n">
+        <v>-1.243653847842376</v>
+      </c>
+      <c r="I974" t="n">
+        <v>9.112527876378875</v>
+      </c>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
+      <c r="L974" t="inlineStr"/>
+      <c r="M974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>2026-06-26</t>
+        </is>
+      </c>
+      <c r="D975" t="n">
+        <v>0.7726027397260274</v>
+      </c>
+      <c r="E975" t="n">
+        <v>121395.5640692288</v>
+      </c>
+      <c r="F975" t="n">
+        <v>-0.05612613744298988</v>
+      </c>
+      <c r="G975" t="n">
+        <v>0.2987257734517797</v>
+      </c>
+      <c r="H975" t="n">
+        <v>-1.727399913939542</v>
+      </c>
+      <c r="I975" t="n">
+        <v>10.90794079386216</v>
+      </c>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
+      <c r="L975" t="inlineStr"/>
+      <c r="M975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>2026-09-25</t>
+        </is>
+      </c>
+      <c r="D976" t="n">
+        <v>1.021917808219178</v>
+      </c>
+      <c r="E976" t="n">
+        <v>123133.9786501865</v>
+      </c>
+      <c r="F976" t="n">
+        <v>-0.09178665824168694</v>
+      </c>
+      <c r="G976" t="n">
+        <v>0.3809134109932317</v>
+      </c>
+      <c r="H976" t="n">
+        <v>-1.746056615987775</v>
+      </c>
+      <c r="I976" t="n">
+        <v>9.384733908644623</v>
+      </c>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
+      <c r="L976" t="inlineStr"/>
+      <c r="M976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
+      </c>
+      <c r="D977" t="n">
+        <v>1.268493150684932</v>
+      </c>
+      <c r="E977" t="n">
+        <v>125089.5405282463</v>
+      </c>
+      <c r="F977" t="n">
+        <v>-0.1582200595696781</v>
+      </c>
+      <c r="G977" t="n">
+        <v>0.6547163992936453</v>
+      </c>
+      <c r="H977" t="n">
+        <v>-2.505896085455013</v>
+      </c>
+      <c r="I977" t="n">
+        <v>12.04364618935917</v>
+      </c>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
+      <c r="L977" t="inlineStr"/>
+      <c r="M977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D978" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E978" t="n">
+        <v>115833.0382856053</v>
+      </c>
+      <c r="F978" t="n">
+        <v>-0.009099281173086568</v>
+      </c>
+      <c r="G978" t="n">
+        <v>0.1386340166692692</v>
+      </c>
+      <c r="H978" t="n">
+        <v>-0.7987104069201661</v>
+      </c>
+      <c r="I978" t="n">
+        <v>8.201905709305551</v>
+      </c>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
+      <c r="L978" t="inlineStr"/>
+      <c r="M978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D979" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E979" t="n">
+        <v>115855.8678336693</v>
+      </c>
+      <c r="F979" t="n">
+        <v>-0.007825505452335813</v>
+      </c>
+      <c r="G979" t="n">
+        <v>0.1318162687006521</v>
+      </c>
+      <c r="H979" t="n">
+        <v>-0.671599126148441</v>
+      </c>
+      <c r="I979" t="n">
+        <v>7.289593061123975</v>
+      </c>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
+      <c r="L979" t="inlineStr"/>
+      <c r="M979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D980" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E980" t="n">
+        <v>115864.7057000564</v>
+      </c>
+      <c r="F980" t="n">
+        <v>-0.008344079946989319</v>
+      </c>
+      <c r="G980" t="n">
+        <v>0.1364831324681856</v>
+      </c>
+      <c r="H980" t="n">
+        <v>-0.5403347853237466</v>
+      </c>
+      <c r="I980" t="n">
+        <v>7.583627728075383</v>
+      </c>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
+      <c r="L980" t="inlineStr"/>
+      <c r="M980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D981" t="n">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E981" t="n">
+        <v>115829.8425709918</v>
+      </c>
+      <c r="F981" t="n">
+        <v>-0.008190596681315524</v>
+      </c>
+      <c r="G981" t="n">
+        <v>0.2111290230085454</v>
+      </c>
+      <c r="H981" t="n">
+        <v>-0.3460508982877387</v>
+      </c>
+      <c r="I981" t="n">
+        <v>5.26643481868777</v>
+      </c>
+      <c r="J981" t="n">
+        <v>0.3107299234386695</v>
+      </c>
+      <c r="K981" t="inlineStr"/>
+      <c r="L981" t="inlineStr"/>
+      <c r="M981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D982" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E982" t="n">
+        <v>115838.4318254528</v>
+      </c>
+      <c r="F982" t="n">
+        <v>-0.01120044317874287</v>
+      </c>
+      <c r="G982" t="n">
+        <v>0.1452123325491754</v>
+      </c>
+      <c r="H982" t="n">
+        <v>-0.991770472637882</v>
+      </c>
+      <c r="I982" t="n">
+        <v>9.90375723142076</v>
+      </c>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
+      <c r="L982" t="inlineStr"/>
+      <c r="M982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D983" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E983" t="n">
+        <v>115827.8923048814</v>
+      </c>
+      <c r="F983" t="n">
+        <v>-0.008892053326938029</v>
+      </c>
+      <c r="G983" t="n">
+        <v>0.1815670546072843</v>
+      </c>
+      <c r="H983" t="n">
+        <v>-0.5329559910574448</v>
+      </c>
+      <c r="I983" t="n">
+        <v>6.361196805944346</v>
+      </c>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
+      <c r="L983" t="inlineStr"/>
+      <c r="M983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D984" t="n">
+        <v>0.04383561643835616</v>
+      </c>
+      <c r="E984" t="n">
+        <v>116740.1958551062</v>
+      </c>
+      <c r="F984" t="n">
+        <v>0.02196234929121436</v>
+      </c>
+      <c r="G984" t="n">
+        <v>0.1413570128555406</v>
+      </c>
+      <c r="H984" t="n">
+        <v>-1.014185444576263</v>
+      </c>
+      <c r="I984" t="n">
+        <v>9.838753231989887</v>
+      </c>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
+      <c r="L984" t="inlineStr"/>
+      <c r="M984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D985" t="n">
+        <v>0.06301369863013699</v>
+      </c>
+      <c r="E985" t="n">
+        <v>116701.4219502936</v>
+      </c>
+      <c r="F985" t="n">
+        <v>0.009963683132610153</v>
+      </c>
+      <c r="G985" t="n">
+        <v>0.1515262040665517</v>
+      </c>
+      <c r="H985" t="n">
+        <v>-0.7902845756117525</v>
+      </c>
+      <c r="I985" t="n">
+        <v>7.021674999138468</v>
+      </c>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="inlineStr"/>
+      <c r="M985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="D986" t="n">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="E986" t="n">
+        <v>116822.5852917172</v>
+      </c>
+      <c r="F986" t="n">
+        <v>0.008784818962478283</v>
+      </c>
+      <c r="G986" t="n">
+        <v>0.1405969324560297</v>
+      </c>
+      <c r="H986" t="n">
+        <v>-0.4843056150985673</v>
+      </c>
+      <c r="I986" t="n">
+        <v>5.908878308659542</v>
+      </c>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="inlineStr"/>
+      <c r="M986" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_analyzed/moment.xlsx
+++ b/data_analyzed/moment.xlsx
@@ -675,10 +675,18 @@
       <c r="I5" t="n">
         <v>18.20988765032978</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1.460692394508935</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5873532474626186</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.6575308174542319</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.950868208370507</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1504,10 +1512,18 @@
       <c r="I24" t="n">
         <v>17.22781570930497</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1.305312848156691</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4139721571589941</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.3287368726715542</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.997181445403649</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2333,10 +2349,18 @@
       <c r="I43" t="n">
         <v>18.26025916565363</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.7915244526469486</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.3495144155625457</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.3577615886414741</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.104564450297753</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3156,10 +3180,18 @@
       <c r="I62" t="n">
         <v>14.20365000928632</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.698772678820566</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.2805535823753246</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.4033899152574368</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.351564078595314</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3979,10 +4011,18 @@
       <c r="I81" t="n">
         <v>22.88182822685657</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>-0.4480918941592057</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.281622951475094</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0.3813478193465918</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2.340562436104241</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4808,10 +4848,18 @@
       <c r="I100" t="n">
         <v>18.5155790378486</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>-1.015264185010925</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2722891519712221</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-0.381644054962673</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2.310366521624158</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5631,10 +5679,18 @@
       <c r="I119" t="n">
         <v>21.14839510600624</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>-0.3939252053740044</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.2739221529567009</v>
+      </c>
+      <c r="L119" t="n">
+        <v>-0.358510555451534</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2.294804652755347</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6454,10 +6510,18 @@
       <c r="I138" t="n">
         <v>16.28213507729088</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>-0.5994518851498684</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.272804126445654</v>
+      </c>
+      <c r="L138" t="n">
+        <v>-0.3387027169055232</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2.300198810175994</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7277,10 +7341,18 @@
       <c r="I157" t="n">
         <v>19.2510427042995</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>-0.6089159972470694</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.271496734034298</v>
+      </c>
+      <c r="L157" t="n">
+        <v>-0.3188150030356908</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2.307996313816933</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8100,10 +8172,18 @@
       <c r="I176" t="n">
         <v>18.44252563185625</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>-0.560448708900612</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.2709512763370845</v>
+      </c>
+      <c r="L176" t="n">
+        <v>-0.295937103102058</v>
+      </c>
+      <c r="M176" t="n">
+        <v>2.312932164623692</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8929,10 +9009,18 @@
       <c r="I195" t="n">
         <v>11.33550450543892</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>-0.6921205813553138</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.2660545082537246</v>
+      </c>
+      <c r="L195" t="n">
+        <v>-0.2339943674980597</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2.354084289814547</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -9752,10 +9840,18 @@
       <c r="I214" t="n">
         <v>11.34679545180982</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>-0.632951318127764</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0.2641061241648734</v>
+      </c>
+      <c r="L214" t="n">
+        <v>-0.212077930990786</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2.374691302351945</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -10575,10 +10671,18 @@
       <c r="I233" t="n">
         <v>10.68364220396225</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>-0.5526277053071973</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0.26354206226537</v>
+      </c>
+      <c r="L233" t="n">
+        <v>-0.1854292826954238</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2.388428212752406</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -11392,10 +11496,18 @@
       <c r="I252" t="n">
         <v>10.04707556779084</v>
       </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>-0.6453623611420161</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0.2612523288778236</v>
+      </c>
+      <c r="L252" t="n">
+        <v>-0.1625477463701754</v>
+      </c>
+      <c r="M252" t="n">
+        <v>2.416237021353649</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -12127,10 +12239,18 @@
       <c r="I269" t="n">
         <v>10.97479141632493</v>
       </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>-0.1610182544693659</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.2649940837679578</v>
+      </c>
+      <c r="L269" t="n">
+        <v>-0.1474438651294957</v>
+      </c>
+      <c r="M269" t="n">
+        <v>2.382592596971871</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -12909,10 +13029,18 @@
       <c r="I287" t="n">
         <v>11.16982911953582</v>
       </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>-0.6357168640050579</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.2584225421891048</v>
+      </c>
+      <c r="L287" t="n">
+        <v>-0.06768018358516506</v>
+      </c>
+      <c r="M287" t="n">
+        <v>2.485282303055119</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -13724,10 +13852,18 @@
       <c r="I306" t="n">
         <v>16.98311454636362</v>
       </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>-0.6407391182286037</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.2559601416499164</v>
+      </c>
+      <c r="L306" t="n">
+        <v>-0.03922670970420494</v>
+      </c>
+      <c r="M306" t="n">
+        <v>2.52951366502226</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -14539,10 +14675,18 @@
       <c r="I325" t="n">
         <v>10.76804581872796</v>
       </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>-0.6296680801490944</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.2536532154868955</v>
+      </c>
+      <c r="L325" t="n">
+        <v>-0.008877041747368367</v>
+      </c>
+      <c r="M325" t="n">
+        <v>2.577355436810102</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -15354,10 +15498,18 @@
       <c r="I344" t="n">
         <v>11.82180579330556</v>
       </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>-0.66050262823927</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.2505814835901367</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0.02080789189105024</v>
+      </c>
+      <c r="M344" t="n">
+        <v>2.636447856672124</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -16169,10 +16321,18 @@
       <c r="I363" t="n">
         <v>11.59072471040266</v>
       </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>-0.1987370408061152</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.2543632334419188</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0.04041260025214955</v>
+      </c>
+      <c r="M363" t="n">
+        <v>2.604755324742547</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -16990,10 +17150,18 @@
       <c r="I382" t="n">
         <v>12.13031415497148</v>
       </c>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
-      <c r="M382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>-0.1781594477044027</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.2676704944632691</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0.03660169322884831</v>
+      </c>
+      <c r="M382" t="n">
+        <v>2.484796369257145</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -17805,10 +17973,18 @@
       <c r="I401" t="n">
         <v>12.80407949960986</v>
       </c>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
-      <c r="M401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>0.1393267909113778</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.2724517406765992</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0.02156419203430372</v>
+      </c>
+      <c r="M401" t="n">
+        <v>2.44379544612499</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -18620,10 +18796,18 @@
       <c r="I420" t="n">
         <v>10.27151143191923</v>
       </c>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
-      <c r="M420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>-0.02614138770798355</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2777807898981177</v>
+      </c>
+      <c r="L420" t="n">
+        <v>0.02421660786898908</v>
+      </c>
+      <c r="M420" t="n">
+        <v>2.397112995895175</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -19435,10 +19619,18 @@
       <c r="I439" t="n">
         <v>10.29863907328862</v>
       </c>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
-      <c r="M439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>-0.3918775745095659</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2803252677862076</v>
+      </c>
+      <c r="L439" t="n">
+        <v>0.06026498603299017</v>
+      </c>
+      <c r="M439" t="n">
+        <v>2.397559387861127</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -20250,10 +20442,18 @@
       <c r="I458" t="n">
         <v>10.75230115308703</v>
       </c>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
-      <c r="M458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>-0.4455089664518735</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.2820766268347986</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0.0999203879827317</v>
+      </c>
+      <c r="M458" t="n">
+        <v>2.41190075823628</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -21071,10 +21271,18 @@
       <c r="I477" t="n">
         <v>11.18105589161218</v>
       </c>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
-      <c r="M477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>-1.037046763011191</v>
+      </c>
+      <c r="K477" t="n">
+        <v>0.2592879346532291</v>
+      </c>
+      <c r="L477" t="n">
+        <v>0.1569553271971928</v>
+      </c>
+      <c r="M477" t="n">
+        <v>2.610856118847121</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -21886,10 +22094,18 @@
       <c r="I496" t="n">
         <v>11.13639132084934</v>
       </c>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
-      <c r="M496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>-0.9070973970788317</v>
+      </c>
+      <c r="K496" t="n">
+        <v>0.2471623738047388</v>
+      </c>
+      <c r="L496" t="n">
+        <v>0.1650816019040287</v>
+      </c>
+      <c r="M496" t="n">
+        <v>2.728355744582294</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -22701,10 +22917,18 @@
       <c r="I515" t="n">
         <v>9.471443401656614</v>
       </c>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
-      <c r="M515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>-1.337248670033086</v>
+      </c>
+      <c r="K515" t="n">
+        <v>0.2130411670264468</v>
+      </c>
+      <c r="L515" t="n">
+        <v>-0.1122727997992599</v>
+      </c>
+      <c r="M515" t="n">
+        <v>2.238339903208516</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -23516,10 +23740,18 @@
       <c r="I534" t="n">
         <v>9.783183741663269</v>
       </c>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
-      <c r="M534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>-0.8926270003274449</v>
+      </c>
+      <c r="K534" t="n">
+        <v>0.1998869090959396</v>
+      </c>
+      <c r="L534" t="n">
+        <v>-0.1629355222031147</v>
+      </c>
+      <c r="M534" t="n">
+        <v>2.222777772457852</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -24237,10 +24469,18 @@
       <c r="I551" t="n">
         <v>7.367402260957602</v>
       </c>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
-      <c r="M551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>-0.8849634774476736</v>
+      </c>
+      <c r="K551" t="n">
+        <v>0.2120375510351889</v>
+      </c>
+      <c r="L551" t="n">
+        <v>-0.1600920776776984</v>
+      </c>
+      <c r="M551" t="n">
+        <v>2.166300016238559</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -24323,10 +24563,18 @@
       <c r="I553" t="n">
         <v>11.83288618160184</v>
       </c>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
-      <c r="M553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>-0.7688650422146329</v>
+      </c>
+      <c r="K553" t="n">
+        <v>0.1908983664930921</v>
+      </c>
+      <c r="L553" t="n">
+        <v>-0.1767970433019267</v>
+      </c>
+      <c r="M553" t="n">
+        <v>2.248246926221862</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -25050,10 +25298,18 @@
       <c r="I570" t="n">
         <v>6.61528812132168</v>
       </c>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
-      <c r="M570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>-0.7645586780137135</v>
+      </c>
+      <c r="K570" t="n">
+        <v>0.2018582675533268</v>
+      </c>
+      <c r="L570" t="n">
+        <v>-0.16474925042982</v>
+      </c>
+      <c r="M570" t="n">
+        <v>2.199959973289821</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -25136,10 +25392,18 @@
       <c r="I572" t="n">
         <v>14.13494331249818</v>
       </c>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
-      <c r="M572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>-0.3894124971558712</v>
+      </c>
+      <c r="K572" t="n">
+        <v>0.1673272484145647</v>
+      </c>
+      <c r="L572" t="n">
+        <v>-0.2662436487248483</v>
+      </c>
+      <c r="M572" t="n">
+        <v>2.160691423113439</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -25857,10 +26121,18 @@
       <c r="I589" t="n">
         <v>6.771562382336227</v>
       </c>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
-      <c r="M589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>-0.3955686460571584</v>
+      </c>
+      <c r="K589" t="n">
+        <v>0.1740690112466954</v>
+      </c>
+      <c r="L589" t="n">
+        <v>-0.2417349354135718</v>
+      </c>
+      <c r="M589" t="n">
+        <v>2.120030282090759</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -25943,10 +26215,18 @@
       <c r="I591" t="n">
         <v>11.53987039751357</v>
       </c>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
-      <c r="M591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>-0.2583378382159642</v>
+      </c>
+      <c r="K591" t="n">
+        <v>0.1700193550402816</v>
+      </c>
+      <c r="L591" t="n">
+        <v>-0.2245741170075495</v>
+      </c>
+      <c r="M591" t="n">
+        <v>2.128247644277041</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -26664,10 +26944,18 @@
       <c r="I608" t="n">
         <v>6.160679801535066</v>
       </c>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
-      <c r="M608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>-0.266188325144267</v>
+      </c>
+      <c r="K608" t="n">
+        <v>0.177469883627903</v>
+      </c>
+      <c r="L608" t="n">
+        <v>-0.1905478781610373</v>
+      </c>
+      <c r="M608" t="n">
+        <v>2.083429662032082</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -26750,10 +27038,18 @@
       <c r="I610" t="n">
         <v>13.22155647111928</v>
       </c>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
-      <c r="M610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>-0.04519170855439082</v>
+      </c>
+      <c r="K610" t="n">
+        <v>0.1745607282566501</v>
+      </c>
+      <c r="L610" t="n">
+        <v>-0.2131940746424927</v>
+      </c>
+      <c r="M610" t="n">
+        <v>2.071038030000813</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -27471,10 +27767,18 @@
       <c r="I627" t="n">
         <v>7.477312722808811</v>
       </c>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
-      <c r="M627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>-0.0535813713275675</v>
+      </c>
+      <c r="K627" t="n">
+        <v>0.1832929346944241</v>
+      </c>
+      <c r="L627" t="n">
+        <v>-0.1755390014415697</v>
+      </c>
+      <c r="M627" t="n">
+        <v>2.015320522030928</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -27557,10 +27861,18 @@
       <c r="I629" t="n">
         <v>12.16291941517945</v>
       </c>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
-      <c r="M629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>-0.10886480415365</v>
+      </c>
+      <c r="K629" t="n">
+        <v>0.1790893253320955</v>
+      </c>
+      <c r="L629" t="n">
+        <v>-0.1904350325793641</v>
+      </c>
+      <c r="M629" t="n">
+        <v>2.016583422333939</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -28231,10 +28543,18 @@
       <c r="I645" t="n">
         <v>7.100451824675623</v>
       </c>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
-      <c r="M645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>-0.1182539740579389</v>
+      </c>
+      <c r="K645" t="n">
+        <v>0.1891472473056864</v>
+      </c>
+      <c r="L645" t="n">
+        <v>-0.1466619367907994</v>
+      </c>
+      <c r="M645" t="n">
+        <v>1.951782461361968</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -28356,10 +28676,18 @@
       <c r="I648" t="n">
         <v>10.68817956144695</v>
       </c>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
-      <c r="M648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>-0.4186732762014604</v>
+      </c>
+      <c r="K648" t="n">
+        <v>0.1793370711930251</v>
+      </c>
+      <c r="L648" t="n">
+        <v>-0.1384341990378838</v>
+      </c>
+      <c r="M648" t="n">
+        <v>2.024353852996327</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -29036,10 +29364,18 @@
       <c r="I664" t="n">
         <v>6.909798936527114</v>
       </c>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
-      <c r="M664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>-0.4313052269092854</v>
+      </c>
+      <c r="K664" t="n">
+        <v>0.1894878785946094</v>
+      </c>
+      <c r="L664" t="n">
+        <v>-0.08022041709349888</v>
+      </c>
+      <c r="M664" t="n">
+        <v>1.966346205921337</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -29161,10 +29497,18 @@
       <c r="I667" t="n">
         <v>9.77061856561763</v>
       </c>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
-      <c r="M667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>0.1204093451572364</v>
+      </c>
+      <c r="K667" t="n">
+        <v>0.1892605220834141</v>
+      </c>
+      <c r="L667" t="n">
+        <v>-0.05753396928762246</v>
+      </c>
+      <c r="M667" t="n">
+        <v>1.955204988064525</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -29835,10 +30179,18 @@
       <c r="I683" t="n">
         <v>5.976168422060785</v>
       </c>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
-      <c r="M683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>0.1020160206622348</v>
+      </c>
+      <c r="K683" t="n">
+        <v>0.2027549831729459</v>
+      </c>
+      <c r="L683" t="n">
+        <v>0.02874491917806615</v>
+      </c>
+      <c r="M683" t="n">
+        <v>1.893251968313156</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -29960,10 +30312,18 @@
       <c r="I686" t="n">
         <v>8.64098573183959</v>
       </c>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
-      <c r="M686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>0.4355154017148586</v>
+      </c>
+      <c r="K686" t="n">
+        <v>0.189438398179798</v>
+      </c>
+      <c r="L686" t="n">
+        <v>-0.1237630042514426</v>
+      </c>
+      <c r="M686" t="n">
+        <v>1.995618561048226</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -30634,10 +30994,18 @@
       <c r="I702" t="n">
         <v>6.44729959438628</v>
       </c>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
-      <c r="M702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>0.420325230121112</v>
+      </c>
+      <c r="K702" t="n">
+        <v>0.2041361755087643</v>
+      </c>
+      <c r="L702" t="n">
+        <v>-0.05236788654954026</v>
+      </c>
+      <c r="M702" t="n">
+        <v>1.918517225511694</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -30759,10 +31127,18 @@
       <c r="I705" t="n">
         <v>11.26768481216366</v>
       </c>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
-      <c r="M705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>0.1443149811186594</v>
+      </c>
+      <c r="K705" t="n">
+        <v>0.1950811787500297</v>
+      </c>
+      <c r="L705" t="n">
+        <v>-0.1529473919543284</v>
+      </c>
+      <c r="M705" t="n">
+        <v>1.95001704484697</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -31433,10 +31809,18 @@
       <c r="I721" t="n">
         <v>6.689541172995616</v>
       </c>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
-      <c r="M721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>0.1298812044034884</v>
+      </c>
+      <c r="K721" t="n">
+        <v>0.2123087810980622</v>
+      </c>
+      <c r="L721" t="n">
+        <v>-0.0858994817784199</v>
+      </c>
+      <c r="M721" t="n">
+        <v>1.853749284865215</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -31552,10 +31936,18 @@
       <c r="I724" t="n">
         <v>10.41746039853734</v>
       </c>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
-      <c r="M724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>-0.02771999520026541</v>
+      </c>
+      <c r="K724" t="n">
+        <v>0.2017825026771763</v>
+      </c>
+      <c r="L724" t="n">
+        <v>-0.1442416672937439</v>
+      </c>
+      <c r="M724" t="n">
+        <v>1.884282423600032</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -32185,10 +32577,18 @@
       <c r="I739" t="n">
         <v>6.294792007321606</v>
       </c>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
-      <c r="M739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>-0.04310385262431051</v>
+      </c>
+      <c r="K739" t="n">
+        <v>0.2218784001470977</v>
+      </c>
+      <c r="L739" t="n">
+        <v>-0.07215184008446832</v>
+      </c>
+      <c r="M739" t="n">
+        <v>1.773196942078461</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -32263,10 +32663,18 @@
       <c r="I741" t="n">
         <v>9.877922028893025</v>
       </c>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
-      <c r="M741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>0.7429935367186518</v>
+      </c>
+      <c r="K741" t="n">
+        <v>0.1899531794021503</v>
+      </c>
+      <c r="L741" t="n">
+        <v>-0.1808601797191824</v>
+      </c>
+      <c r="M741" t="n">
+        <v>1.961859598154068</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -32943,10 +33351,18 @@
       <c r="I757" t="n">
         <v>6.86389397782977</v>
       </c>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
-      <c r="M757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>0.7354172702498334</v>
+      </c>
+      <c r="K757" t="n">
+        <v>0.2078604672774444</v>
+      </c>
+      <c r="L757" t="n">
+        <v>-0.1298912690655346</v>
+      </c>
+      <c r="M757" t="n">
+        <v>1.854803919449481</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -33021,10 +33437,18 @@
       <c r="I759" t="n">
         <v>7.140504829698325</v>
       </c>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
-      <c r="M759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>0.380479193013348</v>
+      </c>
+      <c r="K759" t="n">
+        <v>0.1392722069632398</v>
+      </c>
+      <c r="L759" t="n">
+        <v>-0.1946104525241232</v>
+      </c>
+      <c r="M759" t="n">
+        <v>2.026921489117672</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -33734,10 +34158,18 @@
       <c r="I776" t="n">
         <v>6.741788262191434</v>
       </c>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
-      <c r="M776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>0.4138443184027755</v>
+      </c>
+      <c r="K776" t="n">
+        <v>0.1369911672062933</v>
+      </c>
+      <c r="L776" t="n">
+        <v>-0.1343742105325537</v>
+      </c>
+      <c r="M776" t="n">
+        <v>1.775616144130038</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -33812,10 +34244,18 @@
       <c r="I778" t="n">
         <v>7.252800848669408</v>
       </c>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
-      <c r="M778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>0.3079345638846112</v>
+      </c>
+      <c r="K778" t="n">
+        <v>0.1413765329913504</v>
+      </c>
+      <c r="L778" t="n">
+        <v>-0.2799462170697564</v>
+      </c>
+      <c r="M778" t="n">
+        <v>2.067279949122905</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -34525,10 +34965,18 @@
       <c r="I795" t="n">
         <v>5.95041994999684</v>
       </c>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
-      <c r="M795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>0.3489984000983575</v>
+      </c>
+      <c r="K795" t="n">
+        <v>0.1383884161407324</v>
+      </c>
+      <c r="L795" t="n">
+        <v>-0.263315921266713</v>
+      </c>
+      <c r="M795" t="n">
+        <v>1.850542134809331</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -34603,10 +35051,18 @@
       <c r="I797" t="n">
         <v>7.25798247798682</v>
       </c>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
-      <c r="M797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>0.6477823920864647</v>
+      </c>
+      <c r="K797" t="n">
+        <v>0.12955830305827</v>
+      </c>
+      <c r="L797" t="n">
+        <v>-0.3369637303781599</v>
+      </c>
+      <c r="M797" t="n">
+        <v>2.243062783514028</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -35269,10 +35725,18 @@
       <c r="I813" t="n">
         <v>7.952550734035643</v>
       </c>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
-      <c r="M813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>0.7047272282350555</v>
+      </c>
+      <c r="K813" t="n">
+        <v>0.1165742814116232</v>
+      </c>
+      <c r="L813" t="n">
+        <v>-0.2694056264471178</v>
+      </c>
+      <c r="M813" t="n">
+        <v>1.885961265145619</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
@@ -35386,10 +35850,18 @@
       <c r="I816" t="n">
         <v>6.814174400985319</v>
       </c>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
-      <c r="M816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>0.4314586288976201</v>
+      </c>
+      <c r="K816" t="n">
+        <v>0.1272660847678533</v>
+      </c>
+      <c r="L816" t="n">
+        <v>-0.4544100614065931</v>
+      </c>
+      <c r="M816" t="n">
+        <v>2.432481278254157</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
@@ -36058,10 +36530,18 @@
       <c r="I832" t="n">
         <v>7.251224732472367</v>
       </c>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr"/>
-      <c r="M832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>0.502276831272031</v>
+      </c>
+      <c r="K832" t="n">
+        <v>0.1080822147826564</v>
+      </c>
+      <c r="L832" t="n">
+        <v>-0.4228436700157019</v>
+      </c>
+      <c r="M832" t="n">
+        <v>2.165283755576974</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
@@ -36175,10 +36655,18 @@
       <c r="I835" t="n">
         <v>7.170469853157511</v>
       </c>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr"/>
-      <c r="M835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>0.3358881423677913</v>
+      </c>
+      <c r="K835" t="n">
+        <v>0.1128471556466689</v>
+      </c>
+      <c r="L835" t="n">
+        <v>-0.885743527812297</v>
+      </c>
+      <c r="M835" t="n">
+        <v>3.546152580353009</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
@@ -36841,10 +37329,18 @@
       <c r="I851" t="n">
         <v>7.989412686763538</v>
       </c>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
-      <c r="L851" t="inlineStr"/>
-      <c r="M851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>0.470171172433311</v>
+      </c>
+      <c r="K851" t="n">
+        <v>0.05203682675916233</v>
+      </c>
+      <c r="L851" t="n">
+        <v>-0.5276981592532779</v>
+      </c>
+      <c r="M851" t="n">
+        <v>3.760700825931845</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
@@ -36958,10 +37454,18 @@
       <c r="I854" t="n">
         <v>7.342438936742024</v>
       </c>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr"/>
-      <c r="M854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>0.4156775366266385</v>
+      </c>
+      <c r="K854" t="n">
+        <v>0.1098859006005522</v>
+      </c>
+      <c r="L854" t="n">
+        <v>-1.087633391575571</v>
+      </c>
+      <c r="M854" t="n">
+        <v>4.118064670403419</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
@@ -37624,10 +38128,18 @@
       <c r="I870" t="n">
         <v>4.665645595731196</v>
       </c>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
-      <c r="L870" t="inlineStr"/>
-      <c r="M870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>0.5795541072341911</v>
+      </c>
+      <c r="K870" t="n">
+        <v>0.02670569459762242</v>
+      </c>
+      <c r="L870" t="n">
+        <v>0.7716191783871154</v>
+      </c>
+      <c r="M870" t="n">
+        <v>3.272474195117635</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
@@ -37741,10 +38253,18 @@
       <c r="I873" t="n">
         <v>9.067577376010485</v>
       </c>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr"/>
-      <c r="M873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>0.06883898519506858</v>
+      </c>
+      <c r="K873" t="n">
+        <v>0.1164750161008698</v>
+      </c>
+      <c r="L873" t="n">
+        <v>-1.094118702056721</v>
+      </c>
+      <c r="M873" t="n">
+        <v>3.945400543641628</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
@@ -38407,10 +38927,18 @@
       <c r="I889" t="n">
         <v>4.886035991046247</v>
       </c>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
-      <c r="L889" t="inlineStr"/>
-      <c r="M889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>0.2540735597025808</v>
+      </c>
+      <c r="K889" t="n">
+        <v>0.02321765662336435</v>
+      </c>
+      <c r="L889" t="n">
+        <v>0.9282963943500264</v>
+      </c>
+      <c r="M889" t="n">
+        <v>3.460369480840115</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
@@ -38524,10 +39052,18 @@
       <c r="I892" t="n">
         <v>11.197878828116</v>
       </c>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
-      <c r="L892" t="inlineStr"/>
-      <c r="M892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>0.02803271665403035</v>
+      </c>
+      <c r="K892" t="n">
+        <v>0.1241909025990734</v>
+      </c>
+      <c r="L892" t="n">
+        <v>-1.074891792967301</v>
+      </c>
+      <c r="M892" t="n">
+        <v>3.722964740313175</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
@@ -39143,10 +39679,18 @@
       <c r="I907" t="n">
         <v>6.016509364523203</v>
       </c>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
-      <c r="L907" t="inlineStr"/>
-      <c r="M907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>0.2379546521669993</v>
+      </c>
+      <c r="K907" t="n">
+        <v>0.01982848409151632</v>
+      </c>
+      <c r="L907" t="n">
+        <v>1.176960613970059</v>
+      </c>
+      <c r="M907" t="n">
+        <v>3.604362388721714</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
@@ -39299,10 +39843,18 @@
       <c r="I911" t="n">
         <v>12.77716345986741</v>
       </c>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
-      <c r="L911" t="inlineStr"/>
-      <c r="M911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>-0.12577586116233</v>
+      </c>
+      <c r="K911" t="n">
+        <v>0.1320070435394081</v>
+      </c>
+      <c r="L911" t="n">
+        <v>-0.984074996562454</v>
+      </c>
+      <c r="M911" t="n">
+        <v>3.435692187765883</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
@@ -39736,10 +40288,18 @@
       <c r="I922" t="n">
         <v>9.628057125794983</v>
       </c>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
-      <c r="L922" t="inlineStr"/>
-      <c r="M922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>0.06026122232521429</v>
+      </c>
+      <c r="K922" t="n">
+        <v>0.03291395528915199</v>
+      </c>
+      <c r="L922" t="n">
+        <v>-0.3694311789717795</v>
+      </c>
+      <c r="M922" t="n">
+        <v>3.841824612077463</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
@@ -39916,10 +40476,18 @@
       <c r="I926" t="n">
         <v>5.293005229764328</v>
       </c>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
-      <c r="L926" t="inlineStr"/>
-      <c r="M926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>0.1057498648702407</v>
+      </c>
+      <c r="K926" t="n">
+        <v>0.02126324543600907</v>
+      </c>
+      <c r="L926" t="n">
+        <v>0.9750808689615857</v>
+      </c>
+      <c r="M926" t="n">
+        <v>3.156014636291755</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
@@ -40072,10 +40640,18 @@
       <c r="I930" t="n">
         <v>13.52297642088387</v>
       </c>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
-      <c r="L930" t="inlineStr"/>
-      <c r="M930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>-0.0965817948296492</v>
+      </c>
+      <c r="K930" t="n">
+        <v>0.1586059440561261</v>
+      </c>
+      <c r="L930" t="n">
+        <v>-0.6643603353787662</v>
+      </c>
+      <c r="M930" t="n">
+        <v>2.676061083464162</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
@@ -40462,10 +41038,18 @@
       <c r="I940" t="n">
         <v>9.158323151786888</v>
       </c>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
-      <c r="L940" t="inlineStr"/>
-      <c r="M940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>0.1456272830621586</v>
+      </c>
+      <c r="K940" t="n">
+        <v>0.04396334041319992</v>
+      </c>
+      <c r="L940" t="n">
+        <v>-0.5230178633592292</v>
+      </c>
+      <c r="M940" t="n">
+        <v>3.172877228109634</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
@@ -40542,10 +41126,18 @@
       <c r="I942" t="n">
         <v>8.166986038398656</v>
       </c>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
-      <c r="L942" t="inlineStr"/>
-      <c r="M942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>0.08796947879703369</v>
+      </c>
+      <c r="K942" t="n">
+        <v>0.06173887961027817</v>
+      </c>
+      <c r="L942" t="n">
+        <v>-0.3660329548470155</v>
+      </c>
+      <c r="M942" t="n">
+        <v>2.226536880081918</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
@@ -40675,10 +41267,18 @@
       <c r="I945" t="n">
         <v>9.003855347563105</v>
       </c>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
-      <c r="L945" t="inlineStr"/>
-      <c r="M945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>0.2364412865130047</v>
+      </c>
+      <c r="K945" t="n">
+        <v>0.02468863966354203</v>
+      </c>
+      <c r="L945" t="n">
+        <v>0.5286330827082543</v>
+      </c>
+      <c r="M945" t="n">
+        <v>1.977783767783527</v>
+      </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
@@ -40831,10 +41431,18 @@
       <c r="I949" t="n">
         <v>14.23718895045043</v>
       </c>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
-      <c r="L949" t="inlineStr"/>
-      <c r="M949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>-0.1629144398419475</v>
+      </c>
+      <c r="K949" t="n">
+        <v>0.172053709851828</v>
+      </c>
+      <c r="L949" t="n">
+        <v>-0.5442042084111586</v>
+      </c>
+      <c r="M949" t="n">
+        <v>2.41449392314042</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
@@ -41221,10 +41829,18 @@
       <c r="I959" t="n">
         <v>16.1356679850286</v>
       </c>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
-      <c r="L959" t="inlineStr"/>
-      <c r="M959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>0.1097892152838312</v>
+      </c>
+      <c r="K959" t="n">
+        <v>0.04956861070216573</v>
+      </c>
+      <c r="L959" t="n">
+        <v>-0.7087730146961063</v>
+      </c>
+      <c r="M959" t="n">
+        <v>3.076444197139277</v>
+      </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
@@ -41260,10 +41876,18 @@
       <c r="I960" t="n">
         <v>9.094615366209824</v>
       </c>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
-      <c r="L960" t="inlineStr"/>
-      <c r="M960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>0.04165398560769203</v>
+      </c>
+      <c r="K960" t="n">
+        <v>0.07034183773997779</v>
+      </c>
+      <c r="L960" t="n">
+        <v>-0.4025093891708066</v>
+      </c>
+      <c r="M960" t="n">
+        <v>1.989496374744393</v>
+      </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
@@ -41340,10 +41964,18 @@
       <c r="I962" t="n">
         <v>8.775648177366282</v>
       </c>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
-      <c r="L962" t="inlineStr"/>
-      <c r="M962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>-0.001236073648450034</v>
+      </c>
+      <c r="K962" t="n">
+        <v>0.0744260083034482</v>
+      </c>
+      <c r="L962" t="n">
+        <v>-0.09676815541920608</v>
+      </c>
+      <c r="M962" t="n">
+        <v>1.658017353560328</v>
+      </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
@@ -41426,10 +42058,18 @@
       <c r="I964" t="n">
         <v>7.681348196542678</v>
       </c>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr"/>
-      <c r="M964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>0.2465587268302678</v>
+      </c>
+      <c r="K964" t="n">
+        <v>0.01772038477401534</v>
+      </c>
+      <c r="L964" t="n">
+        <v>0.5642425798610297</v>
+      </c>
+      <c r="M964" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
@@ -41582,10 +42222,18 @@
       <c r="I968" t="n">
         <v>15.7809911585817</v>
       </c>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
-      <c r="L968" t="inlineStr"/>
-      <c r="M968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>-0.3140451963266652</v>
+      </c>
+      <c r="K968" t="n">
+        <v>0.1813083501906684</v>
+      </c>
+      <c r="L968" t="n">
+        <v>-0.369804668607517</v>
+      </c>
+      <c r="M968" t="n">
+        <v>2.252548621808928</v>
+      </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
@@ -41972,10 +42620,18 @@
       <c r="I978" t="n">
         <v>8.201905709305551</v>
       </c>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
-      <c r="L978" t="inlineStr"/>
-      <c r="M978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>-0.01192442588186327</v>
+      </c>
+      <c r="K978" t="n">
+        <v>0.05945863418716368</v>
+      </c>
+      <c r="L978" t="n">
+        <v>-0.6229669489973992</v>
+      </c>
+      <c r="M978" t="n">
+        <v>2.545038713460466</v>
+      </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
@@ -42011,10 +42667,18 @@
       <c r="I979" t="n">
         <v>7.289593061123975</v>
       </c>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
-      <c r="L979" t="inlineStr"/>
-      <c r="M979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>-0.09108429311841872</v>
+      </c>
+      <c r="K979" t="n">
+        <v>0.08088028472718183</v>
+      </c>
+      <c r="L979" t="n">
+        <v>-0.2469641238158641</v>
+      </c>
+      <c r="M979" t="n">
+        <v>1.696916961609168</v>
+      </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
@@ -42050,10 +42714,18 @@
       <c r="I980" t="n">
         <v>7.583627728075383</v>
       </c>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
-      <c r="L980" t="inlineStr"/>
-      <c r="M980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>-0.1382426405720013</v>
+      </c>
+      <c r="K980" t="n">
+        <v>0.08266941674490137</v>
+      </c>
+      <c r="L980" t="n">
+        <v>0.07541177259011571</v>
+      </c>
+      <c r="M980" t="n">
+        <v>1.527789823642735</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
@@ -42130,10 +42802,18 @@
       <c r="I982" t="n">
         <v>9.90375723142076</v>
       </c>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
-      <c r="L982" t="inlineStr"/>
-      <c r="M982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>-0.2122046116914344</v>
+      </c>
+      <c r="K982" t="n">
+        <v>0.1106283518548917</v>
+      </c>
+      <c r="L982" t="n">
+        <v>0.01699989915821003</v>
+      </c>
+      <c r="M982" t="n">
+        <v>1.714388364458852</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
@@ -42169,10 +42849,18 @@
       <c r="I983" t="n">
         <v>6.361196805944346</v>
       </c>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
-      <c r="L983" t="inlineStr"/>
-      <c r="M983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>0.1902487349673266</v>
+      </c>
+      <c r="K983" t="n">
+        <v>0.01451571677546724</v>
+      </c>
+      <c r="L983" t="n">
+        <v>3.099720594398772e-16</v>
+      </c>
+      <c r="M983" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">

--- a/data_analyzed/moment.xlsx
+++ b/data_analyzed/moment.xlsx
@@ -28590,10 +28590,18 @@
       <c r="I646" t="n">
         <v>6.186288621977192</v>
       </c>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
-      <c r="M646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>-0.05808045239458798</v>
+      </c>
+      <c r="K646" t="n">
+        <v>0.2399996375480334</v>
+      </c>
+      <c r="L646" t="n">
+        <v>0.237099825084014</v>
+      </c>
+      <c r="M646" t="n">
+        <v>2.554812062321973</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -29411,10 +29419,18 @@
       <c r="I665" t="n">
         <v>5.8085666925921</v>
       </c>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
-      <c r="M665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>-0.3647414710054033</v>
+      </c>
+      <c r="K665" t="n">
+        <v>0.2426200462448084</v>
+      </c>
+      <c r="L665" t="n">
+        <v>0.2814819410217358</v>
+      </c>
+      <c r="M665" t="n">
+        <v>2.570540023702133</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -30226,10 +30242,18 @@
       <c r="I684" t="n">
         <v>5.831970636100692</v>
       </c>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
-      <c r="M684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>0.1812112505621168</v>
+      </c>
+      <c r="K684" t="n">
+        <v>0.2568683653986759</v>
+      </c>
+      <c r="L684" t="n">
+        <v>0.3217421160765271</v>
+      </c>
+      <c r="M684" t="n">
+        <v>2.484956439386924</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -31041,10 +31065,18 @@
       <c r="I703" t="n">
         <v>5.465895759083472</v>
       </c>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
-      <c r="M703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>0.4954102784692063</v>
+      </c>
+      <c r="K703" t="n">
+        <v>0.2573349478400102</v>
+      </c>
+      <c r="L703" t="n">
+        <v>0.276846350178154</v>
+      </c>
+      <c r="M703" t="n">
+        <v>2.488042276717461</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -31856,10 +31888,18 @@
       <c r="I722" t="n">
         <v>42.48128837360665</v>
       </c>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
-      <c r="M722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>0.2049479017366116</v>
+      </c>
+      <c r="K722" t="n">
+        <v>0.263184587419064</v>
+      </c>
+      <c r="L722" t="n">
+        <v>0.2449524956484287</v>
+      </c>
+      <c r="M722" t="n">
+        <v>2.431376744545068</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -32624,10 +32664,18 @@
       <c r="I740" t="n">
         <v>41.96604126698929</v>
       </c>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
-      <c r="M740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>0.03477683984818711</v>
+      </c>
+      <c r="K740" t="n">
+        <v>0.2704625831437422</v>
+      </c>
+      <c r="L740" t="n">
+        <v>0.2362491449239708</v>
+      </c>
+      <c r="M740" t="n">
+        <v>2.364507701123102</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -33398,10 +33446,18 @@
       <c r="I758" t="n">
         <v>14.33606068843104</v>
       </c>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
-      <c r="M758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>0.8021519022689512</v>
+      </c>
+      <c r="K758" t="n">
+        <v>0.260316539010564</v>
+      </c>
+      <c r="L758" t="n">
+        <v>0.2282781566817243</v>
+      </c>
+      <c r="M758" t="n">
+        <v>2.418057025656014</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -34205,10 +34261,18 @@
       <c r="I777" t="n">
         <v>43.53086165472727</v>
       </c>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
-      <c r="M777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>0.4238415822648009</v>
+      </c>
+      <c r="K777" t="n">
+        <v>0.2208003802520098</v>
+      </c>
+      <c r="L777" t="n">
+        <v>0.2516512283222432</v>
+      </c>
+      <c r="M777" t="n">
+        <v>2.565679521489</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -35012,10 +35076,18 @@
       <c r="I796" t="n">
         <v>42.70468449013802</v>
       </c>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
-      <c r="M796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>0.349748557851123</v>
+      </c>
+      <c r="K796" t="n">
+        <v>0.2242144557103363</v>
+      </c>
+      <c r="L796" t="n">
+        <v>0.1948034178860719</v>
+      </c>
+      <c r="M796" t="n">
+        <v>2.540403574172122</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -35772,10 +35844,18 @@
       <c r="I814" t="n">
         <v>45.83537110914045</v>
       </c>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
-      <c r="M814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>0.6842399319549618</v>
+      </c>
+      <c r="K814" t="n">
+        <v>0.2163398458498075</v>
+      </c>
+      <c r="L814" t="n">
+        <v>0.1645595860744188</v>
+      </c>
+      <c r="M814" t="n">
+        <v>2.635073052411303</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
@@ -35811,10 +35891,18 @@
       <c r="I815" t="n">
         <v>5.310094348048753</v>
       </c>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
-      <c r="M815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>0.9585908516801056</v>
+      </c>
+      <c r="K815" t="n">
+        <v>0.4914461501244363</v>
+      </c>
+      <c r="L815" t="n">
+        <v>0.4577586258096178</v>
+      </c>
+      <c r="M815" t="n">
+        <v>2.225721949624816</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
@@ -36577,10 +36665,18 @@
       <c r="I833" t="n">
         <v>5.571798574880623</v>
       </c>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr"/>
-      <c r="M833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>0.4643152847966753</v>
+      </c>
+      <c r="K833" t="n">
+        <v>0.2166321763746371</v>
+      </c>
+      <c r="L833" t="n">
+        <v>0.09876596577347316</v>
+      </c>
+      <c r="M833" t="n">
+        <v>2.670391752303761</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
@@ -36616,10 +36712,18 @@
       <c r="I834" t="n">
         <v>5.371320605976026</v>
       </c>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr"/>
-      <c r="M834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>0.7433026278503435</v>
+      </c>
+      <c r="K834" t="n">
+        <v>0.490140279905831</v>
+      </c>
+      <c r="L834" t="n">
+        <v>0.4156417725326108</v>
+      </c>
+      <c r="M834" t="n">
+        <v>2.21484215664195</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
@@ -37376,10 +37480,18 @@
       <c r="I852" t="n">
         <v>5.976765079822982</v>
       </c>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
-      <c r="L852" t="inlineStr"/>
-      <c r="M852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>0.3532612570755742</v>
+      </c>
+      <c r="K852" t="n">
+        <v>0.2141232790717038</v>
+      </c>
+      <c r="L852" t="n">
+        <v>-0.1106676956798791</v>
+      </c>
+      <c r="M852" t="n">
+        <v>2.89103650729813</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
@@ -37415,10 +37527,18 @@
       <c r="I853" t="n">
         <v>5.362469780063074</v>
       </c>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr"/>
-      <c r="M853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>0.6466138601298965</v>
+      </c>
+      <c r="K853" t="n">
+        <v>0.4806400749445675</v>
+      </c>
+      <c r="L853" t="n">
+        <v>0.2873446956070686</v>
+      </c>
+      <c r="M853" t="n">
+        <v>2.21951688451959</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
@@ -38175,10 +38295,18 @@
       <c r="I871" t="n">
         <v>6.152338567716306</v>
       </c>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
-      <c r="L871" t="inlineStr"/>
-      <c r="M871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>0.4270390154741289</v>
+      </c>
+      <c r="K871" t="n">
+        <v>0.2157505895368739</v>
+      </c>
+      <c r="L871" t="n">
+        <v>-0.1957046463614244</v>
+      </c>
+      <c r="M871" t="n">
+        <v>2.961627167294484</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
@@ -38214,10 +38342,18 @@
       <c r="I872" t="n">
         <v>5.49745497074329</v>
       </c>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr"/>
-      <c r="M872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>0.7259974791323728</v>
+      </c>
+      <c r="K872" t="n">
+        <v>0.4796735828753367</v>
+      </c>
+      <c r="L872" t="n">
+        <v>0.2329828474207306</v>
+      </c>
+      <c r="M872" t="n">
+        <v>2.229085699281371</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
@@ -38974,10 +39110,18 @@
       <c r="I890" t="n">
         <v>6.664206672859858</v>
       </c>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
-      <c r="L890" t="inlineStr"/>
-      <c r="M890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>0.07946202988409848</v>
+      </c>
+      <c r="K890" t="n">
+        <v>0.2248679576934663</v>
+      </c>
+      <c r="L890" t="n">
+        <v>-0.2126869254608079</v>
+      </c>
+      <c r="M890" t="n">
+        <v>2.850489859459953</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
@@ -39013,10 +39157,18 @@
       <c r="I891" t="n">
         <v>5.557220421447647</v>
       </c>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
-      <c r="L891" t="inlineStr"/>
-      <c r="M891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>0.3876132281515216</v>
+      </c>
+      <c r="K891" t="n">
+        <v>0.4908161211871584</v>
+      </c>
+      <c r="L891" t="n">
+        <v>0.1841657294355093</v>
+      </c>
+      <c r="M891" t="n">
+        <v>2.182193930958745</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
@@ -39726,10 +39878,18 @@
       <c r="I908" t="n">
         <v>6.961375465380724</v>
       </c>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
-      <c r="L908" t="inlineStr"/>
-      <c r="M908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>0.03858115821364612</v>
+      </c>
+      <c r="K908" t="n">
+        <v>0.23502451085558</v>
+      </c>
+      <c r="L908" t="n">
+        <v>-0.2184581852699795</v>
+      </c>
+      <c r="M908" t="n">
+        <v>2.731007526202857</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
@@ -39765,10 +39925,18 @@
       <c r="I909" t="n">
         <v>5.479943412847926</v>
       </c>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
-      <c r="L909" t="inlineStr"/>
-      <c r="M909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>0.3569533601582136</v>
+      </c>
+      <c r="K909" t="n">
+        <v>0.503493624976924</v>
+      </c>
+      <c r="L909" t="n">
+        <v>0.1370214183447129</v>
+      </c>
+      <c r="M909" t="n">
+        <v>2.132386593961161</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
@@ -40523,10 +40691,18 @@
       <c r="I927" t="n">
         <v>7.777405239588595</v>
       </c>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
-      <c r="L927" t="inlineStr"/>
-      <c r="M927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>-0.1119300937248394</v>
+      </c>
+      <c r="K927" t="n">
+        <v>0.2456466839623254</v>
+      </c>
+      <c r="L927" t="n">
+        <v>-0.1838583654545527</v>
+      </c>
+      <c r="M927" t="n">
+        <v>2.610687095238301</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
@@ -40562,10 +40738,18 @@
       <c r="I928" t="n">
         <v>6.477308024687465</v>
       </c>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
-      <c r="L928" t="inlineStr"/>
-      <c r="M928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>0.2190844768866997</v>
+      </c>
+      <c r="K928" t="n">
+        <v>0.5198204364300951</v>
+      </c>
+      <c r="L928" t="n">
+        <v>0.1047479672860789</v>
+      </c>
+      <c r="M928" t="n">
+        <v>2.06667398167574</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
@@ -41314,10 +41498,18 @@
       <c r="I946" t="n">
         <v>8.958770030864056</v>
       </c>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
-      <c r="L946" t="inlineStr"/>
-      <c r="M946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>-0.06439574632716669</v>
+      </c>
+      <c r="K946" t="n">
+        <v>0.2820221037857273</v>
+      </c>
+      <c r="L946" t="n">
+        <v>-0.05024023413823025</v>
+      </c>
+      <c r="M946" t="n">
+        <v>2.288968724969885</v>
+      </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
@@ -41353,10 +41545,18 @@
       <c r="I947" t="n">
         <v>6.678315202598641</v>
       </c>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
-      <c r="L947" t="inlineStr"/>
-      <c r="M947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>0.3127488043338543</v>
+      </c>
+      <c r="K947" t="n">
+        <v>0.5765091068230044</v>
+      </c>
+      <c r="L947" t="n">
+        <v>0.01146066641156172</v>
+      </c>
+      <c r="M947" t="n">
+        <v>1.873828640831355</v>
+      </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
@@ -42105,10 +42305,18 @@
       <c r="I965" t="n">
         <v>9.055620922796669</v>
       </c>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr"/>
-      <c r="M965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>-0.1227366928773208</v>
+      </c>
+      <c r="K965" t="n">
+        <v>0.2977747339815092</v>
+      </c>
+      <c r="L965" t="n">
+        <v>-0.0121057452347735</v>
+      </c>
+      <c r="M965" t="n">
+        <v>2.172310786008958</v>
+      </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
@@ -42144,10 +42352,18 @@
       <c r="I966" t="n">
         <v>7.099423958564801</v>
       </c>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr"/>
-      <c r="M966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>0.2721110030661992</v>
+      </c>
+      <c r="K966" t="n">
+        <v>0.5975685436877082</v>
+      </c>
+      <c r="L966" t="n">
+        <v>-0.02932312144336056</v>
+      </c>
+      <c r="M966" t="n">
+        <v>1.816670092425335</v>
+      </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
@@ -42896,10 +43112,18 @@
       <c r="I984" t="n">
         <v>9.838753231989887</v>
       </c>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
-      <c r="L984" t="inlineStr"/>
-      <c r="M984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>-0.2576168628374579</v>
+      </c>
+      <c r="K984" t="n">
+        <v>0.3124817461483998</v>
+      </c>
+      <c r="L984" t="n">
+        <v>0.06428166151588985</v>
+      </c>
+      <c r="M984" t="n">
+        <v>2.096280837135003</v>
+      </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
@@ -42935,10 +43159,18 @@
       <c r="I985" t="n">
         <v>7.021674999138468</v>
       </c>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
-      <c r="L985" t="inlineStr"/>
-      <c r="M985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>0.1590101908321545</v>
+      </c>
+      <c r="K985" t="n">
+        <v>0.6224962746847555</v>
+      </c>
+      <c r="L985" t="n">
+        <v>-0.05365819701479892</v>
+      </c>
+      <c r="M985" t="n">
+        <v>1.748192084962298</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">

--- a/data_analyzed/moment.xlsx
+++ b/data_analyzed/moment.xlsx
@@ -722,10 +722,18 @@
       <c r="I6" t="n">
         <v>12.22864035222789</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1.477282346912468</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6430008601316372</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.2172062532435262</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.742617893978283</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1559,10 +1567,18 @@
       <c r="I25" t="n">
         <v>12.0913129524412</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1.289671547221794</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5206953613327997</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.07372489015042043</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.19796163554654</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2396,10 +2412,18 @@
       <c r="I44" t="n">
         <v>12.97648910173117</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.7525028612459097</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.4834040075754473</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.05804491740751398</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.279527057949995</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3227,10 +3251,18 @@
       <c r="I63" t="n">
         <v>12.5086040286615</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.6295521131073972</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.4508479156658732</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.001005534651262963</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.434995522272491</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4058,10 +4090,18 @@
       <c r="I82" t="n">
         <v>10.502493632555</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>-0.516135260677097</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.4525158602337503</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.01543451336434984</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2.435815503854494</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4895,10 +4935,18 @@
       <c r="I101" t="n">
         <v>13.41794205435837</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>-1.076622977925301</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.448376582304099</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.05765380539135707</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2.483069796822584</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5726,10 +5774,18 @@
       <c r="I120" t="n">
         <v>12.32410070557436</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>-0.4541269873383775</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.4506361868609465</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.07358145160110161</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2.480718658867192</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6557,10 +6613,18 @@
       <c r="I139" t="n">
         <v>11.60767055117902</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>-0.6575302404215204</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.4508445361474317</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.09288533878809677</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2.496184122438338</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7388,10 +7452,18 @@
       <c r="I158" t="n">
         <v>10.96888143120432</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>-0.6647498008515189</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.450967951930201</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.1125813004828595</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2.513282465284228</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8219,10 +8291,18 @@
       <c r="I177" t="n">
         <v>10.73435915106776</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>-0.6141830484198026</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.451704197853215</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.1321754508754534</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2.526671512074564</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9056,10 +9136,18 @@
       <c r="I196" t="n">
         <v>12.45594312940294</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>-0.7382099015725235</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.4519257258104675</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.1940638174351965</v>
+      </c>
+      <c r="M196" t="n">
+        <v>2.588047259604172</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -9887,10 +9975,18 @@
       <c r="I215" t="n">
         <v>12.18325821204666</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>-0.6762232433871019</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0.451917121526646</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0.2157933155075947</v>
+      </c>
+      <c r="M215" t="n">
+        <v>2.611954445245234</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -10718,10 +10814,18 @@
       <c r="I234" t="n">
         <v>13.7504751161537</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>-0.5934017483515905</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0.4529499003166974</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0.2367433508890373</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2.628059292783453</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -11543,10 +11647,18 @@
       <c r="I253" t="n">
         <v>14.61334348651454</v>
       </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>-0.6830381338146789</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0.4528597409125978</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.2594084689748836</v>
+      </c>
+      <c r="M253" t="n">
+        <v>2.655278111889562</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -12286,10 +12398,18 @@
       <c r="I270" t="n">
         <v>14.6061876952162</v>
       </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>-0.1981799344354955</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.4570840386122355</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0.267064564299616</v>
+      </c>
+      <c r="M270" t="n">
+        <v>2.636059852754527</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -13076,10 +13196,18 @@
       <c r="I288" t="n">
         <v>14.16771763371706</v>
       </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>-0.6627369299571171</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.457686881153907</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0.3379598144967776</v>
+      </c>
+      <c r="M288" t="n">
+        <v>2.720457785699356</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -13899,10 +14027,18 @@
       <c r="I307" t="n">
         <v>13.02946973096475</v>
       </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>-0.6640704137585214</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.457913895639154</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0.3625523166945925</v>
+      </c>
+      <c r="M307" t="n">
+        <v>2.7515562354048</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -14722,10 +14858,18 @@
       <c r="I326" t="n">
         <v>14.18296960958322</v>
       </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>-0.649233777652959</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.4583536105638675</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0.3873467178024197</v>
+      </c>
+      <c r="M326" t="n">
+        <v>2.782278801375452</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -15545,10 +15689,18 @@
       <c r="I345" t="n">
         <v>13.29899062754492</v>
       </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>-0.6759486140615097</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.4584227415980057</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0.4132038225786378</v>
+      </c>
+      <c r="M345" t="n">
+        <v>2.818383311834202</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -16368,10 +16520,18 @@
       <c r="I364" t="n">
         <v>11.61592393302996</v>
       </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>-0.213011757062836</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.4629671583968761</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0.4214911133908249</v>
+      </c>
+      <c r="M364" t="n">
+        <v>2.799257955029619</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -17197,10 +17357,18 @@
       <c r="I383" t="n">
         <v>13.05208136015519</v>
       </c>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
-      <c r="M383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>-0.1931047144327512</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.4780943459631815</v>
+      </c>
+      <c r="L383" t="n">
+        <v>0.4160877221743743</v>
+      </c>
+      <c r="M383" t="n">
+        <v>2.714819154945082</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -18020,10 +18188,18 @@
       <c r="I402" t="n">
         <v>13.28835826560207</v>
       </c>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
-      <c r="M402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>0.12315217332237</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.4834173371618073</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0.4079614427643469</v>
+      </c>
+      <c r="M402" t="n">
+        <v>2.682563357569987</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -18843,10 +19019,18 @@
       <c r="I421" t="n">
         <v>13.19126585584797</v>
       </c>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
-      <c r="M421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>-0.04229948730612585</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.4890179029360937</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0.40771897256185</v>
+      </c>
+      <c r="M421" t="n">
+        <v>2.653083192022226</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -19666,10 +19850,18 @@
       <c r="I440" t="n">
         <v>10.02007597727468</v>
       </c>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
-      <c r="M440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>-0.4050618212753369</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.4928632049788898</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0.4256430241151026</v>
+      </c>
+      <c r="M440" t="n">
+        <v>2.652482080263422</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -20489,10 +20681,18 @@
       <c r="I459" t="n">
         <v>9.509317549000551</v>
       </c>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
-      <c r="M459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>-0.4551375938158524</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.4962935625645516</v>
+      </c>
+      <c r="L459" t="n">
+        <v>0.4459566511720581</v>
+      </c>
+      <c r="M459" t="n">
+        <v>2.658316893901198</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -21318,10 +21518,18 @@
       <c r="I478" t="n">
         <v>12.92348149368938</v>
       </c>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
-      <c r="M478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>-1.026102418389584</v>
+      </c>
+      <c r="K478" t="n">
+        <v>0.4913086182698061</v>
+      </c>
+      <c r="L478" t="n">
+        <v>0.5325361988068151</v>
+      </c>
+      <c r="M478" t="n">
+        <v>2.816322965910428</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -22141,10 +22349,18 @@
       <c r="I497" t="n">
         <v>10.99633228977906</v>
       </c>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
-      <c r="M497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>-0.8873889631228897</v>
+      </c>
+      <c r="K497" t="n">
+        <v>0.4877282578269154</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0.5675000282201691</v>
+      </c>
+      <c r="M497" t="n">
+        <v>2.89667423575272</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -22964,10 +23180,18 @@
       <c r="I516" t="n">
         <v>9.809290619843214</v>
       </c>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
-      <c r="M516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>-1.304125163509162</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0.4726427527162234</v>
+      </c>
+      <c r="L516" t="n">
+        <v>0.590360291702797</v>
+      </c>
+      <c r="M516" t="n">
+        <v>3.020339017269187</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -23787,10 +24011,18 @@
       <c r="I535" t="n">
         <v>10.97878240271202</v>
       </c>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
-      <c r="M535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>-0.8499757026326253</v>
+      </c>
+      <c r="K535" t="n">
+        <v>0.4695572284139592</v>
+      </c>
+      <c r="L535" t="n">
+        <v>0.6273898113437535</v>
+      </c>
+      <c r="M535" t="n">
+        <v>3.108478537897936</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -24610,10 +24842,18 @@
       <c r="I554" t="n">
         <v>11.30089800010525</v>
       </c>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
-      <c r="M554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>-0.7175322941186084</v>
+      </c>
+      <c r="K554" t="n">
+        <v>0.4690546999669646</v>
+      </c>
+      <c r="L554" t="n">
+        <v>0.6624895649182415</v>
+      </c>
+      <c r="M554" t="n">
+        <v>3.175250609064786</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -25439,10 +25679,18 @@
       <c r="I573" t="n">
         <v>12.74818063125277</v>
       </c>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
-      <c r="M573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>-0.3125041300915371</v>
+      </c>
+      <c r="K573" t="n">
+        <v>0.4712093240364904</v>
+      </c>
+      <c r="L573" t="n">
+        <v>0.7536979182829137</v>
+      </c>
+      <c r="M573" t="n">
+        <v>3.332998588019548</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -26262,10 +26510,18 @@
       <c r="I592" t="n">
         <v>10.55689381395363</v>
       </c>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
-      <c r="M592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>-0.1772000188674474</v>
+      </c>
+      <c r="K592" t="n">
+        <v>0.4772399240310436</v>
+      </c>
+      <c r="L592" t="n">
+        <v>0.7597635802022941</v>
+      </c>
+      <c r="M592" t="n">
+        <v>3.304213389742004</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -27085,10 +27341,18 @@
       <c r="I611" t="n">
         <v>11.53110329535999</v>
       </c>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
-      <c r="M611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>0.03765113525854395</v>
+      </c>
+      <c r="K611" t="n">
+        <v>0.4838488370217698</v>
+      </c>
+      <c r="L611" t="n">
+        <v>0.752364869482401</v>
+      </c>
+      <c r="M611" t="n">
+        <v>3.256976923646162</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -27908,10 +28172,18 @@
       <c r="I630" t="n">
         <v>11.47201725257162</v>
       </c>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
-      <c r="M630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>-0.02340473408778189</v>
+      </c>
+      <c r="K630" t="n">
+        <v>0.4906560012967206</v>
+      </c>
+      <c r="L630" t="n">
+        <v>0.748530925748327</v>
+      </c>
+      <c r="M630" t="n">
+        <v>3.213228907425157</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -28731,10 +29003,18 @@
       <c r="I649" t="n">
         <v>14.41872135162159</v>
       </c>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
-      <c r="M649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>-0.3261774413778852</v>
+      </c>
+      <c r="K649" t="n">
+        <v>0.4961668977682696</v>
+      </c>
+      <c r="L649" t="n">
+        <v>0.7648173613827539</v>
+      </c>
+      <c r="M649" t="n">
+        <v>3.206213021077398</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -29560,10 +29840,18 @@
       <c r="I668" t="n">
         <v>13.94330982624902</v>
       </c>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
-      <c r="M668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>0.2249675675517139</v>
+      </c>
+      <c r="K668" t="n">
+        <v>0.5161496630566509</v>
+      </c>
+      <c r="L668" t="n">
+        <v>0.765648256423696</v>
+      </c>
+      <c r="M668" t="n">
+        <v>3.108089542562038</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -30383,10 +30671,18 @@
       <c r="I687" t="n">
         <v>13.35867396994571</v>
       </c>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
-      <c r="M687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>0.5344404915603791</v>
+      </c>
+      <c r="K687" t="n">
+        <v>0.5197070283324361</v>
+      </c>
+      <c r="L687" t="n">
+        <v>0.7419874107148443</v>
+      </c>
+      <c r="M687" t="n">
+        <v>3.074251699119845</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -31206,10 +31502,18 @@
       <c r="I706" t="n">
         <v>12.59163667277719</v>
       </c>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
-      <c r="M706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>0.2422552835924969</v>
+      </c>
+      <c r="K706" t="n">
+        <v>0.5268133146755812</v>
+      </c>
+      <c r="L706" t="n">
+        <v>0.7235849514517669</v>
+      </c>
+      <c r="M706" t="n">
+        <v>3.022931541449702</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -32023,10 +32327,18 @@
       <c r="I725" t="n">
         <v>12.30725302030576</v>
       </c>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
-      <c r="M725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>0.07225593691223042</v>
+      </c>
+      <c r="K725" t="n">
+        <v>0.5349644508647857</v>
+      </c>
+      <c r="L725" t="n">
+        <v>0.7136139080027292</v>
+      </c>
+      <c r="M725" t="n">
+        <v>2.972965183273405</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -32758,10 +33070,18 @@
       <c r="I742" t="n">
         <v>12.50129700330394</v>
       </c>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
-      <c r="M742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>0.8303227957310438</v>
+      </c>
+      <c r="K742" t="n">
+        <v>0.5326835134425084</v>
+      </c>
+      <c r="L742" t="n">
+        <v>0.6985624488779159</v>
+      </c>
+      <c r="M742" t="n">
+        <v>2.96954242281555</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -33540,10 +33860,18 @@
       <c r="I760" t="n">
         <v>8.492973349451711</v>
       </c>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
-      <c r="M760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>0.4121774926820508</v>
+      </c>
+      <c r="K760" t="n">
+        <v>0.52947771820412</v>
+      </c>
+      <c r="L760" t="n">
+        <v>0.6311327964926509</v>
+      </c>
+      <c r="M760" t="n">
+        <v>2.929050836434688</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -34355,10 +34683,18 @@
       <c r="I779" t="n">
         <v>8.751427601134663</v>
       </c>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
-      <c r="M779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>0.332436778392457</v>
+      </c>
+      <c r="K779" t="n">
+        <v>0.5367335221490712</v>
+      </c>
+      <c r="L779" t="n">
+        <v>0.6074970978651285</v>
+      </c>
+      <c r="M779" t="n">
+        <v>2.87981202521023</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -35170,10 +35506,18 @@
       <c r="I798" t="n">
         <v>10.5472320775076</v>
       </c>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
-      <c r="M798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>0.655420508356823</v>
+      </c>
+      <c r="K798" t="n">
+        <v>0.5387434162345179</v>
+      </c>
+      <c r="L798" t="n">
+        <v>0.580364417305138</v>
+      </c>
+      <c r="M798" t="n">
+        <v>2.860943871911835</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
@@ -35985,10 +36329,18 @@
       <c r="I817" t="n">
         <v>10.43423696254672</v>
       </c>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
-      <c r="M817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>0.4269757926895136</v>
+      </c>
+      <c r="K817" t="n">
+        <v>0.5451654426702852</v>
+      </c>
+      <c r="L817" t="n">
+        <v>0.5531585209632127</v>
+      </c>
+      <c r="M817" t="n">
+        <v>2.81890317602702</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
@@ -36806,10 +37158,18 @@
       <c r="I836" t="n">
         <v>11.75268514010502</v>
       </c>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr"/>
-      <c r="M836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>0.2853347213291343</v>
+      </c>
+      <c r="K836" t="n">
+        <v>0.5652247219704619</v>
+      </c>
+      <c r="L836" t="n">
+        <v>0.47170424782565</v>
+      </c>
+      <c r="M836" t="n">
+        <v>2.699537866382877</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
@@ -37621,10 +37981,18 @@
       <c r="I855" t="n">
         <v>8.814173138256782</v>
       </c>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
-      <c r="L855" t="inlineStr"/>
-      <c r="M855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>0.3486084367838913</v>
+      </c>
+      <c r="K855" t="n">
+        <v>0.5738014500075432</v>
+      </c>
+      <c r="L855" t="n">
+        <v>0.4457564652853099</v>
+      </c>
+      <c r="M855" t="n">
+        <v>2.653079583015679</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
@@ -38436,10 +38804,18 @@
       <c r="I874" t="n">
         <v>8.774752746187053</v>
       </c>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr"/>
-      <c r="M874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>-0.002324162143818885</v>
+      </c>
+      <c r="K874" t="n">
+        <v>0.5850523549518037</v>
+      </c>
+      <c r="L874" t="n">
+        <v>0.4416249576227806</v>
+      </c>
+      <c r="M874" t="n">
+        <v>2.602162949010471</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
@@ -39251,10 +39627,18 @@
       <c r="I893" t="n">
         <v>9.359814936911434</v>
       </c>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
-      <c r="L893" t="inlineStr"/>
-      <c r="M893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>-0.04578012498524904</v>
+      </c>
+      <c r="K893" t="n">
+        <v>0.5967123075441018</v>
+      </c>
+      <c r="L893" t="n">
+        <v>0.4408012633709308</v>
+      </c>
+      <c r="M893" t="n">
+        <v>2.553532143010382</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
@@ -39972,10 +40356,18 @@
       <c r="I910" t="n">
         <v>5.834648396060894</v>
       </c>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
-      <c r="L910" t="inlineStr"/>
-      <c r="M910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>0.1801380462221302</v>
+      </c>
+      <c r="K910" t="n">
+        <v>0.5767138759588911</v>
+      </c>
+      <c r="L910" t="n">
+        <v>0.1547621596160096</v>
+      </c>
+      <c r="M910" t="n">
+        <v>2.505388901929666</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
@@ -40058,10 +40450,18 @@
       <c r="I912" t="n">
         <v>10.52864733864939</v>
       </c>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
-      <c r="L912" t="inlineStr"/>
-      <c r="M912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>-0.195105760602844</v>
+      </c>
+      <c r="K912" t="n">
+        <v>0.6081287845824713</v>
+      </c>
+      <c r="L912" t="n">
+        <v>0.451901484868166</v>
+      </c>
+      <c r="M912" t="n">
+        <v>2.517552118679247</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
@@ -40785,10 +41185,18 @@
       <c r="I929" t="n">
         <v>5.484758287719742</v>
       </c>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
-      <c r="L929" t="inlineStr"/>
-      <c r="M929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>0.035706369411352</v>
+      </c>
+      <c r="K929" t="n">
+        <v>0.5931560001382098</v>
+      </c>
+      <c r="L929" t="n">
+        <v>0.1487503366435251</v>
+      </c>
+      <c r="M929" t="n">
+        <v>2.435309308996479</v>
+      </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
@@ -40871,10 +41279,18 @@
       <c r="I931" t="n">
         <v>11.57436934395236</v>
       </c>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
-      <c r="L931" t="inlineStr"/>
-      <c r="M931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>-0.1390649750100463</v>
+      </c>
+      <c r="K931" t="n">
+        <v>0.6440599939930639</v>
+      </c>
+      <c r="L931" t="n">
+        <v>0.4936289468824919</v>
+      </c>
+      <c r="M931" t="n">
+        <v>2.423707911152657</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
@@ -41592,10 +42008,18 @@
       <c r="I948" t="n">
         <v>6.499995497826918</v>
       </c>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
-      <c r="L948" t="inlineStr"/>
-      <c r="M948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>0.1070944970656949</v>
+      </c>
+      <c r="K948" t="n">
+        <v>0.6482476954050463</v>
+      </c>
+      <c r="L948" t="n">
+        <v>0.1388475111057705</v>
+      </c>
+      <c r="M948" t="n">
+        <v>2.229431919465588</v>
+      </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
@@ -41678,10 +42102,18 @@
       <c r="I950" t="n">
         <v>12.49071084338882</v>
       </c>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
-      <c r="L950" t="inlineStr"/>
-      <c r="M950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>-0.194822487875913</v>
+      </c>
+      <c r="K950" t="n">
+        <v>0.657547312178322</v>
+      </c>
+      <c r="L950" t="n">
+        <v>0.5045337537922706</v>
+      </c>
+      <c r="M950" t="n">
+        <v>2.387282082693997</v>
+      </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
@@ -42399,10 +42831,18 @@
       <c r="I967" t="n">
         <v>6.157321997772498</v>
       </c>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr"/>
-      <c r="M967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>0.05736490908427533</v>
+      </c>
+      <c r="K967" t="n">
+        <v>0.669056075986034</v>
+      </c>
+      <c r="L967" t="n">
+        <v>0.1301275567536507</v>
+      </c>
+      <c r="M967" t="n">
+        <v>2.159255876829187</v>
+      </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
@@ -42485,10 +42925,18 @@
       <c r="I969" t="n">
         <v>12.79148720818062</v>
       </c>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
-      <c r="L969" t="inlineStr"/>
-      <c r="M969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>-0.3216975593808727</v>
+      </c>
+      <c r="K969" t="n">
+        <v>0.6701918066130262</v>
+      </c>
+      <c r="L969" t="n">
+        <v>0.5263752878107336</v>
+      </c>
+      <c r="M969" t="n">
+        <v>2.367711971973246</v>
+      </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
@@ -43206,10 +43654,18 @@
       <c r="I986" t="n">
         <v>5.908878308659542</v>
       </c>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
-      <c r="L986" t="inlineStr"/>
-      <c r="M986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>-0.06444003869336853</v>
+      </c>
+      <c r="K986" t="n">
+        <v>0.6912239929730917</v>
+      </c>
+      <c r="L986" t="n">
+        <v>0.1355354538661993</v>
+      </c>
+      <c r="M986" t="n">
+        <v>2.091729358658431</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
